--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2021\Base 20210806\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2021\Base 20210907\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8724B072-E508-4C7B-B5A0-E2DA9C4CB289}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1494AE0-C0DB-4370-8175-D2F04BDCF0AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -2073,7 +2073,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (junio de 2021) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (julio de 2021) debido a que no se encuentra disponible.</t>
     </r>
   </si>
 </sst>
@@ -2237,7 +2237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2295,6 +2295,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2582,7 +2585,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="71.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -2597,26 +2600,26 @@
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>529</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="28" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2021\Base 20210907\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2021\Base 20211007\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1494AE0-C0DB-4370-8175-D2F04BDCF0AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E7EB6B-16FC-4EA2-8D77-1BDBE864CC33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -646,18 +646,6 @@
   </si>
   <si>
     <t>Superficie en metros cuadrados, de las solicitudes de edificación no habitacional autorizadas en un mes determinado.</t>
-  </si>
-  <si>
-    <t>Superficie en metros cuadrados destinados a la construcción de obras nuevas de la industria, comercio y establecimientos financieros (ICEF), de las solicitudes de edificación habitacional autorizadas en un mes determinado.</t>
-  </si>
-  <si>
-    <t>Superficie en metros cuadrados destinados a la construcción de ampliaciones de la industria, comercio y establecimientos financieros (ICEF), de las solicitudes de edificación habitacional autorizadas en un mes determinado.</t>
-  </si>
-  <si>
-    <t>Superficie en metros cuadrados destinados a la construcción de obras nuevas de servicios, de las solicitudes de edificación habitacional autorizadas en un mes determinado.</t>
-  </si>
-  <si>
-    <t>Superficie en metros cuadrados destinados a la construcción de ampliaciones de servicios, de las solicitudes de edificación habitacional autorizadas en un mes determinado.</t>
   </si>
   <si>
     <t>Índice de Producción Minera (IPMin) Base promedio año 2014=100. Este índice mide la evolución de la actividad productiva de la industria minera desde el punto de vista de la oferta.</t>
@@ -2073,8 +2061,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (julio de 2021) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (agosto de 2021) debido a que no se encuentra disponible.</t>
     </r>
+  </si>
+  <si>
+    <t>Superficie en metros cuadrados destinados a la construcción de obras nuevas de la industria, comercio y establecimientos financieros (ICEF), de las solicitudes de edificación no habitacional autorizadas en un mes determinado.</t>
+  </si>
+  <si>
+    <t>Superficie en metros cuadrados destinados a la construcción de ampliaciones de la industria, comercio y establecimientos financieros (ICEF), de las solicitudes de edificación no habitacional autorizadas en un mes determinado.</t>
+  </si>
+  <si>
+    <t>Superficie en metros cuadrados destinados a la construcción de obras nuevas de servicios, de las solicitudes de edificación no habitacional autorizadas en un mes determinado.</t>
+  </si>
+  <si>
+    <t>Superficie en metros cuadrados destinados a la construcción de ampliaciones de servicios, de las solicitudes de edificación no habitacional autorizadas en un mes determinado.</t>
   </si>
 </sst>
 </file>
@@ -2597,27 +2597,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>0</v>
@@ -2637,13 +2637,13 @@
         <v>166</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2657,16 +2657,16 @@
         <v>129</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2680,16 +2680,16 @@
         <v>133</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -2700,19 +2700,19 @@
         <v>168</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2723,19 +2723,19 @@
         <v>168</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>171</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2746,19 +2746,19 @@
         <v>168</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2769,19 +2769,19 @@
         <v>168</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2792,19 +2792,19 @@
         <v>124</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2815,19 +2815,19 @@
         <v>124</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2838,19 +2838,19 @@
         <v>124</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2861,19 +2861,19 @@
         <v>124</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2884,19 +2884,19 @@
         <v>124</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2907,19 +2907,19 @@
         <v>124</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>102</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2930,19 +2930,19 @@
         <v>124</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2953,19 +2953,19 @@
         <v>124</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2976,19 +2976,19 @@
         <v>124</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2999,19 +2999,19 @@
         <v>124</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3022,19 +3022,19 @@
         <v>124</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3045,19 +3045,19 @@
         <v>124</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3068,19 +3068,19 @@
         <v>124</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3091,19 +3091,19 @@
         <v>124</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3114,19 +3114,19 @@
         <v>124</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3137,19 +3137,19 @@
         <v>124</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3160,19 +3160,19 @@
         <v>124</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3183,19 +3183,19 @@
         <v>124</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3206,19 +3206,19 @@
         <v>124</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3229,19 +3229,19 @@
         <v>124</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3252,19 +3252,19 @@
         <v>124</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3275,19 +3275,19 @@
         <v>124</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3298,19 +3298,19 @@
         <v>124</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3321,19 +3321,19 @@
         <v>124</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3344,19 +3344,19 @@
         <v>124</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3367,19 +3367,19 @@
         <v>124</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3390,19 +3390,19 @@
         <v>124</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3413,19 +3413,19 @@
         <v>124</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3436,19 +3436,19 @@
         <v>124</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3459,19 +3459,19 @@
         <v>124</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3482,19 +3482,19 @@
         <v>124</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3505,19 +3505,19 @@
         <v>124</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3528,19 +3528,19 @@
         <v>124</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3551,19 +3551,19 @@
         <v>124</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3574,19 +3574,19 @@
         <v>124</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3597,19 +3597,19 @@
         <v>124</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3620,19 +3620,19 @@
         <v>124</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>112</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3643,19 +3643,19 @@
         <v>124</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3666,19 +3666,19 @@
         <v>124</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3689,19 +3689,19 @@
         <v>124</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3712,19 +3712,19 @@
         <v>124</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3735,19 +3735,19 @@
         <v>124</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3758,19 +3758,19 @@
         <v>124</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3781,19 +3781,19 @@
         <v>124</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3804,19 +3804,19 @@
         <v>124</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3827,19 +3827,19 @@
         <v>124</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3850,19 +3850,19 @@
         <v>124</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>131</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3873,19 +3873,19 @@
         <v>124</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3896,19 +3896,19 @@
         <v>124</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3919,19 +3919,19 @@
         <v>124</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3942,19 +3942,19 @@
         <v>124</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3965,19 +3965,19 @@
         <v>124</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>120</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3988,19 +3988,19 @@
         <v>124</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -4011,19 +4011,19 @@
         <v>124</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -4034,19 +4034,19 @@
         <v>124</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -4057,19 +4057,19 @@
         <v>124</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4080,19 +4080,19 @@
         <v>124</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4103,19 +4103,19 @@
         <v>124</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -4126,19 +4126,19 @@
         <v>124</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -4149,19 +4149,19 @@
         <v>124</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4178,13 +4178,13 @@
         <v>35</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -4195,19 +4195,19 @@
         <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4218,19 +4218,19 @@
         <v>4</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4241,19 +4241,19 @@
         <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4264,19 +4264,19 @@
         <v>4</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4287,19 +4287,19 @@
         <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4310,19 +4310,19 @@
         <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4333,19 +4333,19 @@
         <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4356,19 +4356,19 @@
         <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4379,19 +4379,19 @@
         <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4408,13 +4408,13 @@
         <v>62</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4431,13 +4431,13 @@
         <v>44</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4448,19 +4448,19 @@
         <v>43</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D84" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4471,19 +4471,19 @@
         <v>43</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4494,19 +4494,19 @@
         <v>43</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4517,19 +4517,19 @@
         <v>43</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4540,19 +4540,19 @@
         <v>43</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4563,19 +4563,19 @@
         <v>43</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4586,19 +4586,19 @@
         <v>43</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4609,19 +4609,19 @@
         <v>43</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4632,19 +4632,19 @@
         <v>43</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4655,19 +4655,19 @@
         <v>43</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4684,13 +4684,13 @@
         <v>45</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4707,13 +4707,13 @@
         <v>46</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4730,13 +4730,13 @@
         <v>47</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4747,19 +4747,19 @@
         <v>43</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4770,19 +4770,19 @@
         <v>43</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4793,19 +4793,19 @@
         <v>43</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4816,19 +4816,19 @@
         <v>43</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4839,19 +4839,19 @@
         <v>43</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4862,19 +4862,19 @@
         <v>43</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4885,19 +4885,19 @@
         <v>43</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4908,19 +4908,19 @@
         <v>43</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4931,19 +4931,19 @@
         <v>43</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4954,19 +4954,19 @@
         <v>43</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4977,19 +4977,19 @@
         <v>43</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -5000,19 +5000,19 @@
         <v>43</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -5023,19 +5023,19 @@
         <v>43</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -5046,19 +5046,19 @@
         <v>43</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -5069,19 +5069,19 @@
         <v>43</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -5098,10 +5098,10 @@
         <v>2</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>198</v>
@@ -5118,13 +5118,13 @@
         <v>79</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>196</v>
@@ -5144,10 +5144,10 @@
         <v>5</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>199</v>
@@ -5161,16 +5161,16 @@
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>197</v>
@@ -5184,19 +5184,19 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5213,10 +5213,10 @@
         <v>3</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>200</v>
@@ -5230,19 +5230,19 @@
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -5253,19 +5253,19 @@
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -5276,19 +5276,19 @@
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -5299,19 +5299,19 @@
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -5322,19 +5322,19 @@
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -5345,19 +5345,19 @@
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5368,16 +5368,16 @@
         <v>13</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>201</v>
@@ -5397,10 +5397,10 @@
         <v>16</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>202</v>
@@ -5420,10 +5420,10 @@
         <v>17</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>203</v>
@@ -5437,19 +5437,19 @@
         <v>13</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5460,16 +5460,16 @@
         <v>13</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>204</v>
@@ -5489,13 +5489,13 @@
         <v>19</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>205</v>
+        <v>582</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5512,13 +5512,13 @@
         <v>20</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>206</v>
+        <v>583</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5535,13 +5535,13 @@
         <v>21</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>207</v>
+        <v>584</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5558,13 +5558,13 @@
         <v>22</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>208</v>
+        <v>585</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -5575,19 +5575,19 @@
         <v>13</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5604,13 +5604,13 @@
         <v>24</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -5627,13 +5627,13 @@
         <v>25</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5644,19 +5644,19 @@
         <v>13</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5667,19 +5667,19 @@
         <v>13</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5690,19 +5690,19 @@
         <v>13</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5713,19 +5713,19 @@
         <v>13</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5736,19 +5736,19 @@
         <v>13</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -5759,19 +5759,19 @@
         <v>13</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5782,19 +5782,19 @@
         <v>13</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -5805,19 +5805,19 @@
         <v>13</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5828,19 +5828,19 @@
         <v>13</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5851,19 +5851,19 @@
         <v>186</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>175</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5874,19 +5874,19 @@
         <v>186</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>176</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5897,19 +5897,19 @@
         <v>186</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5920,19 +5920,19 @@
         <v>186</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5943,19 +5943,19 @@
         <v>186</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>179</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5966,19 +5966,19 @@
         <v>186</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5989,19 +5989,19 @@
         <v>186</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -6012,19 +6012,19 @@
         <v>186</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>182</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -6035,19 +6035,19 @@
         <v>186</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>183</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -6058,19 +6058,19 @@
         <v>186</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>184</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -6081,19 +6081,19 @@
         <v>186</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -6110,13 +6110,13 @@
         <v>147</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -6133,13 +6133,13 @@
         <v>148</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -6156,13 +6156,13 @@
         <v>149</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -6179,13 +6179,13 @@
         <v>150</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -6196,19 +6196,19 @@
         <v>165</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -6225,13 +6225,13 @@
         <v>151</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -6248,13 +6248,13 @@
         <v>152</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -6271,13 +6271,13 @@
         <v>153</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -6294,13 +6294,13 @@
         <v>154</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -6317,13 +6317,13 @@
         <v>155</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -6334,19 +6334,19 @@
         <v>165</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>156</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -6357,19 +6357,19 @@
         <v>165</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -6380,19 +6380,19 @@
         <v>165</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -6403,19 +6403,19 @@
         <v>165</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>160</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -6426,19 +6426,19 @@
         <v>165</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -6449,19 +6449,19 @@
         <v>165</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>162</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -6472,19 +6472,19 @@
         <v>165</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>163</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -6495,19 +6495,19 @@
         <v>165</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6518,19 +6518,19 @@
         <v>165</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6541,19 +6541,19 @@
         <v>165</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G175" s="27" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -6570,13 +6570,13 @@
         <v>173</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -6602,7 +6602,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -6641,7 +6641,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -6654,7 +6654,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -6667,7 +6667,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -6680,7 +6680,7 @@
     </row>
     <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -6709,80 +6709,80 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>538</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6790,7 +6790,7 @@
         <v>174</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -6826,307 +6826,307 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
@@ -7136,47 +7136,47 @@
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
@@ -7191,52 +7191,52 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
@@ -7246,7 +7246,7 @@
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -7261,87 +7261,87 @@
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
@@ -7361,7 +7361,7 @@
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
@@ -7371,37 +7371,37 @@
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
@@ -7416,12 +7416,12 @@
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
@@ -7446,7 +7446,7 @@
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
@@ -7461,102 +7461,102 @@
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
@@ -7581,7 +7581,7 @@
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
@@ -7611,47 +7611,47 @@
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2021\Base 20211108\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2021\Base 20211207\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11481C0-8B0F-4599-96FB-FC3B20FC3956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C82797-033E-4604-8FC6-AE00E569B1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Descriptor de variables'!$A$4:$G$176</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateCount="1000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2073,7 +2073,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (septiembre de 2021) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (octubre de 2021) debido a que no se encuentra disponible.</t>
     </r>
   </si>
 </sst>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2021\Base 20211207\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2022\Base 20220107\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C82797-033E-4604-8FC6-AE00E569B1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90CBC45-4060-42B0-A0ED-1BEF5D7048EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Descriptor de variables'!$A$4:$G$176</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="587">
   <si>
     <t>Definición</t>
   </si>
@@ -2073,7 +2082,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (octubre de 2021) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (noviembre de 2021) debido a que no se encuentra disponible.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Como una mejora a las cifras ya disponibles para la Región de Ñuble, en la publicación de noviembre de 2021, desde septiembre de 2018, se agregan cifras del sector Energía, gas y agua, específicamente los códigos: 5.1, 5.1.1, 5.1.4, 5.2, 5.2.1, 5.2.2, 5.2.3, 5.2.5, 5.2.7.</t>
     </r>
   </si>
 </sst>
@@ -2081,7 +2113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2108,13 +2140,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2237,7 +2262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2267,7 +2292,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2299,6 +2323,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2601,25 +2627,25 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>525</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>526</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5186,7 +5212,7 @@
       <c r="C116" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D116" s="19" t="s">
+      <c r="D116" s="18" t="s">
         <v>554</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -6552,7 +6578,7 @@
       <c r="F175" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G175" s="27" t="s">
+      <c r="G175" s="26" t="s">
         <v>561</v>
       </c>
     </row>
@@ -6590,13 +6616,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="191.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6683,11 +6709,10 @@
         <v>585</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+    <row r="8" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>586</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6703,18 +6728,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.140625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="60.140625" style="24" customWidth="1"/>
     <col min="2" max="2" width="196.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>526</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -6722,23 +6747,23 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>557</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -6746,7 +6771,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>533</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -6754,42 +6779,42 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>534</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>535</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>537</v>
       </c>
     </row>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2022\Base 20220107\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2022\Base 20220307\Bases Regionales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90CBC45-4060-42B0-A0ED-1BEF5D7048EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39574C06-2523-405A-B46E-858D32F6F826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="588">
   <si>
     <t>Definición</t>
   </si>
@@ -2082,7 +2082,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (noviembre de 2021) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Como una mejora a las cifras ya disponibles para la Región de Ñuble, en la publicación de noviembre de 2021, desde septiembre de 2018, se agregan cifras del sector Energía, gas y agua, específicamente los códigos: 5.1, 5.1.1, 5.1.4, 5.2, 5.2.1, 5.2.2, 5.2.3, 5.2.5, 5.2.7.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Los datos de las variables 6.4, 6.4.1, 6.4.2, 6.4.3, 6.4.4, 6.4.5, 6.4.6, 6.4.7, 6.4.8 y 6.4.9 para la Región de La Araucanía fueron actualizados desde enero 2014 hasta noviembre 2021.</t>
     </r>
   </si>
   <si>
@@ -2095,7 +2110,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7)</t>
+      <t>8)</t>
     </r>
     <r>
       <rPr>
@@ -2105,7 +2120,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Como una mejora a las cifras ya disponibles para la Región de Ñuble, en la publicación de noviembre de 2021, desde septiembre de 2018, se agregan cifras del sector Energía, gas y agua, específicamente los códigos: 5.1, 5.1.1, 5.1.4, 5.2, 5.2.1, 5.2.2, 5.2.3, 5.2.5, 5.2.7.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (enero de 2022) debido a que no se encuentra disponible.</t>
     </r>
   </si>
 </sst>
@@ -2262,7 +2277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2325,6 +2340,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6616,7 +6632,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -6705,13 +6721,18 @@
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="28" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="30" t="s">
         <v>586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2022\Base 20220307\Bases Regionales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2022\Base 20220523\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39574C06-2523-405A-B46E-858D32F6F826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFE808E-920C-443F-A2D5-2360E278D03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -2120,7 +2120,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (enero de 2022) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (marzo de 2022) debido a que no se encuentra disponible.</t>
     </r>
   </si>
 </sst>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2022\Base 20220523\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2022\Base 20220607\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFE808E-920C-443F-A2D5-2360E278D03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7276443F-54D6-4DD4-99FB-2962E8E857A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -2120,7 +2120,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (marzo de 2022) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (abril de 2022) debido a que no se encuentra disponible.</t>
     </r>
   </si>
 </sst>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2022\Base 20220607\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2022\Base 20221021\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7276443F-54D6-4DD4-99FB-2962E8E857A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D75CE67-F4E3-4D2F-AD4F-22D2C4E3C8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Electricidad, Gas y Agua</t>
   </si>
   <si>
-    <t>Generación electrica</t>
-  </si>
-  <si>
     <t>Distribución eléctrica</t>
   </si>
   <si>
@@ -63,30 +60,9 @@
     <t>Generación Solar</t>
   </si>
   <si>
-    <t>Distribución Electrica Residencial</t>
-  </si>
-  <si>
-    <t>Distribución Electrica Industrial</t>
-  </si>
-  <si>
-    <t>Distribución Electrica Comercial</t>
-  </si>
-  <si>
-    <t>Distribución Electrica Minería</t>
-  </si>
-  <si>
-    <t>Distribución Electrica Agrícola</t>
-  </si>
-  <si>
-    <t>Distribución Electrica Varios</t>
-  </si>
-  <si>
     <t>Construcción</t>
   </si>
   <si>
-    <t>Superficie Autorizada  no habitacional</t>
-  </si>
-  <si>
     <t>Superficie Autorizada habitacional</t>
   </si>
   <si>
@@ -102,15 +78,6 @@
     <t>Superficie Autorizada  no habitacional (ICEF-Obras nuevas)</t>
   </si>
   <si>
-    <t>Superficie Autorizada  no habitacional (ICEF-Ampliaciones)</t>
-  </si>
-  <si>
-    <t>Superficie Autorizada  no habitacional (Servicios - Obras nuevas)</t>
-  </si>
-  <si>
-    <t>Superficie Autorizada  no habitacional (Servicios - Ampliaciones)</t>
-  </si>
-  <si>
     <t>Ejecución presupuestaria Sub 31 MOP</t>
   </si>
   <si>
@@ -493,9 +460,6 @@
   </si>
   <si>
     <t>Parque vehicular Escolar</t>
-  </si>
-  <si>
-    <t>Movimiento de carga portuaria  Embarcada al exterior</t>
   </si>
   <si>
     <t>Movimiento de carga portuaria Desembarcada del exterior</t>
@@ -1476,145 +1440,6 @@
   </si>
   <si>
     <t>Carga transportada hacia o desde el exterior si  empaquetar ni embalar, en grandes cantidades en estado liquido o gaseosa.</t>
-  </si>
-  <si>
-    <t>Pasada de vehiculos por plazas de peajes y porticos de autopistas interurbanas</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a los clientes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>residenciales</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a las empresas </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>industriales</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a los locales y empresas dedicadas al </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>comercio.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a las empresas dedicadas al rubro de la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>minería</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a entidades y particulares que se dedican al </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cultivo y trabajo de la tierra.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Corresponde a la energía eléctrica distribuida en MWH hacia los sectores de</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> transporte, alumbrado público, fiscal, municipal y otros. </t>
-    </r>
   </si>
   <si>
     <r>
@@ -2101,6 +1926,63 @@
     </r>
   </si>
   <si>
+    <t>Generación eléctrica</t>
+  </si>
+  <si>
+    <t>Movimiento de carga portuaria embarcada al exterior</t>
+  </si>
+  <si>
+    <t>Distribución Eléctrica Industrial</t>
+  </si>
+  <si>
+    <t>Distribución Eléctrica Comercial</t>
+  </si>
+  <si>
+    <t>Distribución Eléctrica Minería</t>
+  </si>
+  <si>
+    <t>Distribución Eléctrica Agrícola</t>
+  </si>
+  <si>
+    <t>Distribución Eléctrica Varios</t>
+  </si>
+  <si>
+    <t>Pasada de vehiculos por plazas de peajes y pórticos de autopistas interurbanas</t>
+  </si>
+  <si>
+    <t>Superficie Autorizada no habitacional</t>
+  </si>
+  <si>
+    <t>Superficie Autorizada no habitacional (ICEF-Ampliaciones)</t>
+  </si>
+  <si>
+    <t>Superficie Autorizada no habitacional (Servicios - Ampliaciones)</t>
+  </si>
+  <si>
+    <t>Superficie Autorizada no habitacional (Servicios - Obras nuevas)</t>
+  </si>
+  <si>
+    <t>Distribución Eléctrica Residencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a los clientes residenciales. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a las empresas industriales. </t>
+  </si>
+  <si>
+    <t>Corresponde a la energía eléctrica distribuida en MWH a los locales y empresas dedicadas al comercio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a las empresas dedicadas al rubro de la minería. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a entidades y particulares que se dedican al cultivo y trabajo de la tierra. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH hacia los sectores de transporte, alumbrado público, fiscal, municipal y otros. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2120,7 +2002,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (abril de 2022) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (agosto de 2022) debido a que no se encuentra disponible.</t>
     </r>
   </si>
 </sst>
@@ -2277,21 +2159,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2332,15 +2207,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2623,7 +2510,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2633,35 +2523,35 @@
     <col min="4" max="4" width="71.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>526</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="G4" s="27" t="s">
+      <c r="A1" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2670,22 +2560,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>453</v>
+        <v>503</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2693,22 +2583,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>454</v>
+        <v>209</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2716,22 +2606,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>455</v>
+        <v>209</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -2739,22 +2629,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>485</v>
+        <v>209</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2762,22 +2652,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>456</v>
+        <v>209</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2785,22 +2675,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>457</v>
+        <v>218</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2808,22 +2698,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>458</v>
+        <v>209</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2831,22 +2721,22 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>377</v>
+      <c r="G12" s="28" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2854,22 +2744,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>383</v>
+      <c r="G13" s="28" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2877,22 +2767,22 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>384</v>
+      <c r="G14" s="28" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2900,22 +2790,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>385</v>
+      <c r="G15" s="28" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2923,22 +2813,22 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>386</v>
+      <c r="G16" s="28" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2946,22 +2836,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>387</v>
+      <c r="G17" s="28" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2969,22 +2859,22 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>388</v>
+      <c r="G18" s="28" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2992,22 +2882,22 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>389</v>
+      <c r="G19" s="28" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3015,22 +2905,22 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>390</v>
+      <c r="G20" s="28" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3038,22 +2928,22 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>391</v>
+      <c r="G21" s="28" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3061,22 +2951,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>392</v>
+      <c r="G22" s="28" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3084,22 +2974,22 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>393</v>
+      <c r="G23" s="28" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3107,22 +2997,22 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>394</v>
+      <c r="G24" s="28" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3130,22 +3020,22 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>395</v>
+      <c r="G25" s="28" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3153,22 +3043,22 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>396</v>
+      <c r="G26" s="28" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3176,22 +3066,22 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>397</v>
+      <c r="G27" s="28" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3199,22 +3089,22 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>398</v>
+      <c r="G28" s="28" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3222,22 +3112,22 @@
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>399</v>
+      <c r="G29" s="28" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3245,22 +3135,22 @@
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>400</v>
+      <c r="G30" s="28" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3268,22 +3158,22 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>401</v>
+      <c r="G31" s="28" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3291,22 +3181,22 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>402</v>
+      <c r="G32" s="28" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3314,22 +3204,22 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>403</v>
+      <c r="G33" s="28" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3337,22 +3227,22 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>404</v>
+      <c r="G34" s="28" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3360,22 +3250,22 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>405</v>
+      <c r="G35" s="28" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3383,22 +3273,22 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>406</v>
+      <c r="G36" s="28" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3406,22 +3296,22 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>407</v>
+      <c r="G37" s="28" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3429,22 +3319,22 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>408</v>
+      <c r="G38" s="28" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3452,22 +3342,22 @@
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>378</v>
+      <c r="G39" s="28" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3475,22 +3365,22 @@
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>379</v>
+      <c r="G40" s="28" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3498,22 +3388,22 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>380</v>
+      <c r="G41" s="28" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3521,22 +3411,22 @@
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>381</v>
+      <c r="G42" s="28" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3544,22 +3434,22 @@
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G43" s="28" t="s">
         <v>370</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3567,22 +3457,22 @@
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>409</v>
+      <c r="G44" s="28" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3590,22 +3480,22 @@
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>415</v>
+      <c r="G45" s="28" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3613,22 +3503,22 @@
         <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>416</v>
+      <c r="G46" s="28" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3636,22 +3526,22 @@
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>417</v>
+      <c r="G47" s="28" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3659,22 +3549,22 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>418</v>
+      <c r="G48" s="28" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3682,22 +3572,22 @@
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>419</v>
+      <c r="G49" s="28" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3705,22 +3595,22 @@
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>420</v>
+      <c r="G50" s="28" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3728,22 +3618,22 @@
         <v>2</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>421</v>
+      <c r="G51" s="28" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3751,22 +3641,22 @@
         <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>422</v>
+      <c r="G52" s="28" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3774,22 +3664,22 @@
         <v>2</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>423</v>
+      <c r="G53" s="28" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3797,22 +3687,22 @@
         <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>424</v>
+      <c r="G54" s="28" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3820,22 +3710,22 @@
         <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>425</v>
+      <c r="G55" s="28" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3843,22 +3733,22 @@
         <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>410</v>
+      <c r="G56" s="28" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3866,22 +3756,22 @@
         <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>411</v>
+      <c r="G57" s="28" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3889,22 +3779,22 @@
         <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>412</v>
+      <c r="G58" s="28" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3912,22 +3802,22 @@
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>413</v>
+      <c r="G59" s="28" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3935,22 +3825,22 @@
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>414</v>
+      <c r="G60" s="28" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3958,22 +3848,22 @@
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>426</v>
+      <c r="G61" s="28" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3981,22 +3871,22 @@
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>432</v>
+      <c r="G62" s="28" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4004,22 +3894,22 @@
         <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>433</v>
+      <c r="G63" s="28" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -4027,22 +3917,22 @@
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>434</v>
+      <c r="G64" s="28" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -4050,22 +3940,22 @@
         <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>435</v>
+      <c r="G65" s="28" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -4073,22 +3963,22 @@
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>436</v>
+      <c r="G66" s="28" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -4096,22 +3986,22 @@
         <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>427</v>
+      <c r="G67" s="28" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4119,22 +4009,22 @@
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>428</v>
+      <c r="G68" s="28" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4142,22 +4032,22 @@
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>429</v>
+      <c r="G69" s="28" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -4165,22 +4055,22 @@
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="E70" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>430</v>
+      <c r="G70" s="28" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -4188,22 +4078,22 @@
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="E71" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>431</v>
+      <c r="G71" s="28" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4211,22 +4101,22 @@
         <v>3</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -4234,22 +4124,22 @@
         <v>3</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>496</v>
+        <v>209</v>
+      </c>
+      <c r="G73" s="30" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4257,22 +4147,22 @@
         <v>3</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>497</v>
+        <v>209</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4280,22 +4170,22 @@
         <v>3</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
+      </c>
+      <c r="G75" s="32" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4303,22 +4193,22 @@
         <v>3</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
+      </c>
+      <c r="G76" s="32" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4326,22 +4216,22 @@
         <v>3</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="G77" s="30" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4349,22 +4239,22 @@
         <v>3</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>209</v>
+        <v>209</v>
+      </c>
+      <c r="G78" s="32" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4372,22 +4262,22 @@
         <v>3</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="G79" s="30" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4395,22 +4285,22 @@
         <v>3</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
+      </c>
+      <c r="G80" s="30" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4418,22 +4308,22 @@
         <v>3</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>220</v>
+        <v>209</v>
+      </c>
+      <c r="G81" s="27" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4441,22 +4331,22 @@
         <v>4</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>488</v>
+        <v>209</v>
+      </c>
+      <c r="G82" s="28" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4464,22 +4354,22 @@
         <v>4</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>489</v>
+        <v>209</v>
+      </c>
+      <c r="G83" s="28" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4487,22 +4377,22 @@
         <v>4</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="D84" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>524</v>
+        <v>209</v>
+      </c>
+      <c r="G84" s="28" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4510,22 +4400,22 @@
         <v>4</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>539</v>
+        <v>209</v>
+      </c>
+      <c r="G85" s="28" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4533,22 +4423,22 @@
         <v>4</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>540</v>
+        <v>209</v>
+      </c>
+      <c r="G86" s="28" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4556,22 +4446,22 @@
         <v>4</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>541</v>
+        <v>209</v>
+      </c>
+      <c r="G87" s="28" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4579,22 +4469,22 @@
         <v>4</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>542</v>
+        <v>209</v>
+      </c>
+      <c r="G88" s="28" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4602,22 +4492,22 @@
         <v>4</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>547</v>
+        <v>209</v>
+      </c>
+      <c r="G89" s="28" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4625,22 +4515,22 @@
         <v>4</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>543</v>
+        <v>209</v>
+      </c>
+      <c r="G90" s="28" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4648,22 +4538,22 @@
         <v>4</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>544</v>
+        <v>209</v>
+      </c>
+      <c r="G91" s="28" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4671,22 +4561,22 @@
         <v>4</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>545</v>
+        <v>209</v>
+      </c>
+      <c r="G92" s="28" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4694,22 +4584,22 @@
         <v>4</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>546</v>
+        <v>209</v>
+      </c>
+      <c r="G93" s="28" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4717,22 +4607,22 @@
         <v>4</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>501</v>
+        <v>209</v>
+      </c>
+      <c r="G94" s="28" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4740,22 +4630,22 @@
         <v>4</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G95" s="28" t="s">
         <v>483</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4763,22 +4653,22 @@
         <v>4</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>503</v>
+        <v>209</v>
+      </c>
+      <c r="G96" s="28" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4786,22 +4676,22 @@
         <v>4</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>504</v>
+        <v>209</v>
+      </c>
+      <c r="G97" s="28" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4809,22 +4699,22 @@
         <v>4</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>505</v>
+        <v>209</v>
+      </c>
+      <c r="G98" s="28" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4832,22 +4722,22 @@
         <v>4</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>506</v>
+        <v>209</v>
+      </c>
+      <c r="G99" s="28" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4855,22 +4745,22 @@
         <v>4</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>507</v>
+        <v>209</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4878,22 +4768,22 @@
         <v>4</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>528</v>
+        <v>209</v>
+      </c>
+      <c r="G101" s="28" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4901,22 +4791,22 @@
         <v>4</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>508</v>
+        <v>209</v>
+      </c>
+      <c r="G102" s="28" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4924,22 +4814,22 @@
         <v>4</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>509</v>
+        <v>209</v>
+      </c>
+      <c r="G103" s="28" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4947,22 +4837,22 @@
         <v>4</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E104" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>499</v>
+        <v>209</v>
+      </c>
+      <c r="G104" s="28" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4970,22 +4860,22 @@
         <v>4</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>500</v>
+        <v>209</v>
+      </c>
+      <c r="G105" s="28" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4993,22 +4883,22 @@
         <v>4</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>498</v>
+        <v>209</v>
+      </c>
+      <c r="G106" s="28" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -5016,22 +4906,22 @@
         <v>4</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>510</v>
+        <v>209</v>
+      </c>
+      <c r="G107" s="28" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -5039,22 +4929,22 @@
         <v>4</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>511</v>
+        <v>209</v>
+      </c>
+      <c r="G108" s="28" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -5062,22 +4952,22 @@
         <v>4</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>512</v>
+        <v>209</v>
+      </c>
+      <c r="G109" s="28" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -5085,22 +4975,22 @@
         <v>4</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>513</v>
+        <v>209</v>
+      </c>
+      <c r="G110" s="28" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -5108,22 +4998,22 @@
         <v>4</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>514</v>
+        <v>209</v>
+      </c>
+      <c r="G111" s="28" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -5134,19 +5024,19 @@
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>2</v>
+        <v>568</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>198</v>
+        <v>210</v>
+      </c>
+      <c r="G112" s="27" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -5157,19 +5047,19 @@
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>196</v>
+        <v>210</v>
+      </c>
+      <c r="G113" s="27" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -5180,19 +5070,19 @@
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>199</v>
+        <v>210</v>
+      </c>
+      <c r="G114" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -5203,19 +5093,19 @@
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>197</v>
+        <v>210</v>
+      </c>
+      <c r="G115" s="27" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -5226,19 +5116,19 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D116" s="18" t="s">
-        <v>554</v>
+        <v>250</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>535</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>486</v>
+        <v>210</v>
+      </c>
+      <c r="G116" s="27" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5249,19 +5139,19 @@
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>200</v>
+        <v>209</v>
+      </c>
+      <c r="G117" s="27" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -5272,19 +5162,19 @@
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>7</v>
+        <v>580</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>475</v>
+        <v>209</v>
+      </c>
+      <c r="G118" s="27" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -5295,19 +5185,19 @@
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>8</v>
+        <v>570</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>476</v>
+        <v>209</v>
+      </c>
+      <c r="G119" s="27" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -5318,19 +5208,19 @@
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>9</v>
+        <v>571</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>477</v>
+        <v>209</v>
+      </c>
+      <c r="G120" s="27" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -5341,19 +5231,19 @@
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>10</v>
+        <v>572</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>478</v>
+        <v>209</v>
+      </c>
+      <c r="G121" s="27" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -5364,19 +5254,19 @@
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>11</v>
+        <v>573</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>479</v>
+        <v>209</v>
+      </c>
+      <c r="G122" s="27" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -5387,19 +5277,19 @@
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>12</v>
+        <v>574</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>480</v>
+        <v>209</v>
+      </c>
+      <c r="G123" s="27" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5407,22 +5297,22 @@
         <v>6</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>201</v>
+        <v>209</v>
+      </c>
+      <c r="G124" s="27" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5430,22 +5320,22 @@
         <v>6</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>202</v>
+        <v>209</v>
+      </c>
+      <c r="G125" s="27" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5453,22 +5343,22 @@
         <v>6</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>203</v>
+        <v>209</v>
+      </c>
+      <c r="G126" s="27" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -5476,22 +5366,22 @@
         <v>6</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>527</v>
+        <v>209</v>
+      </c>
+      <c r="G127" s="27" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5499,22 +5389,22 @@
         <v>6</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>14</v>
+        <v>576</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
+      </c>
+      <c r="G128" s="27" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5522,22 +5412,22 @@
         <v>6</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>581</v>
+        <v>209</v>
+      </c>
+      <c r="G129" s="27" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5545,22 +5435,22 @@
         <v>6</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>20</v>
+        <v>577</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>582</v>
+        <v>209</v>
+      </c>
+      <c r="G130" s="27" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5568,22 +5458,22 @@
         <v>6</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>21</v>
+        <v>579</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>583</v>
+        <v>209</v>
+      </c>
+      <c r="G131" s="27" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5591,22 +5481,22 @@
         <v>6</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>22</v>
+        <v>578</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>584</v>
+        <v>209</v>
+      </c>
+      <c r="G132" s="27" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -5614,22 +5504,22 @@
         <v>6</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>578</v>
+        <v>211</v>
+      </c>
+      <c r="G133" s="27" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5637,22 +5527,22 @@
         <v>6</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E134" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>569</v>
+        <v>211</v>
+      </c>
+      <c r="G134" s="27" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -5660,22 +5550,22 @@
         <v>6</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>570</v>
+        <v>211</v>
+      </c>
+      <c r="G135" s="27" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5683,22 +5573,22 @@
         <v>6</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>571</v>
+        <v>211</v>
+      </c>
+      <c r="G136" s="27" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5706,22 +5596,22 @@
         <v>6</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>572</v>
+        <v>211</v>
+      </c>
+      <c r="G137" s="27" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5729,22 +5619,22 @@
         <v>6</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>573</v>
+        <v>211</v>
+      </c>
+      <c r="G138" s="27" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5752,22 +5642,22 @@
         <v>6</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>580</v>
+        <v>211</v>
+      </c>
+      <c r="G139" s="27" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5775,22 +5665,22 @@
         <v>6</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>574</v>
+        <v>211</v>
+      </c>
+      <c r="G140" s="27" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -5798,22 +5688,22 @@
         <v>6</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>575</v>
+        <v>211</v>
+      </c>
+      <c r="G141" s="27" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5821,22 +5711,22 @@
         <v>6</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>576</v>
+        <v>211</v>
+      </c>
+      <c r="G142" s="27" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -5844,22 +5734,22 @@
         <v>6</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>579</v>
+        <v>211</v>
+      </c>
+      <c r="G143" s="27" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5867,22 +5757,22 @@
         <v>6</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>577</v>
+        <v>211</v>
+      </c>
+      <c r="G144" s="27" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5890,22 +5780,22 @@
         <v>7</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>568</v>
+        <v>209</v>
+      </c>
+      <c r="G145" s="28" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5913,22 +5803,22 @@
         <v>7</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>437</v>
+        <v>209</v>
+      </c>
+      <c r="G146" s="28" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5936,22 +5826,22 @@
         <v>7</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>439</v>
+        <v>209</v>
+      </c>
+      <c r="G147" s="28" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5959,22 +5849,22 @@
         <v>7</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>438</v>
+        <v>209</v>
+      </c>
+      <c r="G148" s="28" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5982,22 +5872,22 @@
         <v>7</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>446</v>
+        <v>209</v>
+      </c>
+      <c r="G149" s="28" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -6005,22 +5895,22 @@
         <v>7</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>445</v>
+        <v>209</v>
+      </c>
+      <c r="G150" s="28" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -6028,22 +5918,22 @@
         <v>7</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>444</v>
+        <v>209</v>
+      </c>
+      <c r="G151" s="28" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -6051,22 +5941,22 @@
         <v>7</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>440</v>
+        <v>209</v>
+      </c>
+      <c r="G152" s="28" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -6074,22 +5964,22 @@
         <v>7</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>441</v>
+        <v>209</v>
+      </c>
+      <c r="G153" s="28" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -6097,22 +5987,22 @@
         <v>7</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>442</v>
+        <v>209</v>
+      </c>
+      <c r="G154" s="28" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -6120,22 +6010,22 @@
         <v>7</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>443</v>
+        <v>209</v>
+      </c>
+      <c r="G155" s="28" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -6143,22 +6033,22 @@
         <v>8</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>459</v>
+        <v>215</v>
+      </c>
+      <c r="G156" s="28" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -6166,22 +6056,22 @@
         <v>8</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>460</v>
+        <v>215</v>
+      </c>
+      <c r="G157" s="28" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -6189,22 +6079,22 @@
         <v>8</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>461</v>
+        <v>215</v>
+      </c>
+      <c r="G158" s="28" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -6212,22 +6102,22 @@
         <v>8</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>462</v>
+        <v>215</v>
+      </c>
+      <c r="G159" s="28" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -6235,22 +6125,22 @@
         <v>8</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>463</v>
+        <v>215</v>
+      </c>
+      <c r="G160" s="28" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -6258,22 +6148,22 @@
         <v>8</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>151</v>
+        <v>179</v>
+      </c>
+      <c r="D161" t="s">
+        <v>569</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>464</v>
+        <v>209</v>
+      </c>
+      <c r="G161" s="28" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -6281,22 +6171,22 @@
         <v>8</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>465</v>
+        <v>209</v>
+      </c>
+      <c r="G162" s="28" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -6304,22 +6194,22 @@
         <v>8</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>466</v>
+        <v>209</v>
+      </c>
+      <c r="G163" s="28" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -6327,22 +6217,22 @@
         <v>8</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>467</v>
+        <v>209</v>
+      </c>
+      <c r="G164" s="28" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -6350,22 +6240,22 @@
         <v>8</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>468</v>
+        <v>209</v>
+      </c>
+      <c r="G165" s="28" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -6373,22 +6263,22 @@
         <v>8</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>487</v>
+        <v>209</v>
+      </c>
+      <c r="G166" s="28" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -6396,22 +6286,22 @@
         <v>8</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>469</v>
+        <v>209</v>
+      </c>
+      <c r="G167" s="28" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -6419,22 +6309,22 @@
         <v>8</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>470</v>
+        <v>209</v>
+      </c>
+      <c r="G168" s="28" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -6442,22 +6332,22 @@
         <v>8</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>471</v>
+        <v>209</v>
+      </c>
+      <c r="G169" s="28" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -6465,22 +6355,22 @@
         <v>8</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>472</v>
+        <v>209</v>
+      </c>
+      <c r="G170" s="28" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -6488,22 +6378,22 @@
         <v>8</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>473</v>
+        <v>209</v>
+      </c>
+      <c r="G171" s="28" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -6511,22 +6401,22 @@
         <v>8</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>515</v>
+        <v>209</v>
+      </c>
+      <c r="G172" s="28" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -6534,22 +6424,22 @@
         <v>8</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>516</v>
+        <v>209</v>
+      </c>
+      <c r="G173" s="28" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6557,22 +6447,22 @@
         <v>8</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>474</v>
+        <v>575</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G174" s="5" t="s">
-        <v>484</v>
+        <v>209</v>
+      </c>
+      <c r="G174" s="29" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6580,22 +6470,22 @@
         <v>8</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>560</v>
+        <v>540</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>541</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G175" s="26" t="s">
-        <v>561</v>
+        <v>209</v>
+      </c>
+      <c r="G175" s="33" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -6603,25 +6493,26 @@
         <v>9</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>551</v>
+        <v>224</v>
+      </c>
+      <c r="G176" s="30" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:G176" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G174">
     <sortCondition ref="A5:A174"/>
   </sortState>
@@ -6643,95 +6534,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="A2" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>562</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
+      <c r="A3" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
+      <c r="A4" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>565</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>586</v>
+      <c r="A6" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>587</v>
       </c>
     </row>
@@ -6749,94 +6640,94 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.140625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="60.140625" style="21" customWidth="1"/>
     <col min="2" max="2" width="196.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>531</v>
+      <c r="A2" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>566</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>530</v>
+      <c r="A3" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>557</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>555</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>534</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>536</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>537</v>
+      <c r="A11" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -6856,853 +6747,853 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="s">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="4" t="s">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="4" t="s">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="4" t="s">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="4" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="4" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="4" t="s">
-        <v>174</v>
+      <c r="B170" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2022\Base 20221021\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2022\Base 20221108\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D75CE67-F4E3-4D2F-AD4F-22D2C4E3C8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0519D8-4D77-4D31-AE78-890335BD197D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -2002,7 +2002,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (agosto de 2022) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (septiembre de 2022) debido a que no se encuentra disponible.</t>
     </r>
   </si>
 </sst>
@@ -2512,7 +2512,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2022\Base 20221108\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2022\Base 20221121\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0519D8-4D77-4D31-AE78-890335BD197D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4126639A-1B67-438E-8654-76B272E4C0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2512,7 +2512,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2022\Base 20221121\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2022\Base 20221207\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4126639A-1B67-438E-8654-76B272E4C0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F08DAE-4162-4907-808B-DD6D473155B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -2002,7 +2002,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (septiembre de 2022) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (octubre de 2022) debido a que no se encuentra disponible.</t>
     </r>
   </si>
 </sst>
@@ -2512,7 +2512,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2022\Base 20221207\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230110\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F08DAE-4162-4907-808B-DD6D473155B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D8DE7B-4D0C-4E40-9F86-070C9EBE5DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2002,7 +2002,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (octubre de 2022) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (noviembre de 2022) debido a que no se encuentra disponible.</t>
     </r>
   </si>
 </sst>
@@ -2159,18 +2159,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2182,10 +2180,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2195,10 +2190,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2207,25 +2199,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2510,7 +2494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2523,35 +2507,35 @@
     <col min="4" max="4" width="71.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="19" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2574,7 +2558,7 @@
       <c r="F5" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="1" t="s">
         <v>441</v>
       </c>
     </row>
@@ -2597,7 +2581,7 @@
       <c r="F6" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="1" t="s">
         <v>442</v>
       </c>
     </row>
@@ -2620,7 +2604,7 @@
       <c r="F7" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="1" t="s">
         <v>443</v>
       </c>
     </row>
@@ -2643,7 +2627,7 @@
       <c r="F8" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="1" t="s">
         <v>466</v>
       </c>
     </row>
@@ -2666,7 +2650,7 @@
       <c r="F9" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="1" t="s">
         <v>444</v>
       </c>
     </row>
@@ -2689,7 +2673,7 @@
       <c r="F10" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="1" t="s">
         <v>445</v>
       </c>
     </row>
@@ -2712,7 +2696,7 @@
       <c r="F11" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="1" t="s">
         <v>446</v>
       </c>
     </row>
@@ -2735,7 +2719,7 @@
       <c r="F12" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="1" t="s">
         <v>365</v>
       </c>
     </row>
@@ -2758,7 +2742,7 @@
       <c r="F13" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="1" t="s">
         <v>371</v>
       </c>
     </row>
@@ -2781,7 +2765,7 @@
       <c r="F14" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="1" t="s">
         <v>372</v>
       </c>
     </row>
@@ -2804,7 +2788,7 @@
       <c r="F15" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="1" t="s">
         <v>373</v>
       </c>
     </row>
@@ -2827,7 +2811,7 @@
       <c r="F16" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="1" t="s">
         <v>374</v>
       </c>
     </row>
@@ -2850,7 +2834,7 @@
       <c r="F17" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="1" t="s">
         <v>375</v>
       </c>
     </row>
@@ -2873,7 +2857,7 @@
       <c r="F18" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="1" t="s">
         <v>376</v>
       </c>
     </row>
@@ -2896,7 +2880,7 @@
       <c r="F19" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="1" t="s">
         <v>377</v>
       </c>
     </row>
@@ -2919,7 +2903,7 @@
       <c r="F20" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="1" t="s">
         <v>378</v>
       </c>
     </row>
@@ -2942,7 +2926,7 @@
       <c r="F21" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="1" t="s">
         <v>379</v>
       </c>
     </row>
@@ -2965,7 +2949,7 @@
       <c r="F22" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="1" t="s">
         <v>380</v>
       </c>
     </row>
@@ -2988,7 +2972,7 @@
       <c r="F23" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="1" t="s">
         <v>381</v>
       </c>
     </row>
@@ -3011,7 +2995,7 @@
       <c r="F24" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="1" t="s">
         <v>382</v>
       </c>
     </row>
@@ -3034,7 +3018,7 @@
       <c r="F25" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="1" t="s">
         <v>383</v>
       </c>
     </row>
@@ -3057,7 +3041,7 @@
       <c r="F26" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="1" t="s">
         <v>384</v>
       </c>
     </row>
@@ -3080,7 +3064,7 @@
       <c r="F27" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="1" t="s">
         <v>385</v>
       </c>
     </row>
@@ -3103,7 +3087,7 @@
       <c r="F28" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="1" t="s">
         <v>386</v>
       </c>
     </row>
@@ -3126,7 +3110,7 @@
       <c r="F29" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="1" t="s">
         <v>387</v>
       </c>
     </row>
@@ -3149,7 +3133,7 @@
       <c r="F30" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="1" t="s">
         <v>388</v>
       </c>
     </row>
@@ -3172,7 +3156,7 @@
       <c r="F31" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -3195,7 +3179,7 @@
       <c r="F32" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="1" t="s">
         <v>390</v>
       </c>
     </row>
@@ -3218,7 +3202,7 @@
       <c r="F33" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="1" t="s">
         <v>391</v>
       </c>
     </row>
@@ -3241,7 +3225,7 @@
       <c r="F34" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G34" s="28" t="s">
+      <c r="G34" s="1" t="s">
         <v>392</v>
       </c>
     </row>
@@ -3264,7 +3248,7 @@
       <c r="F35" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G35" s="28" t="s">
+      <c r="G35" s="1" t="s">
         <v>393</v>
       </c>
     </row>
@@ -3287,7 +3271,7 @@
       <c r="F36" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G36" s="28" t="s">
+      <c r="G36" s="1" t="s">
         <v>394</v>
       </c>
     </row>
@@ -3310,7 +3294,7 @@
       <c r="F37" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G37" s="28" t="s">
+      <c r="G37" s="1" t="s">
         <v>395</v>
       </c>
     </row>
@@ -3333,7 +3317,7 @@
       <c r="F38" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G38" s="28" t="s">
+      <c r="G38" s="1" t="s">
         <v>396</v>
       </c>
     </row>
@@ -3356,7 +3340,7 @@
       <c r="F39" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G39" s="28" t="s">
+      <c r="G39" s="1" t="s">
         <v>366</v>
       </c>
     </row>
@@ -3379,7 +3363,7 @@
       <c r="F40" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="G40" s="1" t="s">
         <v>367</v>
       </c>
     </row>
@@ -3402,7 +3386,7 @@
       <c r="F41" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G41" s="28" t="s">
+      <c r="G41" s="1" t="s">
         <v>368</v>
       </c>
     </row>
@@ -3425,7 +3409,7 @@
       <c r="F42" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G42" s="28" t="s">
+      <c r="G42" s="1" t="s">
         <v>369</v>
       </c>
     </row>
@@ -3448,7 +3432,7 @@
       <c r="F43" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="G43" s="1" t="s">
         <v>370</v>
       </c>
     </row>
@@ -3471,7 +3455,7 @@
       <c r="F44" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="G44" s="1" t="s">
         <v>397</v>
       </c>
     </row>
@@ -3494,7 +3478,7 @@
       <c r="F45" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G45" s="28" t="s">
+      <c r="G45" s="1" t="s">
         <v>403</v>
       </c>
     </row>
@@ -3517,7 +3501,7 @@
       <c r="F46" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G46" s="28" t="s">
+      <c r="G46" s="1" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3540,7 +3524,7 @@
       <c r="F47" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G47" s="28" t="s">
+      <c r="G47" s="1" t="s">
         <v>405</v>
       </c>
     </row>
@@ -3563,7 +3547,7 @@
       <c r="F48" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G48" s="28" t="s">
+      <c r="G48" s="1" t="s">
         <v>406</v>
       </c>
     </row>
@@ -3586,7 +3570,7 @@
       <c r="F49" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G49" s="28" t="s">
+      <c r="G49" s="1" t="s">
         <v>407</v>
       </c>
     </row>
@@ -3609,7 +3593,7 @@
       <c r="F50" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G50" s="28" t="s">
+      <c r="G50" s="1" t="s">
         <v>408</v>
       </c>
     </row>
@@ -3632,7 +3616,7 @@
       <c r="F51" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G51" s="28" t="s">
+      <c r="G51" s="1" t="s">
         <v>409</v>
       </c>
     </row>
@@ -3655,7 +3639,7 @@
       <c r="F52" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G52" s="28" t="s">
+      <c r="G52" s="1" t="s">
         <v>410</v>
       </c>
     </row>
@@ -3678,7 +3662,7 @@
       <c r="F53" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G53" s="28" t="s">
+      <c r="G53" s="1" t="s">
         <v>411</v>
       </c>
     </row>
@@ -3701,7 +3685,7 @@
       <c r="F54" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G54" s="28" t="s">
+      <c r="G54" s="1" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3724,7 +3708,7 @@
       <c r="F55" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G55" s="28" t="s">
+      <c r="G55" s="1" t="s">
         <v>413</v>
       </c>
     </row>
@@ -3747,7 +3731,7 @@
       <c r="F56" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G56" s="28" t="s">
+      <c r="G56" s="1" t="s">
         <v>398</v>
       </c>
     </row>
@@ -3770,7 +3754,7 @@
       <c r="F57" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G57" s="28" t="s">
+      <c r="G57" s="1" t="s">
         <v>399</v>
       </c>
     </row>
@@ -3793,7 +3777,7 @@
       <c r="F58" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G58" s="28" t="s">
+      <c r="G58" s="1" t="s">
         <v>400</v>
       </c>
     </row>
@@ -3816,7 +3800,7 @@
       <c r="F59" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G59" s="28" t="s">
+      <c r="G59" s="1" t="s">
         <v>401</v>
       </c>
     </row>
@@ -3839,7 +3823,7 @@
       <c r="F60" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G60" s="28" t="s">
+      <c r="G60" s="1" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3862,7 +3846,7 @@
       <c r="F61" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G61" s="28" t="s">
+      <c r="G61" s="1" t="s">
         <v>414</v>
       </c>
     </row>
@@ -3885,7 +3869,7 @@
       <c r="F62" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G62" s="28" t="s">
+      <c r="G62" s="1" t="s">
         <v>420</v>
       </c>
     </row>
@@ -3908,7 +3892,7 @@
       <c r="F63" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G63" s="28" t="s">
+      <c r="G63" s="1" t="s">
         <v>421</v>
       </c>
     </row>
@@ -3931,7 +3915,7 @@
       <c r="F64" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G64" s="28" t="s">
+      <c r="G64" s="1" t="s">
         <v>422</v>
       </c>
     </row>
@@ -3954,7 +3938,7 @@
       <c r="F65" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G65" s="28" t="s">
+      <c r="G65" s="1" t="s">
         <v>423</v>
       </c>
     </row>
@@ -3977,7 +3961,7 @@
       <c r="F66" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G66" s="28" t="s">
+      <c r="G66" s="1" t="s">
         <v>424</v>
       </c>
     </row>
@@ -4000,7 +3984,7 @@
       <c r="F67" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G67" s="28" t="s">
+      <c r="G67" s="1" t="s">
         <v>415</v>
       </c>
     </row>
@@ -4023,7 +4007,7 @@
       <c r="F68" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G68" s="28" t="s">
+      <c r="G68" s="1" t="s">
         <v>416</v>
       </c>
     </row>
@@ -4046,7 +4030,7 @@
       <c r="F69" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G69" s="28" t="s">
+      <c r="G69" s="1" t="s">
         <v>417</v>
       </c>
     </row>
@@ -4069,7 +4053,7 @@
       <c r="F70" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G70" s="28" t="s">
+      <c r="G70" s="1" t="s">
         <v>418</v>
       </c>
     </row>
@@ -4092,7 +4076,7 @@
       <c r="F71" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G71" s="28" t="s">
+      <c r="G71" s="1" t="s">
         <v>419</v>
       </c>
     </row>
@@ -4115,7 +4099,7 @@
       <c r="F72" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G72" s="30" t="s">
+      <c r="G72" s="21" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4138,7 +4122,7 @@
       <c r="F73" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G73" s="30" t="s">
+      <c r="G73" s="21" t="s">
         <v>477</v>
       </c>
     </row>
@@ -4161,7 +4145,7 @@
       <c r="F74" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G74" s="31" t="s">
+      <c r="G74" s="22" t="s">
         <v>478</v>
       </c>
     </row>
@@ -4184,7 +4168,7 @@
       <c r="F75" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G75" s="32" t="s">
+      <c r="G75" s="1" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4207,7 +4191,7 @@
       <c r="F76" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G76" s="32" t="s">
+      <c r="G76" s="1" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4230,7 +4214,7 @@
       <c r="F77" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G77" s="30" t="s">
+      <c r="G77" s="21" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4253,7 +4237,7 @@
       <c r="F78" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G78" s="32" t="s">
+      <c r="G78" s="1" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4276,7 +4260,7 @@
       <c r="F79" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G79" s="30" t="s">
+      <c r="G79" s="21" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4299,7 +4283,7 @@
       <c r="F80" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G80" s="30" t="s">
+      <c r="G80" s="21" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4322,7 +4306,7 @@
       <c r="F81" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G81" s="27" t="s">
+      <c r="G81" s="1" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4345,7 +4329,7 @@
       <c r="F82" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G82" s="28" t="s">
+      <c r="G82" s="1" t="s">
         <v>469</v>
       </c>
     </row>
@@ -4368,7 +4352,7 @@
       <c r="F83" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G83" s="28" t="s">
+      <c r="G83" s="1" t="s">
         <v>470</v>
       </c>
     </row>
@@ -4391,7 +4375,7 @@
       <c r="F84" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G84" s="28" t="s">
+      <c r="G84" s="1" t="s">
         <v>505</v>
       </c>
     </row>
@@ -4414,7 +4398,7 @@
       <c r="F85" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G85" s="28" t="s">
+      <c r="G85" s="1" t="s">
         <v>520</v>
       </c>
     </row>
@@ -4437,7 +4421,7 @@
       <c r="F86" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G86" s="28" t="s">
+      <c r="G86" s="1" t="s">
         <v>521</v>
       </c>
     </row>
@@ -4460,7 +4444,7 @@
       <c r="F87" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G87" s="28" t="s">
+      <c r="G87" s="1" t="s">
         <v>522</v>
       </c>
     </row>
@@ -4483,7 +4467,7 @@
       <c r="F88" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G88" s="28" t="s">
+      <c r="G88" s="1" t="s">
         <v>523</v>
       </c>
     </row>
@@ -4506,7 +4490,7 @@
       <c r="F89" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G89" s="28" t="s">
+      <c r="G89" s="1" t="s">
         <v>528</v>
       </c>
     </row>
@@ -4529,7 +4513,7 @@
       <c r="F90" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G90" s="28" t="s">
+      <c r="G90" s="1" t="s">
         <v>524</v>
       </c>
     </row>
@@ -4552,7 +4536,7 @@
       <c r="F91" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G91" s="28" t="s">
+      <c r="G91" s="1" t="s">
         <v>525</v>
       </c>
     </row>
@@ -4575,7 +4559,7 @@
       <c r="F92" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G92" s="28" t="s">
+      <c r="G92" s="1" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4598,7 +4582,7 @@
       <c r="F93" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G93" s="28" t="s">
+      <c r="G93" s="1" t="s">
         <v>527</v>
       </c>
     </row>
@@ -4621,7 +4605,7 @@
       <c r="F94" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G94" s="28" t="s">
+      <c r="G94" s="1" t="s">
         <v>482</v>
       </c>
     </row>
@@ -4644,7 +4628,7 @@
       <c r="F95" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G95" s="28" t="s">
+      <c r="G95" s="1" t="s">
         <v>483</v>
       </c>
     </row>
@@ -4667,7 +4651,7 @@
       <c r="F96" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G96" s="28" t="s">
+      <c r="G96" s="1" t="s">
         <v>484</v>
       </c>
     </row>
@@ -4690,7 +4674,7 @@
       <c r="F97" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G97" s="28" t="s">
+      <c r="G97" s="1" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4713,7 +4697,7 @@
       <c r="F98" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G98" s="28" t="s">
+      <c r="G98" s="1" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4736,7 +4720,7 @@
       <c r="F99" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G99" s="28" t="s">
+      <c r="G99" s="1" t="s">
         <v>487</v>
       </c>
     </row>
@@ -4759,7 +4743,7 @@
       <c r="F100" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G100" s="28" t="s">
+      <c r="G100" s="1" t="s">
         <v>488</v>
       </c>
     </row>
@@ -4782,7 +4766,7 @@
       <c r="F101" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G101" s="28" t="s">
+      <c r="G101" s="1" t="s">
         <v>509</v>
       </c>
     </row>
@@ -4805,7 +4789,7 @@
       <c r="F102" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G102" s="28" t="s">
+      <c r="G102" s="1" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4828,7 +4812,7 @@
       <c r="F103" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G103" s="28" t="s">
+      <c r="G103" s="1" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4851,7 +4835,7 @@
       <c r="F104" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G104" s="28" t="s">
+      <c r="G104" s="1" t="s">
         <v>480</v>
       </c>
     </row>
@@ -4874,7 +4858,7 @@
       <c r="F105" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G105" s="28" t="s">
+      <c r="G105" s="1" t="s">
         <v>481</v>
       </c>
     </row>
@@ -4897,7 +4881,7 @@
       <c r="F106" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G106" s="28" t="s">
+      <c r="G106" s="1" t="s">
         <v>479</v>
       </c>
     </row>
@@ -4920,7 +4904,7 @@
       <c r="F107" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G107" s="28" t="s">
+      <c r="G107" s="1" t="s">
         <v>491</v>
       </c>
     </row>
@@ -4943,7 +4927,7 @@
       <c r="F108" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G108" s="28" t="s">
+      <c r="G108" s="1" t="s">
         <v>492</v>
       </c>
     </row>
@@ -4966,7 +4950,7 @@
       <c r="F109" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G109" s="28" t="s">
+      <c r="G109" s="1" t="s">
         <v>493</v>
       </c>
     </row>
@@ -4989,7 +4973,7 @@
       <c r="F110" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G110" s="28" t="s">
+      <c r="G110" s="1" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5012,7 +4996,7 @@
       <c r="F111" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G111" s="28" t="s">
+      <c r="G111" s="1" t="s">
         <v>495</v>
       </c>
     </row>
@@ -5035,7 +5019,7 @@
       <c r="F112" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G112" s="27" t="s">
+      <c r="G112" s="1" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5058,7 +5042,7 @@
       <c r="F113" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G113" s="27" t="s">
+      <c r="G113" s="1" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5081,7 +5065,7 @@
       <c r="F114" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G114" s="27" t="s">
+      <c r="G114" s="1" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5104,7 +5088,7 @@
       <c r="F115" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G115" s="27" t="s">
+      <c r="G115" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5118,7 +5102,7 @@
       <c r="C116" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D116" s="15" t="s">
+      <c r="D116" s="2" t="s">
         <v>535</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -5127,7 +5111,7 @@
       <c r="F116" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G116" s="27" t="s">
+      <c r="G116" s="1" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5150,7 +5134,7 @@
       <c r="F117" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G117" s="27" t="s">
+      <c r="G117" s="1" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5173,7 +5157,7 @@
       <c r="F118" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G118" s="27" t="s">
+      <c r="G118" s="1" t="s">
         <v>581</v>
       </c>
     </row>
@@ -5196,7 +5180,7 @@
       <c r="F119" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G119" s="27" t="s">
+      <c r="G119" s="1" t="s">
         <v>582</v>
       </c>
     </row>
@@ -5219,7 +5203,7 @@
       <c r="F120" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G120" s="27" t="s">
+      <c r="G120" s="1" t="s">
         <v>583</v>
       </c>
     </row>
@@ -5242,7 +5226,7 @@
       <c r="F121" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G121" s="27" t="s">
+      <c r="G121" s="1" t="s">
         <v>584</v>
       </c>
     </row>
@@ -5265,7 +5249,7 @@
       <c r="F122" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G122" s="27" t="s">
+      <c r="G122" s="1" t="s">
         <v>585</v>
       </c>
     </row>
@@ -5288,7 +5272,7 @@
       <c r="F123" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G123" s="27" t="s">
+      <c r="G123" s="1" t="s">
         <v>586</v>
       </c>
     </row>
@@ -5311,7 +5295,7 @@
       <c r="F124" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G124" s="27" t="s">
+      <c r="G124" s="1" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5334,7 +5318,7 @@
       <c r="F125" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G125" s="27" t="s">
+      <c r="G125" s="1" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5357,7 +5341,7 @@
       <c r="F126" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G126" s="27" t="s">
+      <c r="G126" s="1" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5380,7 +5364,7 @@
       <c r="F127" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G127" s="27" t="s">
+      <c r="G127" s="1" t="s">
         <v>508</v>
       </c>
     </row>
@@ -5403,7 +5387,7 @@
       <c r="F128" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G128" s="27" t="s">
+      <c r="G128" s="1" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5426,7 +5410,7 @@
       <c r="F129" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G129" s="27" t="s">
+      <c r="G129" s="1" t="s">
         <v>562</v>
       </c>
     </row>
@@ -5449,7 +5433,7 @@
       <c r="F130" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G130" s="27" t="s">
+      <c r="G130" s="1" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5472,7 +5456,7 @@
       <c r="F131" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G131" s="27" t="s">
+      <c r="G131" s="1" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5495,7 +5479,7 @@
       <c r="F132" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G132" s="27" t="s">
+      <c r="G132" s="1" t="s">
         <v>565</v>
       </c>
     </row>
@@ -5518,7 +5502,7 @@
       <c r="F133" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G133" s="27" t="s">
+      <c r="G133" s="1" t="s">
         <v>559</v>
       </c>
     </row>
@@ -5541,7 +5525,7 @@
       <c r="F134" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G134" s="27" t="s">
+      <c r="G134" s="1" t="s">
         <v>550</v>
       </c>
     </row>
@@ -5564,7 +5548,7 @@
       <c r="F135" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G135" s="27" t="s">
+      <c r="G135" s="1" t="s">
         <v>551</v>
       </c>
     </row>
@@ -5587,7 +5571,7 @@
       <c r="F136" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G136" s="27" t="s">
+      <c r="G136" s="1" t="s">
         <v>552</v>
       </c>
     </row>
@@ -5610,7 +5594,7 @@
       <c r="F137" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G137" s="27" t="s">
+      <c r="G137" s="1" t="s">
         <v>553</v>
       </c>
     </row>
@@ -5633,7 +5617,7 @@
       <c r="F138" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G138" s="27" t="s">
+      <c r="G138" s="1" t="s">
         <v>554</v>
       </c>
     </row>
@@ -5656,7 +5640,7 @@
       <c r="F139" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G139" s="27" t="s">
+      <c r="G139" s="1" t="s">
         <v>561</v>
       </c>
     </row>
@@ -5679,7 +5663,7 @@
       <c r="F140" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G140" s="27" t="s">
+      <c r="G140" s="1" t="s">
         <v>555</v>
       </c>
     </row>
@@ -5702,7 +5686,7 @@
       <c r="F141" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G141" s="27" t="s">
+      <c r="G141" s="1" t="s">
         <v>556</v>
       </c>
     </row>
@@ -5725,7 +5709,7 @@
       <c r="F142" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G142" s="27" t="s">
+      <c r="G142" s="1" t="s">
         <v>557</v>
       </c>
     </row>
@@ -5748,7 +5732,7 @@
       <c r="F143" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G143" s="27" t="s">
+      <c r="G143" s="1" t="s">
         <v>560</v>
       </c>
     </row>
@@ -5771,7 +5755,7 @@
       <c r="F144" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G144" s="27" t="s">
+      <c r="G144" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -5794,7 +5778,7 @@
       <c r="F145" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G145" s="28" t="s">
+      <c r="G145" s="1" t="s">
         <v>549</v>
       </c>
     </row>
@@ -5817,7 +5801,7 @@
       <c r="F146" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G146" s="28" t="s">
+      <c r="G146" s="1" t="s">
         <v>425</v>
       </c>
     </row>
@@ -5840,7 +5824,7 @@
       <c r="F147" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G147" s="28" t="s">
+      <c r="G147" s="1" t="s">
         <v>427</v>
       </c>
     </row>
@@ -5863,7 +5847,7 @@
       <c r="F148" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G148" s="28" t="s">
+      <c r="G148" s="1" t="s">
         <v>426</v>
       </c>
     </row>
@@ -5886,7 +5870,7 @@
       <c r="F149" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G149" s="28" t="s">
+      <c r="G149" s="1" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5909,7 +5893,7 @@
       <c r="F150" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G150" s="28" t="s">
+      <c r="G150" s="1" t="s">
         <v>433</v>
       </c>
     </row>
@@ -5932,7 +5916,7 @@
       <c r="F151" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G151" s="28" t="s">
+      <c r="G151" s="1" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5955,7 +5939,7 @@
       <c r="F152" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G152" s="28" t="s">
+      <c r="G152" s="1" t="s">
         <v>428</v>
       </c>
     </row>
@@ -5978,7 +5962,7 @@
       <c r="F153" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G153" s="28" t="s">
+      <c r="G153" s="1" t="s">
         <v>429</v>
       </c>
     </row>
@@ -6001,7 +5985,7 @@
       <c r="F154" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G154" s="28" t="s">
+      <c r="G154" s="1" t="s">
         <v>430</v>
       </c>
     </row>
@@ -6024,7 +6008,7 @@
       <c r="F155" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G155" s="28" t="s">
+      <c r="G155" s="1" t="s">
         <v>431</v>
       </c>
     </row>
@@ -6047,7 +6031,7 @@
       <c r="F156" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G156" s="28" t="s">
+      <c r="G156" s="1" t="s">
         <v>447</v>
       </c>
     </row>
@@ -6070,7 +6054,7 @@
       <c r="F157" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G157" s="28" t="s">
+      <c r="G157" s="1" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6093,7 +6077,7 @@
       <c r="F158" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G158" s="28" t="s">
+      <c r="G158" s="1" t="s">
         <v>449</v>
       </c>
     </row>
@@ -6116,7 +6100,7 @@
       <c r="F159" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G159" s="28" t="s">
+      <c r="G159" s="1" t="s">
         <v>450</v>
       </c>
     </row>
@@ -6139,7 +6123,7 @@
       <c r="F160" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G160" s="28" t="s">
+      <c r="G160" s="1" t="s">
         <v>451</v>
       </c>
     </row>
@@ -6162,7 +6146,7 @@
       <c r="F161" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G161" s="28" t="s">
+      <c r="G161" s="1" t="s">
         <v>452</v>
       </c>
     </row>
@@ -6185,7 +6169,7 @@
       <c r="F162" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G162" s="28" t="s">
+      <c r="G162" s="1" t="s">
         <v>453</v>
       </c>
     </row>
@@ -6208,7 +6192,7 @@
       <c r="F163" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G163" s="28" t="s">
+      <c r="G163" s="1" t="s">
         <v>454</v>
       </c>
     </row>
@@ -6231,7 +6215,7 @@
       <c r="F164" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G164" s="28" t="s">
+      <c r="G164" s="1" t="s">
         <v>455</v>
       </c>
     </row>
@@ -6254,7 +6238,7 @@
       <c r="F165" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G165" s="28" t="s">
+      <c r="G165" s="1" t="s">
         <v>456</v>
       </c>
     </row>
@@ -6277,7 +6261,7 @@
       <c r="F166" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G166" s="28" t="s">
+      <c r="G166" s="1" t="s">
         <v>468</v>
       </c>
     </row>
@@ -6300,7 +6284,7 @@
       <c r="F167" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G167" s="28" t="s">
+      <c r="G167" s="1" t="s">
         <v>457</v>
       </c>
     </row>
@@ -6323,7 +6307,7 @@
       <c r="F168" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G168" s="28" t="s">
+      <c r="G168" s="1" t="s">
         <v>458</v>
       </c>
     </row>
@@ -6346,7 +6330,7 @@
       <c r="F169" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G169" s="28" t="s">
+      <c r="G169" s="1" t="s">
         <v>459</v>
       </c>
     </row>
@@ -6369,7 +6353,7 @@
       <c r="F170" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G170" s="28" t="s">
+      <c r="G170" s="1" t="s">
         <v>460</v>
       </c>
     </row>
@@ -6392,7 +6376,7 @@
       <c r="F171" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G171" s="28" t="s">
+      <c r="G171" s="1" t="s">
         <v>461</v>
       </c>
     </row>
@@ -6415,7 +6399,7 @@
       <c r="F172" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G172" s="28" t="s">
+      <c r="G172" s="1" t="s">
         <v>496</v>
       </c>
     </row>
@@ -6438,7 +6422,7 @@
       <c r="F173" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G173" s="28" t="s">
+      <c r="G173" s="1" t="s">
         <v>497</v>
       </c>
     </row>
@@ -6461,7 +6445,7 @@
       <c r="F174" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G174" s="29" t="s">
+      <c r="G174" s="2" t="s">
         <v>465</v>
       </c>
     </row>
@@ -6475,7 +6459,7 @@
       <c r="C175" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D175" s="1" t="s">
         <v>541</v>
       </c>
       <c r="E175" s="1" t="s">
@@ -6484,7 +6468,7 @@
       <c r="F175" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G175" s="33" t="s">
+      <c r="G175" s="23" t="s">
         <v>542</v>
       </c>
     </row>
@@ -6507,12 +6491,11 @@
       <c r="F176" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G176" s="30" t="s">
+      <c r="G176" s="21" t="s">
         <v>532</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:G176" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G174">
     <sortCondition ref="A5:A174"/>
   </sortState>
@@ -6525,7 +6508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6534,95 +6517,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" t="s">
         <v>587</v>
       </c>
     </row>
@@ -6636,97 +6584,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.140625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="60.140625" style="17" customWidth="1"/>
     <col min="2" max="2" width="196.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="18" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="18" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="18" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="18" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="18" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6747,852 +6695,852 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="1" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="1" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="1" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="1" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="1" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="1" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="1" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="1" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="1" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="1" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="1" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="1" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="1" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="1" t="s">
         <v>162</v>
       </c>
     </row>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230110\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230208\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D8DE7B-4D0C-4E40-9F86-070C9EBE5DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7C092D-95BE-4B15-80CE-F7FA3C1376C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Hoja1" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Descriptor de variables'!$A$4:$G$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Descriptor de variables'!$A$4:$G$177</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="591">
   <si>
     <t>Definición</t>
   </si>
@@ -1983,6 +1983,9 @@
     <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH hacia los sectores de transporte, alumbrado público, fiscal, municipal y otros. </t>
   </si>
   <si>
+    <t>6.4.12</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2002,8 +2005,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (noviembre de 2022) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (diciembre de 2022) debido a que no se encuentra disponible.</t>
     </r>
+  </si>
+  <si>
+    <t>Ejecución presupuestaria Subtítulo 31 de Iniciativas de Inversión, realizada por la Superintendencia de Servicios Sanitarios, reportada por el Ministerio de Obras Públicas (MOP). Comprende los gastos mensuales acumulados desde enero de cada año.</t>
+  </si>
+  <si>
+    <t>MOP, Superintendencia de Sevicios Sanitarios</t>
   </si>
 </sst>
 </file>
@@ -2492,9 +2501,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -5761,25 +5770,25 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>225</v>
+        <v>587</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>163</v>
+        <v>590</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>464</v>
+        <v>214</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>549</v>
+        <v>589</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5790,19 +5799,19 @@
         <v>174</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>219</v>
+        <v>464</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>425</v>
+        <v>549</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5813,22 +5822,22 @@
         <v>174</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>7</v>
       </c>
@@ -5836,22 +5845,22 @@
         <v>174</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>462</v>
+        <v>213</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>7</v>
       </c>
@@ -5859,19 +5868,19 @@
         <v>174</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>213</v>
+        <v>462</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5882,10 +5891,10 @@
         <v>174</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>213</v>
@@ -5894,7 +5903,7 @@
         <v>209</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5905,19 +5914,19 @@
         <v>174</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5928,19 +5937,19 @@
         <v>174</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5951,10 +5960,10 @@
         <v>174</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>221</v>
@@ -5963,7 +5972,7 @@
         <v>209</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5974,19 +5983,19 @@
         <v>174</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5997,10 +6006,10 @@
         <v>174</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>222</v>
@@ -6009,30 +6018,30 @@
         <v>209</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -6043,10 +6052,10 @@
         <v>153</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>213</v>
@@ -6055,7 +6064,7 @@
         <v>215</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -6066,10 +6075,10 @@
         <v>153</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>213</v>
@@ -6078,7 +6087,7 @@
         <v>215</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -6089,10 +6098,10 @@
         <v>153</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>213</v>
@@ -6101,7 +6110,7 @@
         <v>215</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -6112,10 +6121,10 @@
         <v>153</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>288</v>
+        <v>178</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>213</v>
@@ -6124,7 +6133,7 @@
         <v>215</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -6135,19 +6144,19 @@
         <v>153</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D161" t="s">
-        <v>569</v>
+        <v>288</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -6158,10 +6167,10 @@
         <v>153</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>140</v>
+        <v>179</v>
+      </c>
+      <c r="D162" t="s">
+        <v>569</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>205</v>
@@ -6170,7 +6179,7 @@
         <v>209</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -6181,10 +6190,10 @@
         <v>153</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>205</v>
@@ -6193,7 +6202,7 @@
         <v>209</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -6204,10 +6213,10 @@
         <v>153</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>205</v>
@@ -6216,7 +6225,7 @@
         <v>209</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -6227,10 +6236,10 @@
         <v>153</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>205</v>
@@ -6239,7 +6248,7 @@
         <v>209</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -6250,10 +6259,10 @@
         <v>153</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>289</v>
+        <v>183</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>205</v>
@@ -6262,7 +6271,7 @@
         <v>209</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -6273,10 +6282,10 @@
         <v>153</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>205</v>
@@ -6285,7 +6294,7 @@
         <v>209</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -6296,10 +6305,10 @@
         <v>153</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>205</v>
@@ -6308,7 +6317,7 @@
         <v>209</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -6319,10 +6328,10 @@
         <v>153</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>205</v>
@@ -6331,7 +6340,7 @@
         <v>209</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -6342,10 +6351,10 @@
         <v>153</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>205</v>
@@ -6354,7 +6363,7 @@
         <v>209</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -6365,10 +6374,10 @@
         <v>153</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>205</v>
@@ -6377,7 +6386,7 @@
         <v>209</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -6388,19 +6397,19 @@
         <v>153</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -6411,10 +6420,10 @@
         <v>153</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>216</v>
@@ -6423,10 +6432,10 @@
         <v>209</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>8</v>
       </c>
@@ -6434,19 +6443,19 @@
         <v>153</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>575</v>
+        <v>152</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G174" s="2" t="s">
-        <v>465</v>
+      <c r="G174" s="1" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6457,10 +6466,10 @@
         <v>153</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>540</v>
+        <v>297</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>213</v>
@@ -6468,36 +6477,59 @@
       <c r="F175" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G175" s="23" t="s">
+      <c r="G175" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>8</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G176" s="23" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
         <v>9</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F176" s="1" t="s">
+      <c r="F177" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G176" s="21" t="s">
+      <c r="G177" s="21" t="s">
         <v>532</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G174">
-    <sortCondition ref="A5:A174"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G175">
+    <sortCondition ref="A5:A175"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6508,7 +6540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6571,7 +6603,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -6584,7 +6616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230208\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230308\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7C092D-95BE-4B15-80CE-F7FA3C1376C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59753492-95EA-4307-A92D-AB765BCCC5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="590">
   <si>
     <t>Definición</t>
   </si>
@@ -1911,8 +1911,82 @@
     </r>
   </si>
   <si>
+    <t>Generación eléctrica</t>
+  </si>
+  <si>
+    <t>Movimiento de carga portuaria embarcada al exterior</t>
+  </si>
+  <si>
+    <t>Distribución Eléctrica Industrial</t>
+  </si>
+  <si>
+    <t>Distribución Eléctrica Comercial</t>
+  </si>
+  <si>
+    <t>Distribución Eléctrica Minería</t>
+  </si>
+  <si>
+    <t>Distribución Eléctrica Agrícola</t>
+  </si>
+  <si>
+    <t>Distribución Eléctrica Varios</t>
+  </si>
+  <si>
+    <t>Pasada de vehiculos por plazas de peajes y pórticos de autopistas interurbanas</t>
+  </si>
+  <si>
+    <t>Superficie Autorizada no habitacional</t>
+  </si>
+  <si>
+    <t>Superficie Autorizada no habitacional (ICEF-Ampliaciones)</t>
+  </si>
+  <si>
+    <t>Superficie Autorizada no habitacional (Servicios - Ampliaciones)</t>
+  </si>
+  <si>
+    <t>Superficie Autorizada no habitacional (Servicios - Obras nuevas)</t>
+  </si>
+  <si>
+    <t>Distribución Eléctrica Residencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a los clientes residenciales. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a las empresas industriales. </t>
+  </si>
+  <si>
+    <t>Corresponde a la energía eléctrica distribuida en MWH a los locales y empresas dedicadas al comercio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a las empresas dedicadas al rubro de la minería. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a entidades y particulares que se dedican al cultivo y trabajo de la tierra. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH hacia los sectores de transporte, alumbrado público, fiscal, municipal y otros. </t>
+  </si>
+  <si>
+    <t>6.4.12</t>
+  </si>
+  <si>
+    <t>Ejecución presupuestaria Subtítulo 31 de Iniciativas de Inversión, realizada por la Superintendencia de Servicios Sanitarios, reportada por el Ministerio de Obras Públicas (MOP). Comprende los gastos mensuales acumulados desde enero de cada año.</t>
+  </si>
+  <si>
+    <t>MOP, Superintendencia de Sevicios Sanitarios</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">7) </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7)</t>
     </r>
     <r>
       <rPr>
@@ -1922,97 +1996,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Los datos de las variables 6.4, 6.4.1, 6.4.2, 6.4.3, 6.4.4, 6.4.5, 6.4.6, 6.4.7, 6.4.8 y 6.4.9 para la Región de La Araucanía fueron actualizados desde enero 2014 hasta noviembre 2021.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (enero de 2023) debido a que no se encuentra disponible.</t>
     </r>
-  </si>
-  <si>
-    <t>Generación eléctrica</t>
-  </si>
-  <si>
-    <t>Movimiento de carga portuaria embarcada al exterior</t>
-  </si>
-  <si>
-    <t>Distribución Eléctrica Industrial</t>
-  </si>
-  <si>
-    <t>Distribución Eléctrica Comercial</t>
-  </si>
-  <si>
-    <t>Distribución Eléctrica Minería</t>
-  </si>
-  <si>
-    <t>Distribución Eléctrica Agrícola</t>
-  </si>
-  <si>
-    <t>Distribución Eléctrica Varios</t>
-  </si>
-  <si>
-    <t>Pasada de vehiculos por plazas de peajes y pórticos de autopistas interurbanas</t>
-  </si>
-  <si>
-    <t>Superficie Autorizada no habitacional</t>
-  </si>
-  <si>
-    <t>Superficie Autorizada no habitacional (ICEF-Ampliaciones)</t>
-  </si>
-  <si>
-    <t>Superficie Autorizada no habitacional (Servicios - Ampliaciones)</t>
-  </si>
-  <si>
-    <t>Superficie Autorizada no habitacional (Servicios - Obras nuevas)</t>
-  </si>
-  <si>
-    <t>Distribución Eléctrica Residencial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a los clientes residenciales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a las empresas industriales. </t>
-  </si>
-  <si>
-    <t>Corresponde a la energía eléctrica distribuida en MWH a los locales y empresas dedicadas al comercio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a las empresas dedicadas al rubro de la minería. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH a entidades y particulares que se dedican al cultivo y trabajo de la tierra. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponde a la energía eléctrica distribuida en MWH hacia los sectores de transporte, alumbrado público, fiscal, municipal y otros. </t>
-  </si>
-  <si>
-    <t>6.4.12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (diciembre de 2022) debido a que no se encuentra disponible.</t>
-    </r>
-  </si>
-  <si>
-    <t>Ejecución presupuestaria Subtítulo 31 de Iniciativas de Inversión, realizada por la Superintendencia de Servicios Sanitarios, reportada por el Ministerio de Obras Públicas (MOP). Comprende los gastos mensuales acumulados desde enero de cada año.</t>
-  </si>
-  <si>
-    <t>MOP, Superintendencia de Sevicios Sanitarios</t>
   </si>
 </sst>
 </file>
@@ -2168,7 +2153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2211,7 +2196,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4108,7 +4092,7 @@
       <c r="F72" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G72" s="21" t="s">
+      <c r="G72" s="20" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4131,7 +4115,7 @@
       <c r="F73" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G73" s="21" t="s">
+      <c r="G73" s="20" t="s">
         <v>477</v>
       </c>
     </row>
@@ -4154,7 +4138,7 @@
       <c r="F74" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G74" s="22" t="s">
+      <c r="G74" s="21" t="s">
         <v>478</v>
       </c>
     </row>
@@ -4223,7 +4207,7 @@
       <c r="F77" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G77" s="21" t="s">
+      <c r="G77" s="20" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4269,7 +4253,7 @@
       <c r="F79" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G79" s="21" t="s">
+      <c r="G79" s="20" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4292,7 +4276,7 @@
       <c r="F80" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G80" s="21" t="s">
+      <c r="G80" s="20" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5020,7 +5004,7 @@
         <v>67</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>212</v>
@@ -5158,7 +5142,7 @@
         <v>251</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>212</v>
@@ -5167,7 +5151,7 @@
         <v>209</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -5181,7 +5165,7 @@
         <v>252</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>212</v>
@@ -5190,7 +5174,7 @@
         <v>209</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -5204,7 +5188,7 @@
         <v>253</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>212</v>
@@ -5213,7 +5197,7 @@
         <v>209</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -5227,7 +5211,7 @@
         <v>254</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>212</v>
@@ -5236,7 +5220,7 @@
         <v>209</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -5250,7 +5234,7 @@
         <v>255</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>212</v>
@@ -5259,7 +5243,7 @@
         <v>209</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -5273,7 +5257,7 @@
         <v>256</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>212</v>
@@ -5282,7 +5266,7 @@
         <v>209</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -5388,7 +5372,7 @@
         <v>238</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>462</v>
@@ -5434,7 +5418,7 @@
         <v>131</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>462</v>
@@ -5457,7 +5441,7 @@
         <v>132</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>462</v>
@@ -5480,7 +5464,7 @@
         <v>133</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>462</v>
@@ -5776,10 +5760,10 @@
         <v>6</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>214</v>
@@ -5788,7 +5772,7 @@
         <v>211</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -6170,7 +6154,7 @@
         <v>179</v>
       </c>
       <c r="D162" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>205</v>
@@ -6469,7 +6453,7 @@
         <v>297</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>213</v>
@@ -6500,7 +6484,7 @@
       <c r="F176" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G176" s="23" t="s">
+      <c r="G176" s="22" t="s">
         <v>542</v>
       </c>
     </row>
@@ -6523,7 +6507,7 @@
       <c r="F177" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G177" s="21" t="s">
+      <c r="G177" s="20" t="s">
         <v>532</v>
       </c>
     </row>
@@ -6538,7 +6522,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -6597,13 +6581,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>588</v>
+      <c r="A8" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230308\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230322\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59753492-95EA-4307-A92D-AB765BCCC5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1218601-10E3-49FD-9CFB-B0F21A052D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2485,7 +2485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>3</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>3</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>3</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>3</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>3</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>3</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>3</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>3</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>4</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>4</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>4</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>4</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>4</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>4</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>4</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>4</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>4</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>4</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>4</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>4</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>4</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>4</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>4</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>4</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>4</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>4</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>4</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>4</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>4</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>4</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>4</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>4</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>4</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>4</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>4</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>4</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>4</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>4</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>5</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>5</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>5</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>5</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>5</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>5</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>5</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>5</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>5</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>5</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>5</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>5</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>6</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>6</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>6</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>6</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>6</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>6</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>6</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>6</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>6</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>6</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>6</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>6</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>6</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>6</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>6</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>6</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>6</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>6</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>6</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>6</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>6</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>6</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>7</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>7</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>7</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>7</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>7</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>7</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>7</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>7</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>7</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>7</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>7</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>8</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>8</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>8</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>8</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>8</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>8</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>8</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>8</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>8</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>8</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>8</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>8</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>8</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>8</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>8</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>8</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>8</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>8</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>9</v>
       </c>
@@ -6511,6 +6511,7 @@
         <v>532</v>
       </c>
     </row>
+    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G175">
     <sortCondition ref="A5:A175"/>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230322\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230411\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1218601-10E3-49FD-9CFB-B0F21A052D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7A1431-4571-4EC2-A0EF-AFFCB37B15FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1996,7 +1996,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (enero de 2023) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (febrero de 2023) debido a que no se encuentra disponible.</t>
     </r>
   </si>
 </sst>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230411\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230509\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7A1431-4571-4EC2-A0EF-AFFCB37B15FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E7154B-918E-40BA-A71F-AFB24593D91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="-11640" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -1996,7 +1996,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (febrero de 2023) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (marzo de 2023) debido a que no se encuentra disponible.</t>
     </r>
   </si>
 </sst>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230509\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230522\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E7154B-918E-40BA-A71F-AFB24593D91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A4C5E6-9593-4289-A6E9-D92E407F6AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="-11640" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -1727,9 +1727,6 @@
     <t>6.1, 6.1.1, 6.1.2, 6.2, 6.3, 6.3.1, 6.3.2, 6.3.3 y 6.3.4</t>
   </si>
   <si>
-    <t>Esta serie se presenta agregada para la Región del Biobío y Región de Ñuble desde enero 2014 a agosto 2018. Desde septiembre 2018 a la fecha se presentan las cifras bajo la nueva División Política Administrativa (DPA)</t>
-  </si>
-  <si>
     <t>8.6</t>
   </si>
   <si>
@@ -1998,6 +1995,9 @@
       </rPr>
       <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (marzo de 2023) debido a que no se encuentra disponible.</t>
     </r>
+  </si>
+  <si>
+    <t>Esta serie se presenta agregada para la Región del Biobío y Región de Ñuble desde enero 2014 a septiembre 2018. Desde octubre 2018 a la fecha se presentan las cifras bajo la nueva División Política Administrativa (DPA)</t>
   </si>
 </sst>
 </file>
@@ -2489,7 +2489,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5004,7 +5004,7 @@
         <v>67</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>212</v>
@@ -5142,7 +5142,7 @@
         <v>251</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>212</v>
@@ -5151,7 +5151,7 @@
         <v>209</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5165,7 +5165,7 @@
         <v>252</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>212</v>
@@ -5174,7 +5174,7 @@
         <v>209</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5188,7 +5188,7 @@
         <v>253</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>212</v>
@@ -5197,7 +5197,7 @@
         <v>209</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5211,7 +5211,7 @@
         <v>254</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>212</v>
@@ -5220,7 +5220,7 @@
         <v>209</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5234,7 +5234,7 @@
         <v>255</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>212</v>
@@ -5243,7 +5243,7 @@
         <v>209</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5257,7 +5257,7 @@
         <v>256</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>209</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5372,7 +5372,7 @@
         <v>238</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>462</v>
@@ -5404,7 +5404,7 @@
         <v>209</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5418,7 +5418,7 @@
         <v>131</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>462</v>
@@ -5427,7 +5427,7 @@
         <v>209</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5441,7 +5441,7 @@
         <v>132</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>462</v>
@@ -5450,7 +5450,7 @@
         <v>209</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5464,7 +5464,7 @@
         <v>133</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>462</v>
@@ -5473,7 +5473,7 @@
         <v>209</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5496,7 +5496,7 @@
         <v>211</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5519,7 +5519,7 @@
         <v>211</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5542,7 +5542,7 @@
         <v>211</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5565,7 +5565,7 @@
         <v>211</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5588,7 +5588,7 @@
         <v>211</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5611,7 +5611,7 @@
         <v>211</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5634,7 +5634,7 @@
         <v>211</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5657,7 +5657,7 @@
         <v>211</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5680,7 +5680,7 @@
         <v>211</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5703,7 +5703,7 @@
         <v>211</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5726,7 +5726,7 @@
         <v>211</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5749,7 +5749,7 @@
         <v>211</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5760,10 +5760,10 @@
         <v>6</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>214</v>
@@ -5772,7 +5772,7 @@
         <v>211</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5795,7 +5795,7 @@
         <v>209</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6154,7 +6154,7 @@
         <v>179</v>
       </c>
       <c r="D162" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>205</v>
@@ -6453,7 +6453,7 @@
         <v>297</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>213</v>
@@ -6473,10 +6473,10 @@
         <v>153</v>
       </c>
       <c r="C176" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>541</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>213</v>
@@ -6485,7 +6485,7 @@
         <v>209</v>
       </c>
       <c r="G176" s="22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6554,36 +6554,36 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -6620,7 +6620,7 @@
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>511</v>
@@ -6631,15 +6631,15 @@
         <v>498</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>538</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>539</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230522\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230607\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A4C5E6-9593-4289-A6E9-D92E407F6AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13E184E-F4C7-4582-94BA-AD80468213B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1974,6 +1974,9 @@
     <t>MOP, Superintendencia de Sevicios Sanitarios</t>
   </si>
   <si>
+    <t>Esta serie se presenta agregada para la Región del Biobío y Región de Ñuble desde enero 2014 a septiembre 2018. Desde octubre 2018 a la fecha se presentan las cifras bajo la nueva División Política Administrativa (DPA)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1993,11 +1996,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (marzo de 2023) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (abril de 2023) debido a que no se encuentra disponible.</t>
     </r>
-  </si>
-  <si>
-    <t>Esta serie se presenta agregada para la Región del Biobío y Región de Ñuble desde enero 2014 a septiembre 2018. Desde octubre 2018 a la fecha se presentan las cifras bajo la nueva División Política Administrativa (DPA)</t>
   </si>
 </sst>
 </file>
@@ -2489,7 +2489,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6583,7 +6583,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -6639,7 +6639,7 @@
         <v>538</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230607\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230707\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13E184E-F4C7-4582-94BA-AD80468213B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFCFE9C-507C-4D50-B1A0-F3C7F0A75822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1996,7 +1996,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (abril de 2023) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (mayo de 2023) debido a que no se encuentra disponible.</t>
     </r>
   </si>
 </sst>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230707\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230721\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFCFE9C-507C-4D50-B1A0-F3C7F0A75822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B58C10-D598-4BB2-AEAD-BBC8420F0C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="-12285" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -2489,7 +2489,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230721\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230807\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B58C10-D598-4BB2-AEAD-BBC8420F0C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721645DF-75C8-4EAC-9248-4063286F6FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="-12285" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2070" yWindow="-13620" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -1996,7 +1996,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (mayo de 2023) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (junio de 2023) debido a que no se encuentra disponible.</t>
     </r>
   </si>
 </sst>
@@ -2489,7 +2489,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230807\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230907\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721645DF-75C8-4EAC-9248-4063286F6FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EF590B-F8BA-4A1A-A517-CE53E37F14BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2070" yWindow="-13620" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1996,7 +1996,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (junio de 2023) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (julio de 2023) debido a que no se encuentra disponible.</t>
     </r>
   </si>
 </sst>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20230907\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20231006\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EF590B-F8BA-4A1A-A517-CE53E37F14BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD61BAB-CE71-4DE7-BE03-CAEF155887FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2070" yWindow="-13620" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1996,7 +1996,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (julio de 2023) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (agosto de 2023) debido a que no se encuentra disponible.</t>
     </r>
   </si>
 </sst>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20231006\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20231020\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD61BAB-CE71-4DE7-BE03-CAEF155887FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1704CA3F-A268-4A9A-87A2-540C369860C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2070" yWindow="-13620" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20231020\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20231108\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1704CA3F-A268-4A9A-87A2-540C369860C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C919DAC2-0895-4787-85F4-2FD05414B8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2070" yWindow="-13620" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -1996,7 +1996,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (agosto de 2023) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (septiembre de 2023) debido a que no se encuentra disponible.</t>
     </r>
   </si>
 </sst>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20231108\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20231207\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C919DAC2-0895-4787-85F4-2FD05414B8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6B3E8E-8AD3-48CD-959C-FB9D7063FE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1667,9 +1667,6 @@
     <t>Esta serie se presenta agregada para la Región del Biobío y Región de Ñuble desde enero 2014 a diciembre 2018. Desde enero 2019 a la fecha se presentan las cifras bajo la nueva DPA.</t>
   </si>
   <si>
-    <t>Esta serie se presenta agregada para la Región del Biobío y Región de Ñuble desde julio 2016 a agosto 2018. Desde septiembre 2018 a la fecha se presentan las cifras bajo la nueva DPA.</t>
-  </si>
-  <si>
     <t>Cantidad producida de leche fluida de láctea menor medida en litros.</t>
   </si>
   <si>
@@ -1734,29 +1731,6 @@
   </si>
   <si>
     <t>Tránsito de vehículos que circulan por pórticos de autopistas urbanas. Pórtico: es una estructura metálica de tres piezas que se encuentra en las autopistas el cual en su parte superior posee dispositivos de lectura electrónica y que enlaza con el dispositivo denominado TAG o Televía, el cual va montado en el parabrisas del automóvil y recibe y envía información al pasar por debajo del pórtico.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Los datos de las variables códigos 7.2.1, 7.2.2, 7.2.3, 7.2.4, 7.2.5, 7.2.6, 7.2.7 presentan los datos desde julio 2016 considerando la actualización metodológica 2017 de la Encuesta Mensual de Alojamiento Turístico (EMAT). Desde julio 2016 a julio 2017 se consideran cifras referenciales.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1986,7 +1960,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7)</t>
+      <t>2)</t>
     </r>
     <r>
       <rPr>
@@ -1996,15 +1970,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (septiembre de 2023) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> Las cifras de las regiones de Ñuble y Biobío en los períodos de julio 2016 a agosto de 2018 son de carácter referencial, ya que, a esa fecha, la división político administrativa no era la que rige a partir de septiembre 2018.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (octubre de 2023) debido a que no se encuentra disponible.</t>
+    </r>
+  </si>
+  <si>
+    <t>Esta serie se presenta desagregada para Ñuble y Biobío de acuerdo a la nueva DPA desde julio 2016 a la fecha. Las cifras desde julio de 2016 a agosto de 2018 son de carácter referencial, dado que la nueva DPA rige desde septiembre de 2018.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2032,6 +2030,19 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2153,7 +2164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2204,6 +2215,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2488,7 +2503,7 @@
   <dimension ref="A1:G178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -2506,7 +2521,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4360,7 +4375,7 @@
         <v>498</v>
       </c>
       <c r="D84" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>205</v>
@@ -4392,7 +4407,7 @@
         <v>209</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4415,7 +4430,7 @@
         <v>209</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4438,7 +4453,7 @@
         <v>209</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4461,7 +4476,7 @@
         <v>209</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4484,7 +4499,7 @@
         <v>209</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4507,7 +4522,7 @@
         <v>209</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4530,7 +4545,7 @@
         <v>209</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4553,7 +4568,7 @@
         <v>209</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4576,7 +4591,7 @@
         <v>209</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5004,7 +5019,7 @@
         <v>67</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>212</v>
@@ -5027,7 +5042,7 @@
         <v>68</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>212</v>
@@ -5096,7 +5111,7 @@
         <v>250</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>212</v>
@@ -5142,7 +5157,7 @@
         <v>251</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>212</v>
@@ -5151,7 +5166,7 @@
         <v>209</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5165,7 +5180,7 @@
         <v>252</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>212</v>
@@ -5174,7 +5189,7 @@
         <v>209</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5188,7 +5203,7 @@
         <v>253</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>212</v>
@@ -5197,7 +5212,7 @@
         <v>209</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5211,7 +5226,7 @@
         <v>254</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>212</v>
@@ -5220,7 +5235,7 @@
         <v>209</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5234,7 +5249,7 @@
         <v>255</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>212</v>
@@ -5243,7 +5258,7 @@
         <v>209</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5257,7 +5272,7 @@
         <v>256</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>212</v>
@@ -5266,7 +5281,7 @@
         <v>209</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5372,7 +5387,7 @@
         <v>238</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>462</v>
@@ -5404,7 +5419,7 @@
         <v>209</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5418,7 +5433,7 @@
         <v>131</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>462</v>
@@ -5427,7 +5442,7 @@
         <v>209</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5441,7 +5456,7 @@
         <v>132</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>462</v>
@@ -5450,7 +5465,7 @@
         <v>209</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5464,7 +5479,7 @@
         <v>133</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>462</v>
@@ -5473,7 +5488,7 @@
         <v>209</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5496,7 +5511,7 @@
         <v>211</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5519,7 +5534,7 @@
         <v>211</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5542,7 +5557,7 @@
         <v>211</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5565,7 +5580,7 @@
         <v>211</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5588,7 +5603,7 @@
         <v>211</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5611,7 +5626,7 @@
         <v>211</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5634,7 +5649,7 @@
         <v>211</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5657,7 +5672,7 @@
         <v>211</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5680,7 +5695,7 @@
         <v>211</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5703,7 +5718,7 @@
         <v>211</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5726,7 +5741,7 @@
         <v>211</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5749,7 +5764,7 @@
         <v>211</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5760,10 +5775,10 @@
         <v>6</v>
       </c>
       <c r="C145" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>214</v>
@@ -5772,7 +5787,7 @@
         <v>211</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5795,7 +5810,7 @@
         <v>209</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6154,7 +6169,7 @@
         <v>179</v>
       </c>
       <c r="D162" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>205</v>
@@ -6453,7 +6468,7 @@
         <v>297</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>213</v>
@@ -6473,10 +6488,10 @@
         <v>153</v>
       </c>
       <c r="C176" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>213</v>
@@ -6485,7 +6500,7 @@
         <v>209</v>
       </c>
       <c r="G176" s="22" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6508,7 +6523,7 @@
         <v>224</v>
       </c>
       <c r="G177" s="20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6554,36 +6569,36 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>542</v>
+        <v>587</v>
       </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>589</v>
+      <c r="A8" s="23" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -6594,7 +6609,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -6606,7 +6621,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B1" s="12"/>
     </row>
@@ -6620,7 +6635,7 @@
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>511</v>
@@ -6631,15 +6646,15 @@
         <v>498</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6647,15 +6662,15 @@
         <v>514</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>536</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6663,7 +6678,7 @@
         <v>515</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>519</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6689,6 +6704,9 @@
       <c r="B11" s="18" t="s">
         <v>518</v>
       </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20231207\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20231221\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6B3E8E-8AD3-48CD-959C-FB9D7063FE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD58C56C-FC0D-45A7-A0C4-F5656B0EAB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2503,7 +2503,7 @@
   <dimension ref="A1:G178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2023\Base 20231221\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240110\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD58C56C-FC0D-45A7-A0C4-F5656B0EAB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E747E89-1654-4DD1-B2FC-3567921E931D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2070" yWindow="-13620" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="593">
   <si>
     <t>Definición</t>
   </si>
@@ -1733,84 +1733,12 @@
     <t>Tránsito de vehículos que circulan por pórticos de autopistas urbanas. Pórtico: es una estructura metálica de tres piezas que se encuentra en las autopistas el cual en su parte superior posee dispositivos de lectura electrónica y que enlaza con el dispositivo denominado TAG o Televía, el cual va montado en el parabrisas del automóvil y recibe y envía información al pasar por debajo del pórtico.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Para la construcción de la variable código 9.1 se realizaron ajustes en el valor FOB de las exportaciones desde 2008 debido a la depuración de la base de datos del Servicio Nacional de Aduanas que se comenzó a aplicar el año 2016 en el Instituto Nacional de Estadísticas. Este ajuste tiene como objetivo identificar el origen regional de la exportación.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> En los casos de las series que contienen el símbolo "-" en algunos meses, esto significa que no fue posible entregar el dato debido a restricciones de secreto estadístico.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> En los casos de las series que presentan códigos de variables agregados, esto se debe a que no fue posible desagregar la información debido a restricciones de secreto estadístico.</t>
-    </r>
-  </si>
-  <si>
     <t>1.4, 2.1, 2.1.6, 2.1.7, 2.1.8, 2.1.9, 2.1.11, 2.1.12, 2.1.14, 2.1.20. 2.1.26, 2.1.a, 2.1.b, 2.1.c, 2.1.d, 2.1.e, 2.2, 2.2.3, 2.2.4, 2.2.5, 2.2.9, 2.2.10, 2.2.11, 2.2.b, 2.2.c, 2.2.d, 2.2.e, 3.6, 4.1, 4.1.1,  4.1.2, 4.1.4, 4.1.5, 4.1.7, 4.1.8, 4.1.10, 4.1.11, 4.1.12, 4.1.13,  4.1.17, 5.1, 5.1.1, 5.1.2, 5.1.4, 5.2 y 9.1</t>
   </si>
   <si>
     <t>Esta serie se presenta agregada para la Región del Biobío y Región de Ñuble desde enero 2018 a agosto 2018. Desde septiembre 2018 a la fecha se presentan las cifras bajo la nueva División Política Administrativa (DPA)</t>
   </si>
   <si>
-    <t>Índice de Ventas de Supermercados (ISUP) Base promedio año 2014=100. Este índice mide la evolución de la actividad de supermercados, a través de las ventas totales netas de los establecimientos con tres o más cajas instaladas y que operen dentro del territorio nacional.</t>
-  </si>
-  <si>
     <t>Ejecución presupuestaria Subtítulo 31 de Iniciativas de Inversión, realizada por la  Dirección de Arquitectura, reportada por el Ministerio de Obras Públicas (MOP). Comprende los gastos mensuales acumulados desde enero de cada año.</t>
   </si>
   <si>
@@ -1857,29 +1785,6 @@
   </si>
   <si>
     <t>Superficie en metros cuadrados destinados a la construcción de ampliaciones de servicios, de las solicitudes de edificación no habitacional autorizadas en un mes determinado.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Como una mejora a las cifras ya disponibles para la Región de Ñuble, en la publicación de noviembre de 2021, desde septiembre de 2018, se agregan cifras del sector Energía, gas y agua, específicamente los códigos: 5.1, 5.1.1, 5.1.4, 5.2, 5.2.1, 5.2.2, 5.2.3, 5.2.5, 5.2.7.</t>
-    </r>
   </si>
   <si>
     <t>Generación eléctrica</t>
@@ -1974,10 +1879,63 @@
     </r>
   </si>
   <si>
+    <t>Esta serie se presenta desagregada para Ñuble y Biobío de acuerdo a la nueva DPA desde julio 2016 a la fecha. Las cifras desde julio de 2016 a agosto de 2018 son de carácter referencial, dado que la nueva DPA rige desde septiembre de 2018.</t>
+  </si>
+  <si>
+    <t>Índice de Ventas de Supermercados (ISUP) Base promedio año 2018=100. Este índice mide la evolución de la actividad de supermercados, a través de las ventas totales netas de los establecimientos con tres o más cajas instaladas y que operen dentro del territorio nacional.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Para la construcción de la variable código 9.1 se realizaron ajustes en el valor FOB de las exportaciones desde 2008 debido a la depuración de la base de datos del Servicio Nacional de Aduanas que se comenzó a aplicar el año 2016 en el Instituto Nacional de Estadísticas. Este ajuste tiene como objetivo identificar el origen regional de la exportación.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> En los casos de las series que contienen el símbolo "-" en algunos meses, esto significa que no fue posible entregar el dato debido a restricciones de secreto estadístico.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1987,22 +1945,114 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (octubre de 2023) debido a que no se encuentra disponible.</t>
+      <t xml:space="preserve"> En los casos de las series que presentan códigos de variables agregados, esto se debe a que no fue posible desagregar la información debido a restricciones de secreto estadístico.</t>
     </r>
   </si>
   <si>
-    <t>Esta serie se presenta desagregada para Ñuble y Biobío de acuerdo a la nueva DPA desde julio 2016 a la fecha. Las cifras desde julio de 2016 a agosto de 2018 son de carácter referencial, dado que la nueva DPA rige desde septiembre de 2018.</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Como una mejora a las cifras ya disponibles para la Región de Ñuble, en la publicación de noviembre de 2021, desde septiembre de 2018, se agregan cifras del sector Energía, gas y agua, específicamente los códigos: 5.1, 5.1.1, 5.1.4, 5.2, 5.2.1, 5.2.2, 5.2.3, 5.2.5, 5.2.7.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (noviembre de 2023) debido a que no se encuentra disponible.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3) Empalme de series:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Los datos de las variables 7.1.1, 7.1.2, 7.1.3. y 7.1.4. corresponden a cifras empalmadas. El índice base promedio 2018=100 calculado desde enero de 2018, fue empalmado con la base promedio 2014=100. Este empalme se efectuó por el método de retropolación por factor. Para mayor información, puede revisar nuestra pagina web, haciendo clic en esta celda y seleccionando la opción / comités y notas técnicas / base promedio año 2018=100 / Separata técnica - Empalme de series económicas de corto plazo base promedio año 2018=100.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4) Cifras referenciales:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Los datos de las variables 7.1.1, 7.1.2, 7.1.3. y 7.1.4. de la base promedio año 2018=100, calculados hasta octubre de 2023, son referenciales, dado que existen datos oficiales publicados para dicho período en la página web de cada región. A partir de noviembre de 2023 la cifra mensual tiene carácter de oficial. Para mayores antecedentes, puede revisar la información disponible en las páginas web regionales.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2047,6 +2097,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2062,7 +2119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2132,30 +2189,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2172,18 +2209,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2216,9 +2246,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2525,25 +2570,25 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="14" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4107,7 +4152,7 @@
       <c r="F72" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G72" s="20" t="s">
+      <c r="G72" s="15" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4130,7 +4175,7 @@
       <c r="F73" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G73" s="20" t="s">
+      <c r="G73" s="15" t="s">
         <v>477</v>
       </c>
     </row>
@@ -4153,7 +4198,7 @@
       <c r="F74" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G74" s="21" t="s">
+      <c r="G74" s="16" t="s">
         <v>478</v>
       </c>
     </row>
@@ -4222,7 +4267,7 @@
       <c r="F77" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G77" s="20" t="s">
+      <c r="G77" s="15" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4268,7 +4313,7 @@
       <c r="F79" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G79" s="20" t="s">
+      <c r="G79" s="15" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4291,7 +4336,7 @@
       <c r="F80" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G80" s="20" t="s">
+      <c r="G80" s="15" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5019,7 +5064,7 @@
         <v>67</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>212</v>
@@ -5157,7 +5202,7 @@
         <v>251</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>212</v>
@@ -5166,7 +5211,7 @@
         <v>209</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5180,7 +5225,7 @@
         <v>252</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>212</v>
@@ -5189,7 +5234,7 @@
         <v>209</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5203,7 +5248,7 @@
         <v>253</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>212</v>
@@ -5212,7 +5257,7 @@
         <v>209</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5226,7 +5271,7 @@
         <v>254</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>212</v>
@@ -5235,7 +5280,7 @@
         <v>209</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5249,7 +5294,7 @@
         <v>255</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>212</v>
@@ -5258,7 +5303,7 @@
         <v>209</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5272,7 +5317,7 @@
         <v>256</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>212</v>
@@ -5281,7 +5326,7 @@
         <v>209</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5387,7 +5432,7 @@
         <v>238</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>462</v>
@@ -5419,7 +5464,7 @@
         <v>209</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5433,7 +5478,7 @@
         <v>131</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>462</v>
@@ -5442,7 +5487,7 @@
         <v>209</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5456,7 +5501,7 @@
         <v>132</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>462</v>
@@ -5465,7 +5510,7 @@
         <v>209</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5479,7 +5524,7 @@
         <v>133</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>462</v>
@@ -5488,7 +5533,7 @@
         <v>209</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5511,7 +5556,7 @@
         <v>211</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5534,7 +5579,7 @@
         <v>211</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5557,7 +5602,7 @@
         <v>211</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5580,7 +5625,7 @@
         <v>211</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5603,7 +5648,7 @@
         <v>211</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5626,7 +5671,7 @@
         <v>211</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5649,7 +5694,7 @@
         <v>211</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5672,7 +5717,7 @@
         <v>211</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5695,7 +5740,7 @@
         <v>211</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5718,7 +5763,7 @@
         <v>211</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5741,7 +5786,7 @@
         <v>211</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5764,7 +5809,7 @@
         <v>211</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5775,10 +5820,10 @@
         <v>6</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>214</v>
@@ -5787,98 +5832,98 @@
         <v>211</v>
       </c>
       <c r="G145" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="23">
+        <v>7</v>
+      </c>
+      <c r="B146" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C146" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D146" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E146" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="F146" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G146" s="23" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
+    <row r="147" spans="1:7" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="23">
         <v>7</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B147" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
+      <c r="C147" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D147" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E147" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="F147" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G147" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="23">
         <v>7</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B148" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
+      <c r="C148" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D148" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E148" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F148" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G148" s="23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="23">
         <v>7</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B149" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>7</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G149" s="1" t="s">
+      <c r="E149" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="F149" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G149" s="23" t="s">
         <v>426</v>
       </c>
     </row>
@@ -6169,7 +6214,7 @@
         <v>179</v>
       </c>
       <c r="D162" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>205</v>
@@ -6468,7 +6513,7 @@
         <v>297</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>213</v>
@@ -6499,7 +6544,7 @@
       <c r="F176" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G176" s="22" t="s">
+      <c r="G176" s="17" t="s">
         <v>540</v>
       </c>
     </row>
@@ -6522,7 +6567,7 @@
       <c r="F177" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G177" s="20" t="s">
+      <c r="G177" s="15" t="s">
         <v>531</v>
       </c>
     </row>
@@ -6538,72 +6583,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="191.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="160.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>510</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>588</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="3) Empalme de series: Los datos de las variables 7.1.1, 7.1.2, 7.1.3. y 7.1.4. se presentan emplamadas. El índice de ventas a precios constantes base promedio año 2018=100 calculado desde enero de 2018 fue empalmado con la base promedio año 2014=100. Este empalme se efectuó por el método de retropolación. Para mayor información puede revisar aquí / comités y notas técnicas / base promedio año 2018=100 /Separata técnica - Empalme de series economicas de corto plazo base promedio año 2018=100." xr:uid="{50A2E415-42DA-4BB4-AA2E-BF9D74941FA7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6615,98 +6664,98 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.140625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="60.140625" style="12" customWidth="1"/>
     <col min="2" max="2" width="196.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>544</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>545</v>
+      <c r="B4" s="13" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>586</v>
+      <c r="B5" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="13" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>589</v>
+      <c r="B8" s="13" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="13" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="13" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
+      <c r="B14" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240110\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240123\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E747E89-1654-4DD1-B2FC-3567921E931D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788EBCAD-88FB-44F5-85C1-E66AFB2AE4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2070" yWindow="-13620" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240123\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240209\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788EBCAD-88FB-44F5-85C1-E66AFB2AE4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBAA35E-6131-4780-BFE2-B947C5F61552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2070" yWindow="-13620" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="595">
   <si>
     <t>Definición</t>
   </si>
@@ -1637,21 +1637,6 @@
     <t>Nota técnica</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Los datos de la variable 4.1.1.1 se presentan desde enero 2018 a la fecha. </t>
-    </r>
-  </si>
-  <si>
     <t>6.4, 6.4.1, 6.4.2, 6.4.3, 6.4.4, 6.4.5, 6.4.6, 6.4.7, 6.4.8, 6.4.9, 6.4.10 y 6.4.11</t>
   </si>
   <si>
@@ -1856,146 +1841,10 @@
     <t>Esta serie se presenta agregada para la Región del Biobío y Región de Ñuble desde enero 2014 a septiembre 2018. Desde octubre 2018 a la fecha se presentan las cifras bajo la nueva División Política Administrativa (DPA)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Las cifras de las regiones de Ñuble y Biobío en los períodos de julio 2016 a agosto de 2018 son de carácter referencial, ya que, a esa fecha, la división político administrativa no era la que rige a partir de septiembre 2018.</t>
-    </r>
-  </si>
-  <si>
     <t>Esta serie se presenta desagregada para Ñuble y Biobío de acuerdo a la nueva DPA desde julio 2016 a la fecha. Las cifras desde julio de 2016 a agosto de 2018 son de carácter referencial, dado que la nueva DPA rige desde septiembre de 2018.</t>
   </si>
   <si>
     <t>Índice de Ventas de Supermercados (ISUP) Base promedio año 2018=100. Este índice mide la evolución de la actividad de supermercados, a través de las ventas totales netas de los establecimientos con tres o más cajas instaladas y que operen dentro del territorio nacional.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Para la construcción de la variable código 9.1 se realizaron ajustes en el valor FOB de las exportaciones desde 2008 debido a la depuración de la base de datos del Servicio Nacional de Aduanas que se comenzó a aplicar el año 2016 en el Instituto Nacional de Estadísticas. Este ajuste tiene como objetivo identificar el origen regional de la exportación.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> En los casos de las series que contienen el símbolo "-" en algunos meses, esto significa que no fue posible entregar el dato debido a restricciones de secreto estadístico.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> En los casos de las series que presentan códigos de variables agregados, esto se debe a que no fue posible desagregar la información debido a restricciones de secreto estadístico.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Como una mejora a las cifras ya disponibles para la Región de Ñuble, en la publicación de noviembre de 2021, desde septiembre de 2018, se agregan cifras del sector Energía, gas y agua, específicamente los códigos: 5.1, 5.1.1, 5.1.4, 5.2, 5.2.1, 5.2.2, 5.2.3, 5.2.5, 5.2.7.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (noviembre de 2023) debido a que no se encuentra disponible.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2013,6 +1862,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Los datos de la variable 4.1.1.1 se presentan desde enero 2018 a la fecha. </t>
+  </si>
+  <si>
+    <t>Las cifras de las regiones de Ñuble y Biobío en los períodos de julio 2016 a agosto de 2018 son de carácter referencial, ya que, a esa fecha, la división político administrativa no era la que rige a partir de septiembre 2018.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2021,7 +1876,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3) Empalme de series:</t>
+      <t>Empalme de series:</t>
     </r>
     <r>
       <rPr>
@@ -2035,7 +1890,7 @@
   </si>
   <si>
     <r>
-      <t>4) Cifras referenciales:</t>
+      <t>Cifras referenciales:</t>
     </r>
     <r>
       <rPr>
@@ -2047,12 +1902,69 @@
       <t xml:space="preserve"> Los datos de las variables 7.1.1, 7.1.2, 7.1.3. y 7.1.4. de la base promedio año 2018=100, calculados hasta octubre de 2023, son referenciales, dado que existen datos oficiales publicados para dicho período en la página web de cada región. A partir de noviembre de 2023 la cifra mensual tiene carácter de oficial. Para mayores antecedentes, puede revisar la información disponible en las páginas web regionales.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Empalme de series: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Los datos de la variable 3.1 de la Región de Atacama corresponden a cifras empalmadas. El índice base promedio 2018=100 calculado desde enero de 2018, fue empalmado con la base promedio 2014=100. Este empalme se efectuó por el método de retropolación por factor. Para mayor información, puede revisar nuestra pagina web, haciendo clic en esta celda y seleccionando la opción / comités y notas técnicas / base promedio año 2018=100 / Separata técnica - Empalme de series económicas de corto plazo base promedio año 2018=100.</t>
+    </r>
+  </si>
+  <si>
+    <t>Para la construcción de la variable código 9.1 se realizaron ajustes en el valor FOB de las exportaciones desde 2008 debido a la depuración de la base de datos del Servicio Nacional de Aduanas que se comenzó a aplicar el año 2016 en el Instituto Nacional de Estadísticas. Este ajuste tiene como objetivo identificar el origen regional de la exportación.</t>
+  </si>
+  <si>
+    <t>En los casos de las series que contienen el símbolo "-" en algunos meses, esto significa que no fue posible entregar el dato debido a restricciones de secreto estadístico.</t>
+  </si>
+  <si>
+    <t>En los casos de las series que presentan códigos de variables agregados, esto se debe a que no fue posible desagregar la información debido a restricciones de secreto estadístico.</t>
+  </si>
+  <si>
+    <t>Como una mejora a las cifras ya disponibles para la Región de Ñuble, en la publicación de noviembre de 2021, desde septiembre de 2018, se agregan cifras del sector Energía, gas y agua, específicamente los códigos: 5.1, 5.1.1, 5.1.4, 5.2, 5.2.1, 5.2.2, 5.2.3, 5.2.5, 5.2.7.</t>
+  </si>
+  <si>
+    <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (diciembre de 2023) debido a que no se encuentra disponible.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cifras referenciales: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Los datos de la variable 3.1 de la Región de Atacama, de la base promedio año 2018=100 calculados hasta noviembre de 2023, son referenciales, dado que existen datos oficiales publicados para dicho período en la página web de la región. A partir de diciembre de 2023 la cifra mensual tiene carácter de oficial. Para mayores antecedentes, puede revisar la información disponible en la página web regional.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2104,6 +2016,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2119,7 +2039,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2169,17 +2089,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -2188,27 +2097,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2249,24 +2150,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2547,7 +2452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2566,7 +2471,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4420,7 +4325,7 @@
         <v>498</v>
       </c>
       <c r="D84" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>205</v>
@@ -4452,7 +4357,7 @@
         <v>209</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4475,7 +4380,7 @@
         <v>209</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4498,7 +4403,7 @@
         <v>209</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4521,7 +4426,7 @@
         <v>209</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4544,7 +4449,7 @@
         <v>209</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4567,7 +4472,7 @@
         <v>209</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4590,7 +4495,7 @@
         <v>209</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4613,7 +4518,7 @@
         <v>209</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4636,7 +4541,7 @@
         <v>209</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5064,7 +4969,7 @@
         <v>67</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>212</v>
@@ -5087,7 +4992,7 @@
         <v>68</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>212</v>
@@ -5156,7 +5061,7 @@
         <v>250</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>212</v>
@@ -5202,7 +5107,7 @@
         <v>251</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>212</v>
@@ -5211,7 +5116,7 @@
         <v>209</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5225,7 +5130,7 @@
         <v>252</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>212</v>
@@ -5234,7 +5139,7 @@
         <v>209</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5248,7 +5153,7 @@
         <v>253</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>212</v>
@@ -5257,7 +5162,7 @@
         <v>209</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5271,7 +5176,7 @@
         <v>254</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>212</v>
@@ -5280,7 +5185,7 @@
         <v>209</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5294,7 +5199,7 @@
         <v>255</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>212</v>
@@ -5303,7 +5208,7 @@
         <v>209</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5317,7 +5222,7 @@
         <v>256</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>212</v>
@@ -5326,7 +5231,7 @@
         <v>209</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5432,7 +5337,7 @@
         <v>238</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>462</v>
@@ -5464,7 +5369,7 @@
         <v>209</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5478,7 +5383,7 @@
         <v>131</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>462</v>
@@ -5487,7 +5392,7 @@
         <v>209</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5501,7 +5406,7 @@
         <v>132</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>462</v>
@@ -5510,7 +5415,7 @@
         <v>209</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5524,7 +5429,7 @@
         <v>133</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>462</v>
@@ -5533,7 +5438,7 @@
         <v>209</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5556,7 +5461,7 @@
         <v>211</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5579,7 +5484,7 @@
         <v>211</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5602,7 +5507,7 @@
         <v>211</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5625,7 +5530,7 @@
         <v>211</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5648,7 +5553,7 @@
         <v>211</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5671,7 +5576,7 @@
         <v>211</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5694,7 +5599,7 @@
         <v>211</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5717,7 +5622,7 @@
         <v>211</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5740,7 +5645,7 @@
         <v>211</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5763,7 +5668,7 @@
         <v>211</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5786,7 +5691,7 @@
         <v>211</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5809,7 +5714,7 @@
         <v>211</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5820,10 +5725,10 @@
         <v>6</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>214</v>
@@ -5832,98 +5737,98 @@
         <v>211</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="23">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="19">
         <v>7</v>
       </c>
-      <c r="B146" s="23" t="s">
+      <c r="B146" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C146" s="23" t="s">
+      <c r="C146" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D146" s="23" t="s">
+      <c r="D146" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E146" s="23" t="s">
+      <c r="E146" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F146" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="G146" s="23" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="23">
+      <c r="F146" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="G146" s="19" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="19">
         <v>7</v>
       </c>
-      <c r="B147" s="23" t="s">
+      <c r="B147" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C147" s="23" t="s">
+      <c r="C147" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="D147" s="23" t="s">
+      <c r="D147" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="E147" s="23" t="s">
+      <c r="E147" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="F147" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="G147" s="23" t="s">
+      <c r="F147" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="G147" s="19" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="148" spans="1:7" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="23">
+    <row r="148" spans="1:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="19">
         <v>7</v>
       </c>
-      <c r="B148" s="23" t="s">
+      <c r="B148" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C148" s="23" t="s">
+      <c r="C148" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="D148" s="23" t="s">
+      <c r="D148" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="E148" s="23" t="s">
+      <c r="E148" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="F148" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="G148" s="23" t="s">
+      <c r="F148" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="G148" s="19" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="23">
+    <row r="149" spans="1:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="19">
         <v>7</v>
       </c>
-      <c r="B149" s="23" t="s">
+      <c r="B149" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C149" s="23" t="s">
+      <c r="C149" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="D149" s="23" t="s">
+      <c r="D149" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="E149" s="23" t="s">
-        <v>590</v>
-      </c>
-      <c r="F149" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="G149" s="23" t="s">
+      <c r="E149" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="F149" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="G149" s="19" t="s">
         <v>426</v>
       </c>
     </row>
@@ -6214,7 +6119,7 @@
         <v>179</v>
       </c>
       <c r="D162" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>205</v>
@@ -6513,7 +6418,7 @@
         <v>297</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>213</v>
@@ -6533,10 +6438,10 @@
         <v>153</v>
       </c>
       <c r="C176" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>213</v>
@@ -6545,7 +6450,7 @@
         <v>209</v>
       </c>
       <c r="G176" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6568,7 +6473,7 @@
         <v>224</v>
       </c>
       <c r="G177" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6583,76 +6488,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="160.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="160.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="3) Empalme de series: Los datos de las variables 7.1.1, 7.1.2, 7.1.3. y 7.1.4. se presentan emplamadas. El índice de ventas a precios constantes base promedio año 2018=100 calculado desde enero de 2018 fue empalmado con la base promedio año 2014=100. Este empalme se efectuó por el método de retropolación. Para mayor información puede revisar aquí / comités y notas técnicas / base promedio año 2018=100 /Separata técnica - Empalme de series economicas de corto plazo base promedio año 2018=100." xr:uid="{50A2E415-42DA-4BB4-AA2E-BF9D74941FA7}"/>
+    <hyperlink ref="B4" r:id="rId1" display="3) Empalme de series: Los datos de las variables 7.1.1, 7.1.2, 7.1.3. y 7.1.4. se presentan emplamadas. El índice de ventas a precios constantes base promedio año 2018=100 calculado desde enero de 2018 fue empalmado con la base promedio año 2014=100. Este empalme se efectuó por el método de retropolación. Para mayor información puede revisar aquí / comités y notas técnicas / base promedio año 2018=100 /Separata técnica - Empalme de series economicas de corto plazo base promedio año 2018=100." xr:uid="{50A2E415-42DA-4BB4-AA2E-BF9D74941FA7}"/>
+    <hyperlink ref="B6" r:id="rId2" display="Empalme de series: Los datos de la variable 3.1 de la Región de Atacama corresponden a cifras empalmadas. El índice base promedio 2018=100 calculado desde enero de 2018, fue empalmado con la base promedio 2014=100. Este empalme se efectuó por el método de retropolación por factor. Para mayor información, puede revisar nuestra pagina web, haciendo clic en esta celda y seleccionando la opción / comités y notas técnicas / base promedio año 2018=100 / Separata técnica - Empalme de series económicas de corto plazo base promedio año 2018=100." xr:uid="{895406E6-3AC5-4386-9C56-4E53315024DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6670,7 +6626,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B1" s="7"/>
     </row>
@@ -6684,7 +6640,7 @@
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>511</v>
@@ -6695,47 +6651,47 @@
         <v>498</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>535</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6743,7 +6699,7 @@
         <v>297</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6751,7 +6707,7 @@
         <v>162</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240209\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240308\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBAA35E-6131-4780-BFE2-B947C5F61552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0784DF09-8244-4AD9-9EA0-F43ACD116E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -1936,9 +1936,6 @@
     <t>Como una mejora a las cifras ya disponibles para la Región de Ñuble, en la publicación de noviembre de 2021, desde septiembre de 2018, se agregan cifras del sector Energía, gas y agua, específicamente los códigos: 5.1, 5.1.1, 5.1.4, 5.2, 5.2.1, 5.2.2, 5.2.3, 5.2.5, 5.2.7.</t>
   </si>
   <si>
-    <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (diciembre de 2023) debido a que no se encuentra disponible.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1958,6 +1955,9 @@
       </rPr>
       <t>Los datos de la variable 3.1 de la Región de Atacama, de la base promedio año 2018=100 calculados hasta noviembre de 2023, son referenciales, dado que existen datos oficiales publicados para dicho período en la página web de la región. A partir de diciembre de 2023 la cifra mensual tiene carácter de oficial. Para mayores antecedentes, puede revisar la información disponible en la página web regional.</t>
     </r>
+  </si>
+  <si>
+    <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (enero de 2024) debido a que no se encuentra disponible.</t>
   </si>
 </sst>
 </file>
@@ -2452,7 +2452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -6490,7 +6490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -6554,7 +6554,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6594,7 +6594,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240308\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240410\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0784DF09-8244-4AD9-9EA0-F43ACD116E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E25AF94-64A6-41FF-8A74-80D9DD6BF181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-1200" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -1957,7 +1957,7 @@
     </r>
   </si>
   <si>
-    <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (enero de 2024) debido a que no se encuentra disponible.</t>
+    <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (febrero de 2024) debido a que no se encuentra disponible.</t>
   </si>
 </sst>
 </file>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240410\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240508\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E25AF94-64A6-41FF-8A74-80D9DD6BF181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D026111F-61AA-4C51-960C-031BDF5501BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-1200" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Hoja1" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Descriptor de variables'!$A$4:$G$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Descriptor de variables'!$A$4:$G$179</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="603">
   <si>
     <t>Definición</t>
   </si>
@@ -1903,6 +1903,35 @@
     </r>
   </si>
   <si>
+    <t>Para la construcción de la variable código 9.1 se realizaron ajustes en el valor FOB de las exportaciones desde 2008 debido a la depuración de la base de datos del Servicio Nacional de Aduanas que se comenzó a aplicar el año 2016 en el Instituto Nacional de Estadísticas. Este ajuste tiene como objetivo identificar el origen regional de la exportación.</t>
+  </si>
+  <si>
+    <t>En los casos de las series que contienen el símbolo "-" en algunos meses, esto significa que no fue posible entregar el dato debido a restricciones de secreto estadístico.</t>
+  </si>
+  <si>
+    <t>En los casos de las series que presentan códigos de variables agregados, esto se debe a que no fue posible desagregar la información debido a restricciones de secreto estadístico.</t>
+  </si>
+  <si>
+    <t>Como una mejora a las cifras ya disponibles para la Región de Ñuble, en la publicación de noviembre de 2021, desde septiembre de 2018, se agregan cifras del sector Energía, gas y agua, específicamente los códigos: 5.1, 5.1.1, 5.1.4, 5.2, 5.2.1, 5.2.2, 5.2.3, 5.2.5, 5.2.7.</t>
+  </si>
+  <si>
+    <t>3.1.3</t>
+  </si>
+  <si>
+    <t>3.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indice de la Actividad de Cobre Base promedio año 2018=100. Este índice mide la evolución de la actividad productiva de la industria del cobre, desde el punto de vista de la oferta.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indice de la Actividad de Minerales Metalíferos Base promedio año 2018=100. Este índice mide la evolución de la actividad productiva de la industria de extracción de los Metales Metalíferos, desde el punto de vista de la oferta.
+</t>
+  </si>
+  <si>
+    <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (marzo de 2024) debido a que no se encuentra disponible.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1920,20 +1949,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Los datos de la variable 3.1 de la Región de Atacama corresponden a cifras empalmadas. El índice base promedio 2018=100 calculado desde enero de 2018, fue empalmado con la base promedio 2014=100. Este empalme se efectuó por el método de retropolación por factor. Para mayor información, puede revisar nuestra pagina web, haciendo clic en esta celda y seleccionando la opción / comités y notas técnicas / base promedio año 2018=100 / Separata técnica - Empalme de series económicas de corto plazo base promedio año 2018=100.</t>
+      <t>Los datos de la variable 3.1 de la Región de Atacama y Coquimbo corresponden a cifras empalmadas. El índice base promedio 2018=100 calculado desde enero de 2018, fue empalmado con la base promedio 2014=100. Este empalme se efectuó por el método de retropolación por factor. Para mayor información, puede revisar nuestra pagina web, haciendo clic en esta celda y seleccionando la opción / comités y notas técnicas / base promedio año 2018=100 / Separata técnica - Empalme de series económicas de corto plazo base promedio año 2018=100.</t>
     </r>
   </si>
   <si>
-    <t>Para la construcción de la variable código 9.1 se realizaron ajustes en el valor FOB de las exportaciones desde 2008 debido a la depuración de la base de datos del Servicio Nacional de Aduanas que se comenzó a aplicar el año 2016 en el Instituto Nacional de Estadísticas. Este ajuste tiene como objetivo identificar el origen regional de la exportación.</t>
-  </si>
-  <si>
-    <t>En los casos de las series que contienen el símbolo "-" en algunos meses, esto significa que no fue posible entregar el dato debido a restricciones de secreto estadístico.</t>
-  </si>
-  <si>
-    <t>En los casos de las series que presentan códigos de variables agregados, esto se debe a que no fue posible desagregar la información debido a restricciones de secreto estadístico.</t>
-  </si>
-  <si>
-    <t>Como una mejora a las cifras ya disponibles para la Región de Ñuble, en la publicación de noviembre de 2021, desde septiembre de 2018, se agregan cifras del sector Energía, gas y agua, específicamente los códigos: 5.1, 5.1.1, 5.1.4, 5.2, 5.2.1, 5.2.2, 5.2.3, 5.2.5, 5.2.7.</t>
+    <t>Minería del Cobre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respecto al IPMin trimestral de la Región de Coquimbo, los índices publicados corresponden a un promedio del trimestre. </t>
   </si>
   <si>
     <r>
@@ -1944,7 +1967,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Cifras referenciales: </t>
+      <t xml:space="preserve">Cifras referenciales Región de Atacama: </t>
     </r>
     <r>
       <rPr>
@@ -1953,11 +1976,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Los datos de la variable 3.1 de la Región de Atacama, de la base promedio año 2018=100 calculados hasta noviembre de 2023, son referenciales, dado que existen datos oficiales publicados para dicho período en la página web de la región. A partir de diciembre de 2023 la cifra mensual tiene carácter de oficial. Para mayores antecedentes, puede revisar la información disponible en la página web regional.</t>
+      <t>Los datos de la variable 3.1 de la base promedio año 2018=100 calculados hasta noviembre de 2023, son referenciales, dado que existen datos oficiales publicados para dicho período en la página web de la región. A partir de diciembre de 2023 la cifra mensual tiene carácter de oficial. Para mayores antecedentes, puede revisar la información disponible en la página web regional.</t>
     </r>
   </si>
   <si>
-    <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (febrero de 2024) debido a que no se encuentra disponible.</t>
+    <t>Los datos de cantidad de los codigos 3.2, 3.3 y 3.4 de la Región de Coquimbo corresponden al total de la producción que se ha producido en el trimestre.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cifras referenciales Región de Coquimbo: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Los datos de la variable 3.1 de la base promedio año 2018=100 calculados hasta diciembre de 2023, son referenciales, dado que existen datos oficiales publicados para dicho período en la página web de la región. A partir de marzo de 2024 la cifra mensual tiene carácter de oficial. Para mayores antecedentes, puede revisar la información disponible en la página web regional.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2102,7 +2146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2140,9 +2184,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2450,7 +2491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G178"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -2460,11 +2501,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="71.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -4057,7 +4098,7 @@
       <c r="F72" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G72" s="15" t="s">
+      <c r="G72" s="1" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4080,7 +4121,7 @@
       <c r="F73" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G73" s="15" t="s">
+      <c r="G73" s="1" t="s">
         <v>477</v>
       </c>
     </row>
@@ -4103,7 +4144,7 @@
       <c r="F74" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="G74" s="1" t="s">
         <v>478</v>
       </c>
     </row>
@@ -4115,19 +4156,19 @@
         <v>3</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>281</v>
+        <v>592</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>25</v>
+        <v>598</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>203</v>
+        <v>464</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>194</v>
+        <v>594</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4138,19 +4179,19 @@
         <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>282</v>
+        <v>593</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>26</v>
+        <v>475</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>204</v>
+        <v>464</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>195</v>
+        <v>595</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4161,19 +4202,19 @@
         <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G77" s="15" t="s">
-        <v>196</v>
+      <c r="G77" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4184,19 +4225,19 @@
         <v>3</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4207,19 +4248,19 @@
         <v>3</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4230,19 +4271,19 @@
         <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G80" s="15" t="s">
-        <v>207</v>
+      <c r="G80" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4253,10 +4294,10 @@
         <v>3</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>205</v>
@@ -4264,54 +4305,54 @@
       <c r="F81" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>208</v>
+      <c r="G81" s="15" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>62</v>
+        <v>286</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>464</v>
+        <v>206</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>469</v>
+      <c r="G82" s="15" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>63</v>
+        <v>287</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>464</v>
+        <v>205</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>470</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4322,19 +4363,19 @@
         <v>32</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D84" t="s">
-        <v>532</v>
+        <v>62</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>205</v>
+        <v>464</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4345,19 +4386,19 @@
         <v>32</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>258</v>
+        <v>63</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>518</v>
+        <v>470</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4368,19 +4409,19 @@
         <v>32</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>53</v>
+        <v>498</v>
+      </c>
+      <c r="D86" t="s">
+        <v>532</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>471</v>
+        <v>205</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4391,19 +4432,19 @@
         <v>32</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4414,10 +4455,10 @@
         <v>32</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>471</v>
@@ -4426,7 +4467,7 @@
         <v>209</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4437,19 +4478,19 @@
         <v>32</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4460,10 +4501,10 @@
         <v>32</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>471</v>
@@ -4472,7 +4513,7 @@
         <v>209</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4483,19 +4524,19 @@
         <v>32</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4506,10 +4547,10 @@
         <v>32</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>471</v>
@@ -4518,7 +4559,7 @@
         <v>209</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4529,10 +4570,10 @@
         <v>32</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>471</v>
@@ -4541,7 +4582,7 @@
         <v>209</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4552,19 +4593,19 @@
         <v>32</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>482</v>
+        <v>524</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4575,19 +4616,19 @@
         <v>32</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>65</v>
+        <v>257</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>483</v>
+        <v>525</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4598,10 +4639,10 @@
         <v>32</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>464</v>
@@ -4610,7 +4651,7 @@
         <v>209</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4621,10 +4662,10 @@
         <v>32</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>275</v>
+        <v>65</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>464</v>
@@ -4633,7 +4674,7 @@
         <v>209</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4644,10 +4685,10 @@
         <v>32</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>276</v>
+        <v>66</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>464</v>
@@ -4656,7 +4697,7 @@
         <v>209</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4667,10 +4708,10 @@
         <v>32</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>464</v>
@@ -4679,7 +4720,7 @@
         <v>209</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4690,10 +4731,10 @@
         <v>32</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>464</v>
@@ -4702,7 +4743,7 @@
         <v>209</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4713,19 +4754,19 @@
         <v>32</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>504</v>
+        <v>39</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4736,10 +4777,10 @@
         <v>32</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>464</v>
@@ -4748,7 +4789,7 @@
         <v>209</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4759,19 +4800,19 @@
         <v>32</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>42</v>
+        <v>504</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4782,10 +4823,10 @@
         <v>32</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>464</v>
@@ -4794,7 +4835,7 @@
         <v>209</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4805,10 +4846,10 @@
         <v>32</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>464</v>
@@ -4817,7 +4858,7 @@
         <v>209</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4828,10 +4869,10 @@
         <v>32</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>464</v>
@@ -4840,7 +4881,7 @@
         <v>209</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4851,10 +4892,10 @@
         <v>32</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>464</v>
@@ -4863,7 +4904,7 @@
         <v>209</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4874,10 +4915,10 @@
         <v>32</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>464</v>
@@ -4886,7 +4927,7 @@
         <v>209</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4897,10 +4938,10 @@
         <v>32</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>464</v>
@@ -4909,7 +4950,7 @@
         <v>209</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4920,10 +4961,10 @@
         <v>32</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>464</v>
@@ -4932,7 +4973,7 @@
         <v>209</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4943,10 +4984,10 @@
         <v>32</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>464</v>
@@ -4955,53 +4996,53 @@
         <v>209</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>67</v>
+        <v>273</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>558</v>
+        <v>49</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>212</v>
+        <v>464</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>186</v>
+        <v>494</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>68</v>
+        <v>274</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>531</v>
+        <v>50</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>212</v>
+        <v>464</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>184</v>
+        <v>495</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5012,10 +5053,10 @@
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>4</v>
+        <v>558</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>212</v>
@@ -5024,7 +5065,7 @@
         <v>210</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5035,10 +5076,10 @@
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>249</v>
+        <v>68</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>5</v>
+        <v>531</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>212</v>
@@ -5047,7 +5088,7 @@
         <v>210</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5058,10 +5099,10 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>533</v>
+        <v>69</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>212</v>
@@ -5070,7 +5111,7 @@
         <v>210</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>467</v>
+        <v>187</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5081,19 +5122,19 @@
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5104,19 +5145,19 @@
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>570</v>
+        <v>250</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>533</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>571</v>
+        <v>467</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5127,10 +5168,10 @@
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>252</v>
+        <v>70</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>560</v>
+        <v>2</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>212</v>
@@ -5139,7 +5180,7 @@
         <v>209</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>572</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5150,10 +5191,10 @@
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>212</v>
@@ -5162,7 +5203,7 @@
         <v>209</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5173,10 +5214,10 @@
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>212</v>
@@ -5185,7 +5226,7 @@
         <v>209</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5196,10 +5237,10 @@
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>212</v>
@@ -5208,7 +5249,7 @@
         <v>209</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5219,10 +5260,10 @@
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>212</v>
@@ -5231,53 +5272,53 @@
         <v>209</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>7</v>
+        <v>563</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>462</v>
+        <v>212</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>189</v>
+        <v>575</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>8</v>
+        <v>564</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>462</v>
+        <v>212</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>190</v>
+        <v>576</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5288,10 +5329,10 @@
         <v>6</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>462</v>
@@ -5300,7 +5341,7 @@
         <v>209</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5311,19 +5352,19 @@
         <v>6</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>237</v>
+        <v>128</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>213</v>
+        <v>462</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>508</v>
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5334,10 +5375,10 @@
         <v>6</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>238</v>
+        <v>129</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>566</v>
+        <v>9</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>462</v>
@@ -5346,7 +5387,7 @@
         <v>209</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5357,19 +5398,19 @@
         <v>6</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>462</v>
+        <v>213</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>554</v>
+        <v>508</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5380,10 +5421,10 @@
         <v>6</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>462</v>
@@ -5392,7 +5433,7 @@
         <v>209</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>555</v>
+        <v>192</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5403,10 +5444,10 @@
         <v>6</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>569</v>
+        <v>11</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>462</v>
@@ -5415,7 +5456,7 @@
         <v>209</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5426,10 +5467,10 @@
         <v>6</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>462</v>
@@ -5438,7 +5479,7 @@
         <v>209</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5449,19 +5490,19 @@
         <v>6</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>239</v>
+        <v>132</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>12</v>
+        <v>569</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>214</v>
+        <v>462</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5472,19 +5513,19 @@
         <v>6</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>13</v>
+        <v>568</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>214</v>
+        <v>462</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5495,10 +5536,10 @@
         <v>6</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>214</v>
@@ -5507,7 +5548,7 @@
         <v>211</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5518,10 +5559,10 @@
         <v>6</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>242</v>
+        <v>134</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>214</v>
@@ -5530,7 +5571,7 @@
         <v>211</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5541,10 +5582,10 @@
         <v>6</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>243</v>
+        <v>135</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>214</v>
@@ -5553,7 +5594,7 @@
         <v>211</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5564,10 +5605,10 @@
         <v>6</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>214</v>
@@ -5576,7 +5617,7 @@
         <v>211</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5587,10 +5628,10 @@
         <v>6</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>214</v>
@@ -5599,7 +5640,7 @@
         <v>211</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5610,10 +5651,10 @@
         <v>6</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>214</v>
@@ -5622,7 +5663,7 @@
         <v>211</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5633,10 +5674,10 @@
         <v>6</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>214</v>
@@ -5645,7 +5686,7 @@
         <v>211</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5656,10 +5697,10 @@
         <v>6</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>214</v>
@@ -5668,7 +5709,7 @@
         <v>211</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5679,10 +5720,10 @@
         <v>6</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>214</v>
@@ -5691,7 +5732,7 @@
         <v>211</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5702,10 +5743,10 @@
         <v>6</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>214</v>
@@ -5714,7 +5755,7 @@
         <v>211</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5725,10 +5766,10 @@
         <v>6</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>577</v>
+        <v>240</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>579</v>
+        <v>22</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>214</v>
@@ -5737,145 +5778,145 @@
         <v>211</v>
       </c>
       <c r="G145" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>6</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>6</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="146" spans="1:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="19">
+    <row r="148" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="18">
         <v>7</v>
       </c>
-      <c r="B146" s="19" t="s">
+      <c r="B148" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C146" s="19" t="s">
+      <c r="C148" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D146" s="19" t="s">
+      <c r="D148" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="E146" s="19" t="s">
+      <c r="E148" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="F146" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="G146" s="19" t="s">
+      <c r="F148" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="G148" s="18" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="147" spans="1:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="19">
+    <row r="149" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="18">
         <v>7</v>
       </c>
-      <c r="B147" s="19" t="s">
+      <c r="B149" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C147" s="19" t="s">
+      <c r="C149" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="D147" s="19" t="s">
+      <c r="D149" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E147" s="19" t="s">
+      <c r="E149" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="F147" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="G147" s="19" t="s">
+      <c r="F149" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="G149" s="18" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="148" spans="1:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="19">
+    <row r="150" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="18">
         <v>7</v>
       </c>
-      <c r="B148" s="19" t="s">
+      <c r="B150" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C148" s="19" t="s">
+      <c r="C150" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="D148" s="19" t="s">
+      <c r="D150" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E148" s="19" t="s">
+      <c r="E150" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="F148" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="G148" s="19" t="s">
+      <c r="F150" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="G150" s="18" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="19">
+    <row r="151" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="18">
         <v>7</v>
       </c>
-      <c r="B149" s="19" t="s">
+      <c r="B151" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C149" s="19" t="s">
+      <c r="C151" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="D149" s="19" t="s">
+      <c r="D151" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="E149" s="19" t="s">
+      <c r="E151" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="F149" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="G149" s="19" t="s">
+      <c r="F151" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="G151" s="18" t="s">
         <v>426</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>7</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>7</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5886,19 +5927,19 @@
         <v>174</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5909,19 +5950,19 @@
         <v>174</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5932,19 +5973,19 @@
         <v>174</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5955,19 +5996,19 @@
         <v>174</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5978,65 +6019,65 @@
         <v>174</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6047,10 +6088,10 @@
         <v>153</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>213</v>
@@ -6059,7 +6100,7 @@
         <v>215</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6070,10 +6111,10 @@
         <v>153</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>213</v>
@@ -6082,7 +6123,7 @@
         <v>215</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6093,10 +6134,10 @@
         <v>153</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>288</v>
+        <v>177</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>213</v>
@@ -6105,7 +6146,7 @@
         <v>215</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6116,19 +6157,19 @@
         <v>153</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D162" t="s">
-        <v>559</v>
+        <v>178</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6139,19 +6180,19 @@
         <v>153</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>180</v>
+        <v>288</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6162,10 +6203,10 @@
         <v>153</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>141</v>
+        <v>179</v>
+      </c>
+      <c r="D164" t="s">
+        <v>559</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>205</v>
@@ -6174,7 +6215,7 @@
         <v>209</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6185,10 +6226,10 @@
         <v>153</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>205</v>
@@ -6197,7 +6238,7 @@
         <v>209</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6208,10 +6249,10 @@
         <v>153</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>205</v>
@@ -6220,7 +6261,7 @@
         <v>209</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6231,10 +6272,10 @@
         <v>153</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>289</v>
+        <v>182</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>205</v>
@@ -6243,7 +6284,7 @@
         <v>209</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6254,10 +6295,10 @@
         <v>153</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>205</v>
@@ -6266,7 +6307,7 @@
         <v>209</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6277,10 +6318,10 @@
         <v>153</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>205</v>
@@ -6289,7 +6330,7 @@
         <v>209</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6300,10 +6341,10 @@
         <v>153</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>205</v>
@@ -6312,7 +6353,7 @@
         <v>209</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6323,10 +6364,10 @@
         <v>153</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>205</v>
@@ -6335,7 +6376,7 @@
         <v>209</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6346,10 +6387,10 @@
         <v>153</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>205</v>
@@ -6358,7 +6399,7 @@
         <v>209</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6369,19 +6410,19 @@
         <v>153</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6392,19 +6433,19 @@
         <v>153</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6415,19 +6456,19 @@
         <v>153</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>565</v>
+        <v>151</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G175" s="2" t="s">
-        <v>465</v>
+      <c r="G175" s="1" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6438,48 +6479,94 @@
         <v>153</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>537</v>
+        <v>296</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>538</v>
+        <v>152</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G176" s="17" t="s">
-        <v>539</v>
+      <c r="G176" s="1" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
+        <v>8</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>8</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G178" s="16" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
         <v>9</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="F179" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G177" s="15" t="s">
+      <c r="G179" s="15" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G175">
-    <sortCondition ref="A5:A175"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G177">
+    <sortCondition ref="A5:A177"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6488,7 +6575,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -6501,104 +6588,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21" t="s">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21" t="s">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>10</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
-        <v>11</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -6711,7 +6822,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
+      <c r="B14" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240508\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240606\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D026111F-61AA-4C51-960C-031BDF5501BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E41D15-8984-437C-8AA8-5E0B1EDB6905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-1200" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1929,9 +1929,6 @@
 </t>
   </si>
   <si>
-    <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (marzo de 2024) debido a que no se encuentra disponible.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2002,6 +1999,9 @@
       </rPr>
       <t>Los datos de la variable 3.1 de la base promedio año 2018=100 calculados hasta diciembre de 2023, son referenciales, dado que existen datos oficiales publicados para dicho período en la página web de la región. A partir de marzo de 2024 la cifra mensual tiene carácter de oficial. Para mayores antecedentes, puede revisar la información disponible en la página web regional.</t>
     </r>
+  </si>
+  <si>
+    <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (abril de 2024) debido a que no se encuentra disponible.</t>
   </si>
 </sst>
 </file>
@@ -4159,7 +4159,7 @@
         <v>592</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>464</v>
@@ -6633,7 +6633,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6641,7 +6641,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6649,7 +6649,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -6657,7 +6657,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6665,7 +6665,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6705,7 +6705,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240606\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240709\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E41D15-8984-437C-8AA8-5E0B1EDB6905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2A768B-268B-43B5-8912-8EE1DFBA98BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-1200" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="606">
   <si>
     <t>Definición</t>
   </si>
@@ -619,9 +619,6 @@
   </si>
   <si>
     <t>Superficie en metros cuadrados, de las solicitudes de edificación no habitacional autorizadas en un mes determinado.</t>
-  </si>
-  <si>
-    <t>Índice de Producción Minera (IPMin) Base promedio año 2014=100. Este índice mide la evolución de la actividad productiva de la industria minera desde el punto de vista de la oferta.</t>
   </si>
   <si>
     <t xml:space="preserve">Cantidad de cobre mina, medida en toneladas métricas de fino contenido (tmf). Incluye toneladas métricas de fino contenido en concentrados de cobre, cátodos y blister-ánodos, realizados íntegramente en el mismo lugar (o cercano) de la extracción.
@@ -1504,9 +1501,6 @@
     <t>Carga transportada hacia o desde el exterior si  empaquetar ni embalar, en grandes cantidades  en forma sólida líquida o gaseosa.</t>
   </si>
   <si>
-    <t>Índice de Producción Manufacturera (IPMan) Base promedio año 2014=100. Este índice mide la evolución de la actividad productiva de la industria manufacturera desde el punto de vista de la oferta.</t>
-  </si>
-  <si>
     <t>Índice de la división 10 "Elaboración de productos alimenticios" según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
   </si>
   <si>
@@ -1533,57 +1527,6 @@
   <si>
     <t>Índice de Producción de Minería no Metálica Base promedio año 2014=100. Comprende las actividades de extracción y tratamiento de
 recursos minerales que, luego de un adecuado tratamiento, se transforman en productos aplicables a diversos usos industriales y agrícolas, gracias a sus propiedades físicas y/o químicas. Considera la división 08 – Explotación de otras minas y canteras, de la CIIU4.CL.</t>
-  </si>
-  <si>
-    <t>Índice de producción de la división 25 "Fabricación de productos elaborados de metal, excepto maquinaria y equipo" Base promedio año 2014=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
-  </si>
-  <si>
-    <t>Índice de producción la división 23 "Fabricación de otros productos minerales no metálicos" Base promedio año 2014=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
-  </si>
-  <si>
-    <t>Índice de producción de la división 24 "Fabricación de metales comunes" Base promedio año 2014=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
-  </si>
-  <si>
-    <t>Índice de producción de la división 11 "Elaboración de bebidas alcohólicas y no alcohólicas" Base promedio año 2014=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
-  </si>
-  <si>
-    <t>Índice de producción de la división 12 "Elaboración de productos de tabaco" Base promedio año 2014=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
-  </si>
-  <si>
-    <t>Índice de producción de la división 16 "Producción de madera y fabricación de productos de madera y corcho, excepto muebles; fabricación de artículos de paja y de materiales trenzables" Base promedio año 2014=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
-  </si>
-  <si>
-    <t>Índice de producción de la división 17 "Fabricación de papel y productos de papel" Base promedio año 2014=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
-  </si>
-  <si>
-    <t>Índice de producción de la división 18 "Impresión y reproducción de grabaciones" Base promedio año 2014=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
-  </si>
-  <si>
-    <t>Índice de producción de la división 19 "Fabricación de coque y productos de la refinación del petróleo" Base promedio año 2014=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
-  </si>
-  <si>
-    <t>Índice de producción de la división 20 "Fabricación de sustancias y productos químicos" Base promedio año 2014=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
-  </si>
-  <si>
-    <t>Índice de producción de la división 21 "Fabricación de productos farmacéuticos, sustancias químicas medicinales y productos botánicos de uso farmacéutico" Base promedio año 2014=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
-  </si>
-  <si>
-    <t>Índice de producción de la división 22 "Fabricación de productos de caucho y de plástico" Base promedio año 2014=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
-  </si>
-  <si>
-    <t>Índice de producción de la división 27 "Fabricación de equipo eléctrico" Base promedio año 2014=100,  según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
-  </si>
-  <si>
-    <t>Índice de producción de la división 28 "Fabricación de maquinaria y equipo n.c.p" Base promedio año 2014=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
-  </si>
-  <si>
-    <t>Índice de producción de la división 29 "Fabricación de vehículos automotores, remolques y semiremolques" Base promedio año 2014=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
-  </si>
-  <si>
-    <t>Índice de producción de la división 30 "Fabricación de otros tipos de equipo de transporte" Base promedio año 2014=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
-  </si>
-  <si>
-    <t>Índice de producción de la división 31 "Fabricación de muebles" Base promedio año 2014=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
   </si>
   <si>
     <t>Cantidad de contenedores/depósitos de carga  de tamaño de 20 pies. TEUS es la unidad de medida utilizada en el transporte marítimo de contenedores equivalente a la capacidad de carga de un contenedor normalizado de 20 pies</t>
@@ -2001,7 +1944,91 @@
     </r>
   </si>
   <si>
-    <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (abril de 2024) debido a que no se encuentra disponible.</t>
+    <t>Índice de Producción Minera (IPMin) Base promedio año 2014=100 o Base promedio 2018=100 según la región que corresponda. Este índice mide la evolución de la actividad productiva de la industria minera desde el punto de vista de la oferta.</t>
+  </si>
+  <si>
+    <t>Índice de Producción Manufacturera (IPMan) Base promedio año 2014=100 o Base promedio 2018=100 según la región que corresponda. Este índice mide la evolución de la actividad productiva de la industria manufacturera desde el punto de vista de la oferta.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cifras referenciales Región de Biobío: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Los datos de las variables 4.1, 4.1.1, 4.1.4, 4.1.5, 4.1.7, 4.1.8, 4.1.9, 4.1.11, 4.1.12, 4.1.13,  4.1.17  de la base promedio año 2018=100 calculados hasta abril de 2024, son referenciales, dado que existen datos oficiales publicados para dicho período en la página web de la región. A partir de mayo de 2024 la cifra mensual tiene carácter de oficial. Para mayores antecedentes, puede revisar la información disponible en la página web regional.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1, 4.1.1, 4.1.4, 4.1.5, 4.1.7, 4.1.8, 4.1.9, 4.1.11, 4.1.12, 4.1.13, 4.1.17  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta serie se presenta desagregada para Biobío (base promedio año 2018=100) calculados hasta abril de 2024, son referenciales, dado que existen datos oficiales publicados para dicho período en la página web de la región. A partir de mayo de 2024 la cifra mensual tiene carácter de oficial. </t>
+  </si>
+  <si>
+    <t>Índice de producción de la división 11 "Elaboración de bebidas alcohólicas y no alcohólicas" Base promedio año 2014=100 o Base promedio año 2018=100 , según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>Índice de producción de la división 12 "Elaboración de productos de tabaco" Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>Índice de producción de la división 16 "Producción de madera y fabricación de productos de madera y corcho, excepto muebles; fabricación de artículos de paja y de materiales trenzables" Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>Índice de producción de la división 17 "Fabricación de papel y productos de papel" Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>Índice de producción de la división 18 "Impresión y reproducción de grabaciones" Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>Índice de producción de la división 19 "Fabricación de coque y productos de la refinación del petróleo" Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>Índice de producción de la división 20 "Fabricación de sustancias y productos químicos" Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>Índice de producción de la división 21 "Fabricación de productos farmacéuticos, sustancias químicas medicinales y productos botánicos de uso farmacéutico" Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>Índice de producción de la división 22 "Fabricación de productos de caucho y de plástico" Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>Índice de producción la división 23 "Fabricación de otros productos minerales no metálicos" Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>Índice de producción de la división 24 "Fabricación de metales comunes" Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>Índice de producción de la división 25 "Fabricación de productos elaborados de metal, excepto maquinaria y equipo" Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>Índice de producción de la división 27 "Fabricación de equipo eléctrico" Base promedio año 2014=100 o Base promedio año 2018=100,  según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>Índice de producción de la división 28 "Fabricación de maquinaria y equipo n.c.p" Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>Índice de producción de la división 29 "Fabricación de vehículos automotores, remolques y semiremolques" Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>Índice de producción de la división 30 "Fabricación de otros tipos de equipo de transporte" Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>Índice de producción de la división 31 "Fabricación de muebles" Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (mayo de 2024) debido a que no se encuentra disponible.</t>
   </si>
 </sst>
 </file>
@@ -2146,7 +2173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2205,6 +2232,9 @@
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2512,27 +2542,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>202</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>0</v>
@@ -2552,13 +2582,13 @@
         <v>154</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2572,16 +2602,16 @@
         <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2595,16 +2625,16 @@
         <v>122</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2615,19 +2645,19 @@
         <v>156</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>155</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2638,19 +2668,19 @@
         <v>156</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2661,19 +2691,19 @@
         <v>156</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2684,19 +2714,19 @@
         <v>156</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2707,19 +2737,19 @@
         <v>113</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2730,19 +2760,19 @@
         <v>113</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2753,19 +2783,19 @@
         <v>113</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2776,19 +2806,19 @@
         <v>113</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2799,19 +2829,19 @@
         <v>113</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2822,19 +2852,19 @@
         <v>113</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2845,19 +2875,19 @@
         <v>113</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2868,19 +2898,19 @@
         <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2891,19 +2921,19 @@
         <v>113</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2914,19 +2944,19 @@
         <v>113</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2937,19 +2967,19 @@
         <v>113</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2960,19 +2990,19 @@
         <v>113</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2983,19 +3013,19 @@
         <v>113</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3006,19 +3036,19 @@
         <v>113</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3029,19 +3059,19 @@
         <v>113</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3052,19 +3082,19 @@
         <v>113</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3075,19 +3105,19 @@
         <v>113</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3098,19 +3128,19 @@
         <v>113</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3121,19 +3151,19 @@
         <v>113</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3144,19 +3174,19 @@
         <v>113</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3167,19 +3197,19 @@
         <v>113</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3190,19 +3220,19 @@
         <v>113</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3213,19 +3243,19 @@
         <v>113</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3236,19 +3266,19 @@
         <v>113</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3259,19 +3289,19 @@
         <v>113</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3282,19 +3312,19 @@
         <v>113</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3305,19 +3335,19 @@
         <v>113</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3328,19 +3358,19 @@
         <v>113</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3351,19 +3381,19 @@
         <v>113</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3374,19 +3404,19 @@
         <v>113</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3397,19 +3427,19 @@
         <v>113</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3420,19 +3450,19 @@
         <v>113</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3443,19 +3473,19 @@
         <v>113</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3466,19 +3496,19 @@
         <v>113</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3489,19 +3519,19 @@
         <v>113</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3512,19 +3542,19 @@
         <v>113</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3535,19 +3565,19 @@
         <v>113</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3558,19 +3588,19 @@
         <v>113</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>102</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3581,19 +3611,19 @@
         <v>113</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3604,19 +3634,19 @@
         <v>113</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3627,19 +3657,19 @@
         <v>113</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3650,19 +3680,19 @@
         <v>113</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3673,19 +3703,19 @@
         <v>113</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3696,19 +3726,19 @@
         <v>113</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3719,19 +3749,19 @@
         <v>113</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3742,19 +3772,19 @@
         <v>113</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3765,19 +3795,19 @@
         <v>113</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>120</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3788,19 +3818,19 @@
         <v>113</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3811,19 +3841,19 @@
         <v>113</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3834,19 +3864,19 @@
         <v>113</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3857,19 +3887,19 @@
         <v>113</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3880,19 +3910,19 @@
         <v>113</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3903,19 +3933,19 @@
         <v>113</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3926,19 +3956,19 @@
         <v>113</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3949,19 +3979,19 @@
         <v>113</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>112</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3972,19 +4002,19 @@
         <v>113</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3995,19 +4025,19 @@
         <v>113</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4018,19 +4048,19 @@
         <v>113</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4041,19 +4071,19 @@
         <v>113</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4064,19 +4094,19 @@
         <v>113</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4093,13 +4123,13 @@
         <v>24</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>193</v>
+        <v>583</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4110,19 +4140,19 @@
         <v>3</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4133,19 +4163,19 @@
         <v>3</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4156,19 +4186,19 @@
         <v>3</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4179,19 +4209,19 @@
         <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4202,19 +4232,19 @@
         <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4225,19 +4255,19 @@
         <v>3</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4248,19 +4278,19 @@
         <v>3</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4271,19 +4301,19 @@
         <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4294,19 +4324,19 @@
         <v>3</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4317,19 +4347,19 @@
         <v>3</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G82" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4340,19 +4370,19 @@
         <v>3</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4369,13 +4399,13 @@
         <v>51</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>469</v>
+        <v>584</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4392,13 +4422,13 @@
         <v>33</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4409,19 +4439,19 @@
         <v>32</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="D86" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4432,19 +4462,19 @@
         <v>32</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4455,19 +4485,19 @@
         <v>32</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4478,19 +4508,19 @@
         <v>32</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4501,19 +4531,19 @@
         <v>32</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4524,19 +4554,19 @@
         <v>32</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4547,19 +4577,19 @@
         <v>32</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4570,19 +4600,19 @@
         <v>32</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4593,19 +4623,19 @@
         <v>32</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4616,19 +4646,19 @@
         <v>32</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4645,13 +4675,13 @@
         <v>34</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>482</v>
+        <v>588</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4668,13 +4698,13 @@
         <v>35</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>483</v>
+        <v>589</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4691,13 +4721,13 @@
         <v>36</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>484</v>
+        <v>590</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4708,19 +4738,19 @@
         <v>32</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>485</v>
+        <v>591</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4731,19 +4761,19 @@
         <v>32</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>486</v>
+        <v>592</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4754,19 +4784,19 @@
         <v>32</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>487</v>
+        <v>593</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4777,19 +4807,19 @@
         <v>32</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>488</v>
+        <v>594</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4800,19 +4830,19 @@
         <v>32</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4823,19 +4853,19 @@
         <v>32</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>489</v>
+        <v>595</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4846,19 +4876,19 @@
         <v>32</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>490</v>
+        <v>596</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4869,19 +4899,19 @@
         <v>32</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>480</v>
+        <v>597</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4892,19 +4922,19 @@
         <v>32</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>481</v>
+        <v>598</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4915,19 +4945,19 @@
         <v>32</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>479</v>
+        <v>599</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4938,19 +4968,19 @@
         <v>32</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>491</v>
+        <v>600</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4961,19 +4991,19 @@
         <v>32</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>492</v>
+        <v>601</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4984,19 +5014,19 @@
         <v>32</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>493</v>
+        <v>602</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5007,19 +5037,19 @@
         <v>32</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>494</v>
+        <v>603</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5030,19 +5060,19 @@
         <v>32</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>495</v>
+        <v>604</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5056,13 +5086,13 @@
         <v>67</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>186</v>
@@ -5079,13 +5109,13 @@
         <v>68</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>184</v>
@@ -5105,10 +5135,10 @@
         <v>4</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>187</v>
@@ -5122,16 +5152,16 @@
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>185</v>
@@ -5145,19 +5175,19 @@
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5174,10 +5204,10 @@
         <v>2</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>188</v>
@@ -5191,19 +5221,19 @@
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5214,19 +5244,19 @@
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5237,19 +5267,19 @@
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5260,19 +5290,19 @@
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5283,19 +5313,19 @@
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5306,19 +5336,19 @@
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5329,16 +5359,16 @@
         <v>6</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>189</v>
@@ -5358,10 +5388,10 @@
         <v>8</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>190</v>
@@ -5381,10 +5411,10 @@
         <v>9</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>191</v>
@@ -5398,19 +5428,19 @@
         <v>6</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5421,16 +5451,16 @@
         <v>6</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>192</v>
@@ -5450,13 +5480,13 @@
         <v>11</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5470,16 +5500,16 @@
         <v>131</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5493,16 +5523,16 @@
         <v>132</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5516,16 +5546,16 @@
         <v>133</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5536,19 +5566,19 @@
         <v>6</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5565,13 +5595,13 @@
         <v>13</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5588,13 +5618,13 @@
         <v>14</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5605,19 +5635,19 @@
         <v>6</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5628,19 +5658,19 @@
         <v>6</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5651,19 +5681,19 @@
         <v>6</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5674,19 +5704,19 @@
         <v>6</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5697,19 +5727,19 @@
         <v>6</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5720,19 +5750,19 @@
         <v>6</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5743,19 +5773,19 @@
         <v>6</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5766,19 +5796,19 @@
         <v>6</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5789,19 +5819,19 @@
         <v>6</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5812,19 +5842,19 @@
         <v>6</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
     </row>
     <row r="148" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5835,19 +5865,19 @@
         <v>174</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D148" s="18" t="s">
         <v>163</v>
       </c>
       <c r="E148" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G148" s="18" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
     </row>
     <row r="149" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5858,19 +5888,19 @@
         <v>174</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D149" s="18" t="s">
         <v>164</v>
       </c>
       <c r="E149" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="150" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5881,19 +5911,19 @@
         <v>174</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D150" s="18" t="s">
         <v>165</v>
       </c>
       <c r="E150" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5904,19 +5934,19 @@
         <v>174</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D151" s="18" t="s">
         <v>166</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5927,19 +5957,19 @@
         <v>174</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5950,19 +5980,19 @@
         <v>174</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>168</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5973,19 +6003,19 @@
         <v>174</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5996,19 +6026,19 @@
         <v>174</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6019,19 +6049,19 @@
         <v>174</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>171</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6042,19 +6072,19 @@
         <v>174</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>172</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6065,19 +6095,19 @@
         <v>174</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6094,13 +6124,13 @@
         <v>136</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6117,13 +6147,13 @@
         <v>137</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6140,13 +6170,13 @@
         <v>138</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6163,13 +6193,13 @@
         <v>139</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6180,19 +6210,19 @@
         <v>153</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6206,16 +6236,16 @@
         <v>179</v>
       </c>
       <c r="D164" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6232,13 +6262,13 @@
         <v>140</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6255,13 +6285,13 @@
         <v>141</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6278,13 +6308,13 @@
         <v>142</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6301,13 +6331,13 @@
         <v>143</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6318,19 +6348,19 @@
         <v>153</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6341,19 +6371,19 @@
         <v>153</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6364,19 +6394,19 @@
         <v>153</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>147</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6387,19 +6417,19 @@
         <v>153</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6410,19 +6440,19 @@
         <v>153</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6433,19 +6463,19 @@
         <v>153</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6456,19 +6486,19 @@
         <v>153</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6479,19 +6509,19 @@
         <v>153</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6502,19 +6532,19 @@
         <v>153</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6525,19 +6555,19 @@
         <v>153</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G178" s="16" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6554,17 +6584,18 @@
         <v>161</v>
       </c>
       <c r="E179" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G179" s="15" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A4:G179" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G177">
     <sortCondition ref="A5:A177"/>
   </sortState>
@@ -6575,7 +6606,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -6588,10 +6619,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="B1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -6601,7 +6632,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6609,7 +6640,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -6617,7 +6648,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6625,7 +6656,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6633,7 +6664,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6641,7 +6672,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6649,7 +6680,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -6657,7 +6688,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6665,7 +6696,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6673,7 +6704,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -6681,7 +6712,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6689,7 +6720,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6697,7 +6728,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -6705,11 +6736,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>602</v>
-      </c>
-    </row>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -6727,7 +6766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6737,80 +6778,80 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6818,7 +6859,15 @@
         <v>162</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>517</v>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6857,307 +6906,307 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
@@ -7167,47 +7216,47 @@
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
@@ -7222,52 +7271,52 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
@@ -7277,7 +7326,7 @@
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -7292,87 +7341,87 @@
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
@@ -7392,7 +7441,7 @@
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
@@ -7402,37 +7451,37 @@
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
@@ -7447,12 +7496,12 @@
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
@@ -7477,7 +7526,7 @@
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
@@ -7492,102 +7541,102 @@
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
@@ -7612,7 +7661,7 @@
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
@@ -7642,47 +7691,47 @@
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240709\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240723\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2A768B-268B-43B5-8912-8EE1DFBA98BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF62850-DFB5-4BC0-9321-EBD89E530EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-1200" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -1501,9 +1501,6 @@
     <t>Carga transportada hacia o desde el exterior si  empaquetar ni embalar, en grandes cantidades  en forma sólida líquida o gaseosa.</t>
   </si>
   <si>
-    <t>Índice de la división 10 "Elaboración de productos alimenticios" según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
-  </si>
-  <si>
     <t>kg</t>
   </si>
   <si>
@@ -1659,9 +1656,6 @@
   </si>
   <si>
     <t>Tránsito de vehículos que circulan por pórticos de autopistas urbanas. Pórtico: es una estructura metálica de tres piezas que se encuentra en las autopistas el cual en su parte superior posee dispositivos de lectura electrónica y que enlaza con el dispositivo denominado TAG o Televía, el cual va montado en el parabrisas del automóvil y recibe y envía información al pasar por debajo del pórtico.</t>
-  </si>
-  <si>
-    <t>1.4, 2.1, 2.1.6, 2.1.7, 2.1.8, 2.1.9, 2.1.11, 2.1.12, 2.1.14, 2.1.20. 2.1.26, 2.1.a, 2.1.b, 2.1.c, 2.1.d, 2.1.e, 2.2, 2.2.3, 2.2.4, 2.2.5, 2.2.9, 2.2.10, 2.2.11, 2.2.b, 2.2.c, 2.2.d, 2.2.e, 3.6, 4.1, 4.1.1,  4.1.2, 4.1.4, 4.1.5, 4.1.7, 4.1.8, 4.1.10, 4.1.11, 4.1.12, 4.1.13,  4.1.17, 5.1, 5.1.1, 5.1.2, 5.1.4, 5.2 y 9.1</t>
   </si>
   <si>
     <t>Esta serie se presenta agregada para la Región del Biobío y Región de Ñuble desde enero 2018 a agosto 2018. Desde septiembre 2018 a la fecha se presentan las cifras bajo la nueva División Política Administrativa (DPA)</t>
@@ -1977,9 +1971,6 @@
     <t xml:space="preserve">Esta serie se presenta desagregada para Biobío (base promedio año 2018=100) calculados hasta abril de 2024, son referenciales, dado que existen datos oficiales publicados para dicho período en la página web de la región. A partir de mayo de 2024 la cifra mensual tiene carácter de oficial. </t>
   </si>
   <si>
-    <t>Índice de producción de la división 11 "Elaboración de bebidas alcohólicas y no alcohólicas" Base promedio año 2014=100 o Base promedio año 2018=100 , según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
-  </si>
-  <si>
     <t>Índice de producción de la división 12 "Elaboración de productos de tabaco" Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
   </si>
   <si>
@@ -2029,6 +2020,15 @@
   </si>
   <si>
     <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (mayo de 2024) debido a que no se encuentra disponible.</t>
+  </si>
+  <si>
+    <t>Índice de producción de la división 11 "Elaboración de bebidas alcohólicas y no alcohólicas" Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>Índice de la división 10 "Elaboración de productos alimenticios"  Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>1.4, 2.1, 2.1.6, 2.1.7, 2.1.8, 2.1.9, 2.1.11, 2.1.12, 2.1.14, 2.1.20. 2.1.26, 2.1.a, 2.1.b, 2.1.c, 2.1.d, 2.1.e, 2.2, 2.2.3, 2.2.4, 2.2.5, 2.2.9, 2.2.10, 2.2.11, 2.2.b, 2.2.c, 2.2.d, 2.2.e, 3.6, 5.1, 5.1.1, 5.1.2, 5.1.4, 5.2 y 9.1</t>
   </si>
 </sst>
 </file>
@@ -2542,18 +2542,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>198</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>199</v>
@@ -2585,7 +2585,7 @@
         <v>204</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>440</v>
@@ -2674,7 +2674,7 @@
         <v>159</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>208</v>
@@ -2697,7 +2697,7 @@
         <v>157</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>217</v>
@@ -2720,7 +2720,7 @@
         <v>158</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>208</v>
@@ -4129,7 +4129,7 @@
         <v>208</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4140,10 +4140,10 @@
         <v>3</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>463</v>
@@ -4152,7 +4152,7 @@
         <v>208</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4163,10 +4163,10 @@
         <v>3</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>463</v>
@@ -4175,7 +4175,7 @@
         <v>208</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4186,10 +4186,10 @@
         <v>3</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>463</v>
@@ -4198,7 +4198,7 @@
         <v>208</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4209,10 +4209,10 @@
         <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>463</v>
@@ -4221,7 +4221,7 @@
         <v>208</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4405,7 +4405,7 @@
         <v>208</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4428,7 +4428,7 @@
         <v>208</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>468</v>
+        <v>604</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4439,10 +4439,10 @@
         <v>32</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D86" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>204</v>
@@ -4451,7 +4451,7 @@
         <v>208</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4468,13 +4468,13 @@
         <v>52</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4491,13 +4491,13 @@
         <v>53</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4514,13 +4514,13 @@
         <v>54</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4537,13 +4537,13 @@
         <v>55</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4560,13 +4560,13 @@
         <v>56</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4583,13 +4583,13 @@
         <v>57</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4606,13 +4606,13 @@
         <v>58</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4629,13 +4629,13 @@
         <v>59</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4652,13 +4652,13 @@
         <v>60</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4681,7 +4681,7 @@
         <v>208</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4704,7 +4704,7 @@
         <v>208</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4727,7 +4727,7 @@
         <v>208</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4750,7 +4750,7 @@
         <v>208</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4773,7 +4773,7 @@
         <v>208</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4796,7 +4796,7 @@
         <v>208</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4819,7 +4819,7 @@
         <v>208</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4833,16 +4833,16 @@
         <v>278</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4865,7 +4865,7 @@
         <v>208</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4888,7 +4888,7 @@
         <v>208</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4911,7 +4911,7 @@
         <v>208</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4934,7 +4934,7 @@
         <v>208</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4957,7 +4957,7 @@
         <v>208</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4980,7 +4980,7 @@
         <v>208</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5003,7 +5003,7 @@
         <v>208</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5026,7 +5026,7 @@
         <v>208</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5049,7 +5049,7 @@
         <v>208</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5072,7 +5072,7 @@
         <v>208</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5086,7 +5086,7 @@
         <v>67</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>211</v>
@@ -5109,7 +5109,7 @@
         <v>68</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>211</v>
@@ -5178,7 +5178,7 @@
         <v>249</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>211</v>
@@ -5224,7 +5224,7 @@
         <v>250</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>211</v>
@@ -5233,7 +5233,7 @@
         <v>208</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5247,7 +5247,7 @@
         <v>251</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>211</v>
@@ -5256,7 +5256,7 @@
         <v>208</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5270,7 +5270,7 @@
         <v>252</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>211</v>
@@ -5279,7 +5279,7 @@
         <v>208</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5293,7 +5293,7 @@
         <v>253</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>211</v>
@@ -5302,7 +5302,7 @@
         <v>208</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5316,7 +5316,7 @@
         <v>254</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>211</v>
@@ -5325,7 +5325,7 @@
         <v>208</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5339,7 +5339,7 @@
         <v>255</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>211</v>
@@ -5348,7 +5348,7 @@
         <v>208</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5440,7 +5440,7 @@
         <v>208</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5454,7 +5454,7 @@
         <v>237</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>461</v>
@@ -5486,7 +5486,7 @@
         <v>208</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5500,7 +5500,7 @@
         <v>131</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>461</v>
@@ -5509,7 +5509,7 @@
         <v>208</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5523,7 +5523,7 @@
         <v>132</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>461</v>
@@ -5532,7 +5532,7 @@
         <v>208</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5546,7 +5546,7 @@
         <v>133</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>461</v>
@@ -5555,7 +5555,7 @@
         <v>208</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5578,7 +5578,7 @@
         <v>210</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5601,7 +5601,7 @@
         <v>210</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5624,7 +5624,7 @@
         <v>210</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5647,7 +5647,7 @@
         <v>210</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5670,7 +5670,7 @@
         <v>210</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5693,7 +5693,7 @@
         <v>210</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5716,7 +5716,7 @@
         <v>210</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5739,7 +5739,7 @@
         <v>210</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5762,7 +5762,7 @@
         <v>210</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5785,7 +5785,7 @@
         <v>210</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5808,7 +5808,7 @@
         <v>210</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5831,7 +5831,7 @@
         <v>210</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5842,10 +5842,10 @@
         <v>6</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>560</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>213</v>
@@ -5854,7 +5854,7 @@
         <v>210</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="148" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5877,7 +5877,7 @@
         <v>208</v>
       </c>
       <c r="G148" s="18" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="149" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5940,7 +5940,7 @@
         <v>166</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F151" s="18" t="s">
         <v>208</v>
@@ -6236,7 +6236,7 @@
         <v>179</v>
       </c>
       <c r="D164" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>204</v>
@@ -6498,7 +6498,7 @@
         <v>208</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6521,7 +6521,7 @@
         <v>208</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6535,7 +6535,7 @@
         <v>296</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>212</v>
@@ -6555,10 +6555,10 @@
         <v>153</v>
       </c>
       <c r="C178" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>212</v>
@@ -6567,7 +6567,7 @@
         <v>208</v>
       </c>
       <c r="G178" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6590,7 +6590,7 @@
         <v>223</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6620,7 +6620,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="4"/>
@@ -6632,7 +6632,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6640,7 +6640,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -6648,7 +6648,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6656,7 +6656,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6664,7 +6664,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6672,7 +6672,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6680,7 +6680,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -6688,7 +6688,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6696,7 +6696,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6704,7 +6704,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -6712,7 +6712,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6720,7 +6720,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6728,7 +6728,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -6736,7 +6736,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6744,7 +6744,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6766,9 +6766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6778,72 +6776,72 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>521</v>
+        <v>605</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>515</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6851,7 +6849,7 @@
         <v>296</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6859,15 +6857,15 @@
         <v>162</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7216,12 +7214,12 @@
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
@@ -7271,7 +7269,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -7326,7 +7324,7 @@
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -7341,7 +7339,7 @@
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
@@ -7396,7 +7394,7 @@
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
@@ -7411,7 +7409,7 @@
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240723\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240807\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF62850-DFB5-4BC0-9321-EBD89E530EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D211602-968A-49B8-A5F2-FB5448A81D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-1200" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1658,9 +1658,6 @@
     <t>Tránsito de vehículos que circulan por pórticos de autopistas urbanas. Pórtico: es una estructura metálica de tres piezas que se encuentra en las autopistas el cual en su parte superior posee dispositivos de lectura electrónica y que enlaza con el dispositivo denominado TAG o Televía, el cual va montado en el parabrisas del automóvil y recibe y envía información al pasar por debajo del pórtico.</t>
   </si>
   <si>
-    <t>Esta serie se presenta agregada para la Región del Biobío y Región de Ñuble desde enero 2018 a agosto 2018. Desde septiembre 2018 a la fecha se presentan las cifras bajo la nueva División Política Administrativa (DPA)</t>
-  </si>
-  <si>
     <t>Ejecución presupuestaria Subtítulo 31 de Iniciativas de Inversión, realizada por la  Dirección de Arquitectura, reportada por el Ministerio de Obras Públicas (MOP). Comprende los gastos mensuales acumulados desde enero de cada año.</t>
   </si>
   <si>
@@ -2019,13 +2016,16 @@
     <t>Índice de producción de la división 31 "Fabricación de muebles" Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
   </si>
   <si>
-    <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (mayo de 2024) debido a que no se encuentra disponible.</t>
-  </si>
-  <si>
     <t>Índice de producción de la división 11 "Elaboración de bebidas alcohólicas y no alcohólicas" Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
   </si>
   <si>
     <t>Índice de la división 10 "Elaboración de productos alimenticios"  Base promedio año 2014=100 o Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>Esta serie se presenta agregada para la Región del Biobío y Región de Ñuble desde enero 2018 a septiembre 2018. Desde octubre 2018 a la fecha se presentan las cifras bajo la nueva División Política Administrativa (DPA)</t>
+  </si>
+  <si>
+    <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (junio de 2024) debido a que no se encuentra disponible.</t>
   </si>
   <si>
     <t>1.4, 2.1, 2.1.6, 2.1.7, 2.1.8, 2.1.9, 2.1.11, 2.1.12, 2.1.14, 2.1.20. 2.1.26, 2.1.a, 2.1.b, 2.1.c, 2.1.d, 2.1.e, 2.2, 2.2.3, 2.2.4, 2.2.5, 2.2.9, 2.2.10, 2.2.11, 2.2.b, 2.2.c, 2.2.d, 2.2.e, 3.6, 5.1, 5.1.1, 5.1.2, 5.1.4, 5.2 y 9.1</t>
@@ -4129,7 +4129,7 @@
         <v>208</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4186,10 +4186,10 @@
         <v>3</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>463</v>
@@ -4198,7 +4198,7 @@
         <v>208</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4209,7 +4209,7 @@
         <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>472</v>
@@ -4221,7 +4221,7 @@
         <v>208</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4405,7 +4405,7 @@
         <v>208</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4428,7 +4428,7 @@
         <v>208</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4681,7 +4681,7 @@
         <v>208</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4704,7 +4704,7 @@
         <v>208</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4727,7 +4727,7 @@
         <v>208</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4750,7 +4750,7 @@
         <v>208</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4773,7 +4773,7 @@
         <v>208</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4796,7 +4796,7 @@
         <v>208</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4819,7 +4819,7 @@
         <v>208</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4865,7 +4865,7 @@
         <v>208</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4888,7 +4888,7 @@
         <v>208</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4911,7 +4911,7 @@
         <v>208</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4934,7 +4934,7 @@
         <v>208</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4957,7 +4957,7 @@
         <v>208</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4980,7 +4980,7 @@
         <v>208</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5003,7 +5003,7 @@
         <v>208</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5026,7 +5026,7 @@
         <v>208</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5049,7 +5049,7 @@
         <v>208</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5072,7 +5072,7 @@
         <v>208</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5086,7 +5086,7 @@
         <v>67</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>211</v>
@@ -5224,7 +5224,7 @@
         <v>250</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>211</v>
@@ -5233,7 +5233,7 @@
         <v>208</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5247,7 +5247,7 @@
         <v>251</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>211</v>
@@ -5256,7 +5256,7 @@
         <v>208</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5270,7 +5270,7 @@
         <v>252</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>211</v>
@@ -5279,7 +5279,7 @@
         <v>208</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5293,7 +5293,7 @@
         <v>253</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>211</v>
@@ -5302,7 +5302,7 @@
         <v>208</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5316,7 +5316,7 @@
         <v>254</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>211</v>
@@ -5325,7 +5325,7 @@
         <v>208</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5339,7 +5339,7 @@
         <v>255</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>211</v>
@@ -5348,7 +5348,7 @@
         <v>208</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5454,7 +5454,7 @@
         <v>237</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>461</v>
@@ -5486,7 +5486,7 @@
         <v>208</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5500,7 +5500,7 @@
         <v>131</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>461</v>
@@ -5509,7 +5509,7 @@
         <v>208</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5523,7 +5523,7 @@
         <v>132</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>461</v>
@@ -5532,7 +5532,7 @@
         <v>208</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5546,7 +5546,7 @@
         <v>133</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>461</v>
@@ -5555,7 +5555,7 @@
         <v>208</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5578,7 +5578,7 @@
         <v>210</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5601,7 +5601,7 @@
         <v>210</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5624,7 +5624,7 @@
         <v>210</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5647,7 +5647,7 @@
         <v>210</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5670,7 +5670,7 @@
         <v>210</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5693,7 +5693,7 @@
         <v>210</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5716,7 +5716,7 @@
         <v>210</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5739,7 +5739,7 @@
         <v>210</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5762,7 +5762,7 @@
         <v>210</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5785,7 +5785,7 @@
         <v>210</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5808,7 +5808,7 @@
         <v>210</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5831,7 +5831,7 @@
         <v>210</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5842,10 +5842,10 @@
         <v>6</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>213</v>
@@ -5854,7 +5854,7 @@
         <v>210</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="148" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5877,7 +5877,7 @@
         <v>208</v>
       </c>
       <c r="G148" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="149" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5940,7 +5940,7 @@
         <v>166</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F151" s="18" t="s">
         <v>208</v>
@@ -6236,7 +6236,7 @@
         <v>179</v>
       </c>
       <c r="D164" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>204</v>
@@ -6535,7 +6535,7 @@
         <v>296</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>212</v>
@@ -6632,7 +6632,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6640,7 +6640,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -6648,7 +6648,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6656,7 +6656,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6664,7 +6664,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6672,7 +6672,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6680,7 +6680,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -6688,7 +6688,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6696,7 +6696,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6704,7 +6704,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -6712,7 +6712,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6720,7 +6720,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6728,7 +6728,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -6736,7 +6736,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6744,7 +6744,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6766,7 +6766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6801,7 +6801,7 @@
         <v>478</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>520</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6809,7 +6809,7 @@
         <v>516</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6833,7 +6833,7 @@
         <v>494</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6862,10 +6862,10 @@
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>584</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240807\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240906\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D211602-968A-49B8-A5F2-FB5448A81D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7902BBDD-7484-43E5-B846-07B36E3658B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-1200" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -2025,10 +2025,10 @@
     <t>Esta serie se presenta agregada para la Región del Biobío y Región de Ñuble desde enero 2018 a septiembre 2018. Desde octubre 2018 a la fecha se presentan las cifras bajo la nueva División Política Administrativa (DPA)</t>
   </si>
   <si>
-    <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (junio de 2024) debido a que no se encuentra disponible.</t>
-  </si>
-  <si>
     <t>1.4, 2.1, 2.1.6, 2.1.7, 2.1.8, 2.1.9, 2.1.11, 2.1.12, 2.1.14, 2.1.20. 2.1.26, 2.1.a, 2.1.b, 2.1.c, 2.1.d, 2.1.e, 2.2, 2.2.3, 2.2.4, 2.2.5, 2.2.9, 2.2.10, 2.2.11, 2.2.b, 2.2.c, 2.2.d, 2.2.e, 3.6, 5.1, 5.1.1, 5.1.2, 5.1.4, 5.2 y 9.1</t>
+  </si>
+  <si>
+    <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (julio de 2024) debido a que no se encuentra disponible.</t>
   </si>
 </sst>
 </file>
@@ -6736,7 +6736,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6790,7 +6790,7 @@
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>491</v>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20240906\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20241008\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7902BBDD-7484-43E5-B846-07B36E3658B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCA5A1C-F5B4-4FC3-A256-A7DC5100A884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -2028,7 +2028,7 @@
     <t>1.4, 2.1, 2.1.6, 2.1.7, 2.1.8, 2.1.9, 2.1.11, 2.1.12, 2.1.14, 2.1.20. 2.1.26, 2.1.a, 2.1.b, 2.1.c, 2.1.d, 2.1.e, 2.2, 2.2.3, 2.2.4, 2.2.5, 2.2.9, 2.2.10, 2.2.11, 2.2.b, 2.2.c, 2.2.d, 2.2.e, 3.6, 5.1, 5.1.1, 5.1.2, 5.1.4, 5.2 y 9.1</t>
   </si>
   <si>
-    <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (julio de 2024) debido a que no se encuentra disponible.</t>
+    <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (agosto de 2024) debido a que no se encuentra disponible.</t>
   </si>
 </sst>
 </file>
@@ -2523,7 +2523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -6608,7 +6608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20241008\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20241022\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCA5A1C-F5B4-4FC3-A256-A7DC5100A884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5716BF-35D5-4A9A-8E93-DCD5FE2CE59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-1950" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -1802,41 +1802,6 @@
     <t>Las cifras de las regiones de Ñuble y Biobío en los períodos de julio 2016 a agosto de 2018 son de carácter referencial, ya que, a esa fecha, la división político administrativa no era la que rige a partir de septiembre 2018.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Empalme de series:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Los datos de las variables 7.1.1, 7.1.2, 7.1.3. y 7.1.4. corresponden a cifras empalmadas. El índice base promedio 2018=100 calculado desde enero de 2018, fue empalmado con la base promedio 2014=100. Este empalme se efectuó por el método de retropolación por factor. Para mayor información, puede revisar nuestra pagina web, haciendo clic en esta celda y seleccionando la opción / comités y notas técnicas / base promedio año 2018=100 / Separata técnica - Empalme de series económicas de corto plazo base promedio año 2018=100.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cifras referenciales:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Los datos de las variables 7.1.1, 7.1.2, 7.1.3. y 7.1.4. de la base promedio año 2018=100, calculados hasta octubre de 2023, son referenciales, dado que existen datos oficiales publicados para dicho período en la página web de cada región. A partir de noviembre de 2023 la cifra mensual tiene carácter de oficial. Para mayores antecedentes, puede revisar la información disponible en las páginas web regionales.</t>
-    </r>
-  </si>
-  <si>
     <t>Para la construcción de la variable código 9.1 se realizaron ajustes en el valor FOB de las exportaciones desde 2008 debido a la depuración de la base de datos del Servicio Nacional de Aduanas que se comenzó a aplicar el año 2016 en el Instituto Nacional de Estadísticas. Este ajuste tiene como objetivo identificar el origen regional de la exportación.</t>
   </si>
   <si>
@@ -1861,27 +1826,6 @@
   <si>
     <t xml:space="preserve">Indice de la Actividad de Minerales Metalíferos Base promedio año 2018=100. Este índice mide la evolución de la actividad productiva de la industria de extracción de los Metales Metalíferos, desde el punto de vista de la oferta.
 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Empalme de series: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Los datos de la variable 3.1 de la Región de Atacama y Coquimbo corresponden a cifras empalmadas. El índice base promedio 2018=100 calculado desde enero de 2018, fue empalmado con la base promedio 2014=100. Este empalme se efectuó por el método de retropolación por factor. Para mayor información, puede revisar nuestra pagina web, haciendo clic en esta celda y seleccionando la opción / comités y notas técnicas / base promedio año 2018=100 / Separata técnica - Empalme de series económicas de corto plazo base promedio año 2018=100.</t>
-    </r>
   </si>
   <si>
     <t>Minería del Cobre</t>
@@ -2029,6 +1973,62 @@
   </si>
   <si>
     <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (agosto de 2024) debido a que no se encuentra disponible.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Empalme de series Region de Atacama y Coquimbo: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Los datos de la variable 3.1 corresponden a cifras empalmadas. El índice base promedio 2018=100 calculado desde enero de 2018, fue empalmado con la base promedio 2014=100. Este empalme se efectuó por el método de retropolación por factor. Para mayor información, puede revisar nuestra pagina web, haciendo clic en esta celda y seleccionando la opción / comités y notas técnicas / base promedio año 2018=100 / Separata técnica - Empalme de series económicas de corto plazo base promedio año 2018=100.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empalme de series ISUP:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Los datos de las variables 7.1.1, 7.1.2, 7.1.3. y 7.1.4. corresponden a cifras empalmadas. El índice base promedio 2018=100 calculado desde enero de 2018, fue empalmado con la base promedio 2014=100. Este empalme se efectuó por el método de retropolación por factor. Para mayor información, puede revisar nuestra pagina web, haciendo clic en esta celda y seleccionando la opción / comités y notas técnicas / base promedio año 2018=100 / Separata técnica - Empalme de series económicas de corto plazo base promedio año 2018=100.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cifras referenciales ISUP:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Los datos de las variables 7.1.1, 7.1.2, 7.1.3. y 7.1.4. de la base promedio año 2018=100, calculados hasta octubre de 2023, son referenciales, dado que existen datos oficiales publicados para dicho período en la página web de cada región. A partir de noviembre de 2023 la cifra mensual tiene carácter de oficial. Para mayores antecedentes, puede revisar la información disponible en las páginas web regionales.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2523,7 +2523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -4129,7 +4129,7 @@
         <v>208</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4186,10 +4186,10 @@
         <v>3</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>463</v>
@@ -4198,7 +4198,7 @@
         <v>208</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4209,7 +4209,7 @@
         <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>472</v>
@@ -4221,7 +4221,7 @@
         <v>208</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4405,7 +4405,7 @@
         <v>208</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4428,7 +4428,7 @@
         <v>208</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4681,7 +4681,7 @@
         <v>208</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4704,7 +4704,7 @@
         <v>208</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4727,7 +4727,7 @@
         <v>208</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4750,7 +4750,7 @@
         <v>208</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4773,7 +4773,7 @@
         <v>208</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4796,7 +4796,7 @@
         <v>208</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4819,7 +4819,7 @@
         <v>208</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4865,7 +4865,7 @@
         <v>208</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4888,7 +4888,7 @@
         <v>208</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4911,7 +4911,7 @@
         <v>208</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4934,7 +4934,7 @@
         <v>208</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4957,7 +4957,7 @@
         <v>208</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4980,7 +4980,7 @@
         <v>208</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5003,7 +5003,7 @@
         <v>208</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5026,7 +5026,7 @@
         <v>208</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5049,7 +5049,7 @@
         <v>208</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5072,7 +5072,7 @@
         <v>208</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6606,16 +6606,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="160.85546875" customWidth="1"/>
+    <col min="2" max="2" width="181" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -6648,7 +6648,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>564</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6656,7 +6656,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>565</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6664,7 +6664,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6672,7 +6672,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6680,15 +6680,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>9</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>579</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6696,31 +6696,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6728,27 +6728,27 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>602</v>
+      </c>
+    </row>
     <row r="20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>491</v>
@@ -6801,7 +6801,7 @@
         <v>478</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6862,10 +6862,10 @@
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">

--- a/Estadísticas Regionales/descriptor-de-campos.xlsx
+++ b/Estadísticas Regionales/descriptor-de-campos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20241022\Publicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Buvmfswinp01\CAB_SEC_ECONOMICOS_2018\Publicaciones regionales\Bases Publicadas en 2024\Base 20241206\Publicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5716BF-35D5-4A9A-8E93-DCD5FE2CE59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40349D0-E4A4-407D-AAEE-565589EE803E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-1950" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-1950" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptor de variables" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Hoja1" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Descriptor de variables'!$A$4:$G$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Descriptor de variables'!$A$4:$G$181</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="616">
   <si>
     <t>Definición</t>
   </si>
@@ -1972,9 +1972,6 @@
     <t>1.4, 2.1, 2.1.6, 2.1.7, 2.1.8, 2.1.9, 2.1.11, 2.1.12, 2.1.14, 2.1.20. 2.1.26, 2.1.a, 2.1.b, 2.1.c, 2.1.d, 2.1.e, 2.2, 2.2.3, 2.2.4, 2.2.5, 2.2.9, 2.2.10, 2.2.11, 2.2.b, 2.2.c, 2.2.d, 2.2.e, 3.6, 5.1, 5.1.1, 5.1.2, 5.1.4, 5.2 y 9.1</t>
   </si>
   <si>
-    <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (agosto de 2024) debido a que no se encuentra disponible.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2029,6 +2026,111 @@
       </rPr>
       <t xml:space="preserve"> Los datos de las variables 7.1.1, 7.1.2, 7.1.3. y 7.1.4. de la base promedio año 2018=100, calculados hasta octubre de 2023, son referenciales, dado que existen datos oficiales publicados para dicho período en la página web de cada región. A partir de noviembre de 2023 la cifra mensual tiene carácter de oficial. Para mayores antecedentes, puede revisar la información disponible en las páginas web regionales.</t>
     </r>
+  </si>
+  <si>
+    <t>4.1.19</t>
+  </si>
+  <si>
+    <t>4.1.20</t>
+  </si>
+  <si>
+    <t>División 13</t>
+  </si>
+  <si>
+    <t>División 33</t>
+  </si>
+  <si>
+    <t>Índice de producción de la división 13 "Fabricación de productos textiles" Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <t>Índice de producción de la división 33 "Reparación e instalación de maquinaria y equipo" Base promedio año 2018=100, según el clasificador CIIU4.CL2012, que forma parte del IPMan.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cifras referenciales Región de Valparaíso: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Los datos de las variables 4.1, 4.1.1, 4.1.2, 4.1.3, 4.1.5, 4.1.6, 4.1.7, 4.1.8, 4.1.9, 4.1.10, 4.1.11, 4.1.14, 4.1.15, 4.1.18 de la base promedio año 2018=100 calculados hasta agosto de 2024, son referenciales, dado que existen datos oficiales publicados para dicho período en la página web de la región. A partir de septiembre de 2024 la cifra mensual tiene carácter de oficial. Para mayores antecedentes, puede revisar la información disponible en la página web regional.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cifras referenciales Región de Los Rios: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Los datos de las variables 4.1, 4.1.1, 4.1.2, 4.1.4, 4.1.5, 4.1.11, 4.1.17 de la base promedio año 2018=100 calculados hasta agosto de 2024, son referenciales, dado que existen datos oficiales publicados para dicho período en la página web de la región. A partir de septiembre de 2024 la cifra mensual tiene carácter de oficial. Para mayores antecedentes, puede revisar la información disponible en la página web regional.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cifras referenciales Región de La Araucania: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Los datos de las variables 4.1, 4.1.4-4.1.5, 4.1.10, 4.1.14, 4.1.18  de la base promedio año 2018=100 calculados hasta agosto de 2024, son referenciales, dado que existen datos oficiales publicados para dicho período en la página web de la región. A partir de septiembre de 2024 la cifra mensual tiene carácter de oficial. Para mayores antecedentes, puede revisar la información disponible en la página web regional.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nuevas actividades en medición Región de la Araucania:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Los códigos 4.1.1, 4.1.2 y 4.1.8-4.1.11 corresponden a nuevas categorías o códigos que están disponibles en la última versión del índice de producción manufacturera, con base 2018 = 100, por lo que éstos tienen carácter de oficial a partir de enero de 2018.</t>
+    </r>
+  </si>
+  <si>
+    <t>Para algunas series de datos no se entrega el registro actualizado al último mes de referencia (octubre de 2024) debido a que no se encuentra disponible.</t>
   </si>
 </sst>
 </file>
@@ -2521,9 +2623,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G180"/>
+  <dimension ref="A1:G182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -5077,48 +5179,48 @@
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>67</v>
+        <v>605</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>536</v>
+        <v>607</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>211</v>
+        <v>463</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>186</v>
+        <v>609</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>68</v>
+        <v>606</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>511</v>
+        <v>608</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>211</v>
+        <v>463</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>184</v>
+        <v>610</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5129,10 +5231,10 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>4</v>
+        <v>536</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>211</v>
@@ -5141,7 +5243,7 @@
         <v>209</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5152,10 +5254,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>248</v>
+        <v>68</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>5</v>
+        <v>511</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>211</v>
@@ -5164,7 +5266,7 @@
         <v>209</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5175,10 +5277,10 @@
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>513</v>
+        <v>69</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>211</v>
@@ -5187,7 +5289,7 @@
         <v>209</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>466</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5198,19 +5300,19 @@
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>70</v>
+        <v>248</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5221,19 +5323,19 @@
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>548</v>
+        <v>249</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>513</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>549</v>
+        <v>466</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5244,10 +5346,10 @@
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>251</v>
+        <v>70</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>538</v>
+        <v>2</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>211</v>
@@ -5256,7 +5358,7 @@
         <v>208</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>550</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5267,10 +5369,10 @@
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>211</v>
@@ -5279,7 +5381,7 @@
         <v>208</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5290,10 +5392,10 @@
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>211</v>
@@ -5302,7 +5404,7 @@
         <v>208</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5313,10 +5415,10 @@
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>211</v>
@@ -5325,7 +5427,7 @@
         <v>208</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5336,10 +5438,10 @@
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>211</v>
@@ -5348,53 +5450,53 @@
         <v>208</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>7</v>
+        <v>541</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>461</v>
+        <v>211</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>189</v>
+        <v>553</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>8</v>
+        <v>542</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>461</v>
+        <v>211</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>190</v>
+        <v>554</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5405,10 +5507,10 @@
         <v>6</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>461</v>
@@ -5417,7 +5519,7 @@
         <v>208</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5428,19 +5530,19 @@
         <v>6</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>236</v>
+        <v>128</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>212</v>
+        <v>461</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>488</v>
+        <v>190</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5451,10 +5553,10 @@
         <v>6</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>544</v>
+        <v>9</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>461</v>
@@ -5463,7 +5565,7 @@
         <v>208</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5474,19 +5576,19 @@
         <v>6</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>461</v>
+        <v>212</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>532</v>
+        <v>488</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5497,10 +5599,10 @@
         <v>6</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>461</v>
@@ -5509,7 +5611,7 @@
         <v>208</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>533</v>
+        <v>192</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5520,10 +5622,10 @@
         <v>6</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>547</v>
+        <v>11</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>461</v>
@@ -5532,7 +5634,7 @@
         <v>208</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5543,10 +5645,10 @@
         <v>6</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>461</v>
@@ -5555,7 +5657,7 @@
         <v>208</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5566,19 +5668,19 @@
         <v>6</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>12</v>
+        <v>547</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>213</v>
+        <v>461</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5589,19 +5691,19 @@
         <v>6</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>13</v>
+        <v>546</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>213</v>
+        <v>461</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5612,10 +5714,10 @@
         <v>6</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>213</v>
@@ -5624,7 +5726,7 @@
         <v>210</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5635,10 +5737,10 @@
         <v>6</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>213</v>
@@ -5647,7 +5749,7 @@
         <v>210</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5658,10 +5760,10 @@
         <v>6</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>213</v>
@@ -5670,7 +5772,7 @@
         <v>210</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5681,10 +5783,10 @@
         <v>6</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>213</v>
@@ -5693,7 +5795,7 @@
         <v>210</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5704,10 +5806,10 @@
         <v>6</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>213</v>
@@ -5716,7 +5818,7 @@
         <v>210</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5727,10 +5829,10 @@
         <v>6</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>213</v>
@@ -5739,7 +5841,7 @@
         <v>210</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5750,10 +5852,10 @@
         <v>6</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>213</v>
@@ -5762,7 +5864,7 @@
         <v>210</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5773,10 +5875,10 @@
         <v>6</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>213</v>
@@ -5785,7 +5887,7 @@
         <v>210</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5796,10 +5898,10 @@
         <v>6</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>213</v>
@@ -5808,7 +5910,7 @@
         <v>210</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5819,10 +5921,10 @@
         <v>6</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>213</v>
@@ -5831,7 +5933,7 @@
         <v>210</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5842,10 +5944,10 @@
         <v>6</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>555</v>
+        <v>239</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>557</v>
+        <v>22</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>213</v>
@@ -5854,53 +5956,53 @@
         <v>210</v>
       </c>
       <c r="G147" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>6</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>6</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G149" s="1" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="18">
-        <v>7</v>
-      </c>
-      <c r="B148" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C148" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="D148" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="E148" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="F148" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="G148" s="18" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="18">
-        <v>7</v>
-      </c>
-      <c r="B149" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C149" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="D149" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E149" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="F149" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="G149" s="18" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="150" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5911,19 +6013,19 @@
         <v>174</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D150" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E150" s="18" t="s">
-        <v>212</v>
+        <v>463</v>
       </c>
       <c r="F150" s="18" t="s">
         <v>208</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>426</v>
+        <v>560</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5934,65 +6036,65 @@
         <v>174</v>
       </c>
       <c r="C151" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D151" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E151" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F151" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G151" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="18">
+        <v>7</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D152" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E152" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="F152" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G152" s="18" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="18">
+        <v>7</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C153" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="D151" s="18" t="s">
+      <c r="D153" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="E151" s="18" t="s">
+      <c r="E153" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="F151" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="G151" s="18" t="s">
+      <c r="F153" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G153" s="18" t="s">
         <v>425</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>7</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>7</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6003,19 +6105,19 @@
         <v>174</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6026,19 +6128,19 @@
         <v>174</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6049,19 +6151,19 @@
         <v>174</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6072,19 +6174,19 @@
         <v>174</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6095,65 +6197,65 @@
         <v>174</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6164,10 +6266,10 @@
         <v>153</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>212</v>
@@ -6176,7 +6278,7 @@
         <v>214</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6187,10 +6289,10 @@
         <v>153</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>212</v>
@@ -6199,7 +6301,7 @@
         <v>214</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6210,10 +6312,10 @@
         <v>153</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>287</v>
+        <v>177</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>212</v>
@@ -6222,7 +6324,7 @@
         <v>214</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6233,19 +6335,19 @@
         <v>153</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D164" t="s">
-        <v>537</v>
+        <v>178</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6256,19 +6358,19 @@
         <v>153</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6279,10 +6381,10 @@
         <v>153</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>141</v>
+        <v>179</v>
+      </c>
+      <c r="D166" t="s">
+        <v>537</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>204</v>
@@ -6291,7 +6393,7 @@
         <v>208</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6302,10 +6404,10 @@
         <v>153</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>204</v>
@@ -6314,7 +6416,7 @@
         <v>208</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6325,10 +6427,10 @@
         <v>153</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>204</v>
@@ -6337,7 +6439,7 @@
         <v>208</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6348,10 +6450,10 @@
         <v>153</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>288</v>
+        <v>182</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>204</v>
@@ -6360,7 +6462,7 @@
         <v>208</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6371,10 +6473,10 @@
         <v>153</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>289</v>
+        <v>183</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>204</v>
@@ -6383,7 +6485,7 @@
         <v>208</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6394,10 +6496,10 @@
         <v>153</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>204</v>
@@ -6406,7 +6508,7 @@
         <v>208</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6417,10 +6519,10 @@
         <v>153</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>204</v>
@@ -6429,7 +6531,7 @@
         <v>208</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6440,10 +6542,10 @@
         <v>153</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>204</v>
@@ -6452,7 +6554,7 @@
         <v>208</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6463,10 +6565,10 @@
         <v>153</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>204</v>
@@ -6475,7 +6577,7 @@
         <v>208</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6486,19 +6588,19 @@
         <v>153</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6509,19 +6611,19 @@
         <v>153</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6532,19 +6634,19 @@
         <v>153</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>543</v>
+        <v>151</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G177" s="2" t="s">
-        <v>464</v>
+      <c r="G177" s="1" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6555,49 +6657,95 @@
         <v>153</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>517</v>
+        <v>295</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>518</v>
+        <v>152</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G178" s="16" t="s">
-        <v>519</v>
+      <c r="G178" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
+        <v>8</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>8</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G180" s="16" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
         <v>9</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C181" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F179" s="1" t="s">
+      <c r="F181" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G179" s="15" t="s">
+      <c r="G181" s="15" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A4:G179" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G177">
-    <sortCondition ref="A5:A177"/>
+  <autoFilter ref="A4:G181" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G179">
+    <sortCondition ref="A5:A179"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6606,9 +6754,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -6648,7 +6796,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6656,7 +6804,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6664,7 +6812,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6685,70 +6833,102 @@
     </row>
     <row r="9" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>15</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B16" s="20" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>19</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
